--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M405"/>
+  <dimension ref="A1:M409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17714,6 +17714,180 @@
       <c r="M405" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>323.07</v>
+      </c>
+      <c r="C406" t="n">
+        <v>313.4299999999999</v>
+      </c>
+      <c r="D406" t="n">
+        <v>319.27</v>
+      </c>
+      <c r="E406" t="n">
+        <v>317.4166666666667</v>
+      </c>
+      <c r="F406" t="n">
+        <v>320.9566666666667</v>
+      </c>
+      <c r="G406" t="n">
+        <v>326</v>
+      </c>
+      <c r="H406" t="n">
+        <v>330.27</v>
+      </c>
+      <c r="I406" t="n">
+        <v>325.22</v>
+      </c>
+      <c r="J406" t="n">
+        <v>318.53</v>
+      </c>
+      <c r="K406" t="n">
+        <v>310.03</v>
+      </c>
+      <c r="L406" t="n">
+        <v>314.34</v>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>323.14</v>
+      </c>
+      <c r="C407" t="n">
+        <v>310.02</v>
+      </c>
+      <c r="D407" t="n">
+        <v>312.77</v>
+      </c>
+      <c r="E407" t="n">
+        <v>316.4733333333333</v>
+      </c>
+      <c r="F407" t="n">
+        <v>316.7333333333333</v>
+      </c>
+      <c r="G407" t="n">
+        <v>329.6436363636363</v>
+      </c>
+      <c r="H407" t="n">
+        <v>330.0136363636364</v>
+      </c>
+      <c r="I407" t="n">
+        <v>324.61</v>
+      </c>
+      <c r="J407" t="n">
+        <v>314.28</v>
+      </c>
+      <c r="K407" t="n">
+        <v>310.17</v>
+      </c>
+      <c r="L407" t="n">
+        <v>327.88</v>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>322.3</v>
+      </c>
+      <c r="C408" t="n">
+        <v>312.14</v>
+      </c>
+      <c r="D408" t="n">
+        <v>314.61</v>
+      </c>
+      <c r="E408" t="n">
+        <v>322.9288888888889</v>
+      </c>
+      <c r="F408" t="n">
+        <v>332.2788888888889</v>
+      </c>
+      <c r="G408" t="n">
+        <v>334.6454545454546</v>
+      </c>
+      <c r="H408" t="n">
+        <v>336.8954545454546</v>
+      </c>
+      <c r="I408" t="n">
+        <v>324.7166666666667</v>
+      </c>
+      <c r="J408" t="n">
+        <v>321.19</v>
+      </c>
+      <c r="K408" t="n">
+        <v>314.43</v>
+      </c>
+      <c r="L408" t="n">
+        <v>324.11</v>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:41+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="n">
+        <v>321.6677777777778</v>
+      </c>
+      <c r="F409" t="n">
+        <v>322.8777777777778</v>
+      </c>
+      <c r="G409" t="n">
+        <v>325.7281818181818</v>
+      </c>
+      <c r="H409" t="n">
+        <v>328.9681818181818</v>
+      </c>
+      <c r="I409" t="n">
+        <v>317.2733333333333</v>
+      </c>
+      <c r="J409" t="n">
+        <v>318.32</v>
+      </c>
+      <c r="K409" t="n">
+        <v>317.21</v>
+      </c>
+      <c r="L409" t="n">
+        <v>315.48</v>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17728,7 +17902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21826,6 +22000,46 @@
       </c>
       <c r="B409" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -21994,28 +22208,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6147652572357365</v>
+        <v>-0.5971040743205897</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K2" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07594431734823248</v>
+        <v>0.07271280538476976</v>
       </c>
       <c r="M2" t="n">
-        <v>12.26330781966387</v>
+        <v>12.23548401642472</v>
       </c>
       <c r="N2" t="n">
-        <v>249.0182936817062</v>
+        <v>248.0497401707736</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78031348489967</v>
+        <v>15.74959492084713</v>
       </c>
       <c r="P2" t="n">
-        <v>326.8880280945186</v>
+        <v>326.7127479728426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22071,28 +22285,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5239413768103014</v>
+        <v>-0.5152073422295148</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08629159351840543</v>
+        <v>0.08485047597633366</v>
       </c>
       <c r="M3" t="n">
-        <v>9.580402480235326</v>
+        <v>9.537296390856177</v>
       </c>
       <c r="N3" t="n">
-        <v>159.3420549926452</v>
+        <v>158.2092987045884</v>
       </c>
       <c r="O3" t="n">
-        <v>12.6230762887913</v>
+        <v>12.57812779011998</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8076056728855</v>
+        <v>319.7219524322435</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22148,28 +22362,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5788541498891911</v>
+        <v>-0.5711171549918086</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1414119090187701</v>
+        <v>0.1397525786922714</v>
       </c>
       <c r="M4" t="n">
-        <v>8.327893618080093</v>
+        <v>8.292224764200752</v>
       </c>
       <c r="N4" t="n">
-        <v>112.990789456346</v>
+        <v>112.3090034056112</v>
       </c>
       <c r="O4" t="n">
-        <v>10.62971257637505</v>
+        <v>10.59759422725796</v>
       </c>
       <c r="P4" t="n">
-        <v>325.1967120859441</v>
+        <v>325.1208995848901</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22225,28 +22439,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5664778262042243</v>
+        <v>-0.5708869056903489</v>
       </c>
       <c r="J5" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1965367464400172</v>
+        <v>0.2020653495867466</v>
       </c>
       <c r="M5" t="n">
-        <v>6.661435484072618</v>
+        <v>6.620664202350532</v>
       </c>
       <c r="N5" t="n">
-        <v>70.6788913565988</v>
+        <v>70.03766938465003</v>
       </c>
       <c r="O5" t="n">
-        <v>8.407073887899333</v>
+        <v>8.368851138875039</v>
       </c>
       <c r="P5" t="n">
-        <v>336.2302027742567</v>
+        <v>336.2739555499749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22302,28 +22516,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5019093952349013</v>
+        <v>-0.5088265590622497</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K6" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1643488341561031</v>
+        <v>0.1700919955849995</v>
       </c>
       <c r="M6" t="n">
-        <v>6.410150638533683</v>
+        <v>6.412421697742161</v>
       </c>
       <c r="N6" t="n">
-        <v>68.61050267249381</v>
+        <v>68.35010564687829</v>
       </c>
       <c r="O6" t="n">
-        <v>8.28314569909849</v>
+        <v>8.267412270286169</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4640975682215</v>
+        <v>339.5328533944786</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22379,28 +22593,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4257175733018707</v>
+        <v>-0.4309941659350243</v>
       </c>
       <c r="J7" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1720622744656408</v>
+        <v>0.1781332777962613</v>
       </c>
       <c r="M7" t="n">
-        <v>5.203465250023759</v>
+        <v>5.191573867229669</v>
       </c>
       <c r="N7" t="n">
-        <v>46.95199241302382</v>
+        <v>46.64533695442486</v>
       </c>
       <c r="O7" t="n">
-        <v>6.852152392717475</v>
+        <v>6.829739157129272</v>
       </c>
       <c r="P7" t="n">
-        <v>342.3773569952546</v>
+        <v>342.4294611208609</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22456,28 +22670,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3309009751105342</v>
+        <v>-0.3366742568190059</v>
       </c>
       <c r="J8" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K8" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1093824395522665</v>
+        <v>0.1145325711349772</v>
       </c>
       <c r="M8" t="n">
-        <v>5.323776187071646</v>
+        <v>5.310731933699927</v>
       </c>
       <c r="N8" t="n">
-        <v>47.6033771334745</v>
+        <v>47.28415695781546</v>
       </c>
       <c r="O8" t="n">
-        <v>6.899520065444733</v>
+        <v>6.876347646666467</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8172361583665</v>
+        <v>342.8746263182595</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22533,28 +22747,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.330191853411151</v>
+        <v>-0.337381351589961</v>
       </c>
       <c r="J9" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K9" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1012226714561184</v>
+        <v>0.1067958227675505</v>
       </c>
       <c r="M9" t="n">
-        <v>5.620624011354686</v>
+        <v>5.598836572788001</v>
       </c>
       <c r="N9" t="n">
-        <v>52.28078638014982</v>
+        <v>51.95617687703715</v>
       </c>
       <c r="O9" t="n">
-        <v>7.230545372248889</v>
+        <v>7.208063323600671</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8566234537442</v>
+        <v>334.9279235609585</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22610,28 +22824,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.27225619621436</v>
+        <v>-0.2800465837095142</v>
       </c>
       <c r="J10" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K10" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06022068488413679</v>
+        <v>0.06450870174790613</v>
       </c>
       <c r="M10" t="n">
-        <v>6.140221583374426</v>
+        <v>6.114683099680907</v>
       </c>
       <c r="N10" t="n">
-        <v>62.82779250974015</v>
+        <v>62.37601850089622</v>
       </c>
       <c r="O10" t="n">
-        <v>7.926398457669167</v>
+        <v>7.897848979367497</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9330076891814</v>
+        <v>329.0102659443902</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22687,28 +22901,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2493849236715619</v>
+        <v>-0.2660099590671767</v>
       </c>
       <c r="J11" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K11" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04908310607502353</v>
+        <v>0.05595509999397708</v>
       </c>
       <c r="M11" t="n">
-        <v>6.217431234984137</v>
+        <v>6.247202837749075</v>
       </c>
       <c r="N11" t="n">
-        <v>64.86274316375228</v>
+        <v>64.95506085932462</v>
       </c>
       <c r="O11" t="n">
-        <v>8.053740942180365</v>
+        <v>8.059470259224524</v>
       </c>
       <c r="P11" t="n">
-        <v>327.4484178412568</v>
+        <v>327.6126241832307</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22764,28 +22978,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2372328307618941</v>
+        <v>-0.2492625636564665</v>
       </c>
       <c r="J12" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K12" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05334227774853684</v>
+        <v>0.05900695246925336</v>
       </c>
       <c r="M12" t="n">
-        <v>5.847157225732595</v>
+        <v>5.863019846271408</v>
       </c>
       <c r="N12" t="n">
-        <v>54.31973141298492</v>
+        <v>54.44801701741803</v>
       </c>
       <c r="O12" t="n">
-        <v>7.370192087929929</v>
+        <v>7.378889958348616</v>
       </c>
       <c r="P12" t="n">
-        <v>332.3598308891971</v>
+        <v>332.4785314278776</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22822,7 +23036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M405"/>
+  <dimension ref="A1:M409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48033,6 +48247,262 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-42.82762682916777,173.33514174771085</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-42.828031510476194,173.33442288182977</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-42.82853811822173,173.33383329049727</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-42.8290191728851,173.33319992492883</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-42.829546099924045,173.3326452964487</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-42.83008306225808,173.332115615949</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-42.83062919816153,173.33158021069661</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-42.83118710436984,173.33106768960442</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-42.83173532025132,173.33055862548247</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-42.832274238855916,173.33003130584567</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-42.832868858383215,173.32964123452658</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-42.827627273449,173.3351423552575</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-42.82800986749845,173.3343932856247</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-42.828497757757646,173.33377569311224</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-42.82901356747619,173.33319125274778</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-42.82952169812496,173.3326056625799</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-42.830103805152326,173.3321501573489</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-42.8306278961038,173.33157762055345</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-42.83118441073736,173.33106118506046</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-42.831716838550676,173.33051309053522</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-42.832274847669524,173.3300328058302</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-42.83292773957092,173.32978630575514</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-42.82762194207401,173.33513506469876</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-42.82802332295768,173.334411685609</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-42.82850918287662,173.33379199759517</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-42.82905192721044,173.33325059950687</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-42.82961151799072,173.33275154998915</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-42.83013228003631,173.3321975742483</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-42.830662848484074,173.33164715032044</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-42.831184881755085,173.33106232246703</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-42.83174688761232,173.33058712501614</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-42.83229337298875,173.33007844823024</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-42.83291134504909,173.32974591292611</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:41+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-42.82904443352988,173.3332390059432</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-42.82955719981699,173.33266332512494</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-42.8300815148212,173.33211303913393</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-42.83062258629328,173.33156705791407</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-42.83115201352182,173.33098295285743</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-42.83173440703831,173.33055637551973</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-42.83230546227169,173.33010823366087</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-42.83287381589066,173.32965344878488</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -22053,7 +22053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22144,35 +22144,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22231,27 +22236,28 @@
       <c r="P2" t="n">
         <v>326.7127479728426</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.33233783923063 -42.825576309328, 173.34009006753067 -42.83124507201863)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3323378392306</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.825576309328</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.3400900675307</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.83124507201863</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3362139533806</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.82841069067332</v>
       </c>
     </row>
@@ -22308,27 +22314,28 @@
       <c r="P3" t="n">
         <v>319.7219524322435</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.33170263422605 -42.826042164532005, 173.33945486306126 -42.831710941777914)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.331702634226</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.82604216453201</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3394548630613</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.83171094177791</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3355787486437</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.82887655315496</v>
       </c>
     </row>
@@ -22385,27 +22392,28 @@
       <c r="P4" t="n">
         <v>325.1208995848901</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.33100428410233 -42.82655563944466, 173.33891915134214 -42.832101632077546)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3310042841023</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.82655563944466</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.3389191513421</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.83210163207755</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3349617177223</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.8293286357611</v>
       </c>
     </row>
@@ -22462,27 +22470,28 @@
       <c r="P5" t="n">
         <v>336.2739555499749</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.33028196230535 -42.82713300424155, 173.3384937243647 -42.83244059494942)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3302819623053</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.82713300424155</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3384937243647</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.83244059494942</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.334387843335</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.82978679959548</v>
       </c>
     </row>
@@ -22539,27 +22548,28 @@
       <c r="P6" t="n">
         <v>339.5328533944786</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.32963336761188 -42.827691619801264, 173.3380162805843 -42.83285260371747)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3296333676119</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.82769161980126</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3380162805843</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.83285260371747</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.3338248240981</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.83027211175937</v>
       </c>
     </row>
@@ -22616,27 +22626,28 @@
       <c r="P7" t="n">
         <v>342.4294611208609</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.329025253764 -42.82822713077719, 173.33749348932827 -42.833312303002565)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.329025253764</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.82822713077719</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3374934893283</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.83331230300256</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.3332593715461</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.83076971688988</v>
       </c>
     </row>
@@ -22693,27 +22704,28 @@
       <c r="P8" t="n">
         <v>342.8746263182595</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.3282434523404 -42.82895172467579, 173.33726944780838 -42.833488887093964)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3282434523404</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.82895172467579</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3372694478084</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.83348888709396</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3327564500744</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.83122030588488</v>
       </c>
     </row>
@@ -22770,27 +22782,28 @@
       <c r="P9" t="n">
         <v>334.9279235609585</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.32759988790562 -42.82975094796961, 173.33712681477658 -42.833696018849416)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.3275998879056</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.82975094796961</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3371268147766</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.83369601884942</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.3323633513411</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.83172348340951</v>
       </c>
     </row>
@@ -22847,27 +22860,28 @@
       <c r="P10" t="n">
         <v>329.0102659443902</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.32714593652082 -42.83035009880543, 173.3367184183987 -42.834235184270554)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.3271459365208</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.83035009880543</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.3367184183987</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.83423518427055</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.3319321774597</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.83229264153799</v>
       </c>
     </row>
@@ -22924,27 +22938,28 @@
       <c r="P11" t="n">
         <v>327.6126241832307</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.32670966215957 -42.83092597249299, 173.33628218572997 -42.834811070134585)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.3267096621596</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.83092597249299</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.33628218573</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.83481107013458</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.3314959239448</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.83286852131378</v>
       </c>
     </row>
@@ -23001,27 +23016,28 @@
       <c r="P12" t="n">
         <v>332.4785314278776</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.3262733877983 -42.83150184081459, 173.33584595306144 -42.83538695063305)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.3262733877983</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.83150184081459</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.3358459530614</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.83538695063305</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.3310596704299</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.83344439572382</v>
       </c>
     </row>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M409"/>
+  <dimension ref="A1:M411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17886,6 +17886,96 @@
         <v>315.48</v>
       </c>
       <c r="M409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>319.47</v>
+      </c>
+      <c r="C410" t="n">
+        <v>312.28</v>
+      </c>
+      <c r="D410" t="n">
+        <v>322.26</v>
+      </c>
+      <c r="E410" t="n">
+        <v>324.3188888888889</v>
+      </c>
+      <c r="F410" t="n">
+        <v>326.7188888888889</v>
+      </c>
+      <c r="G410" t="n">
+        <v>329.0145454545454</v>
+      </c>
+      <c r="H410" t="n">
+        <v>336.3345454545454</v>
+      </c>
+      <c r="I410" t="n">
+        <v>327.9966666666667</v>
+      </c>
+      <c r="J410" t="n">
+        <v>325.94</v>
+      </c>
+      <c r="K410" t="n">
+        <v>318.56</v>
+      </c>
+      <c r="L410" t="n">
+        <v>323.39</v>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>315.31</v>
+      </c>
+      <c r="C411" t="n">
+        <v>312.21</v>
+      </c>
+      <c r="D411" t="n">
+        <v>321.88</v>
+      </c>
+      <c r="E411" t="n">
+        <v>327.1688888888889</v>
+      </c>
+      <c r="F411" t="n">
+        <v>322.4088888888889</v>
+      </c>
+      <c r="G411" t="n">
+        <v>330.2127272727272</v>
+      </c>
+      <c r="H411" t="n">
+        <v>334.6227272727273</v>
+      </c>
+      <c r="I411" t="n">
+        <v>325.0766666666667</v>
+      </c>
+      <c r="J411" t="n">
+        <v>319.02</v>
+      </c>
+      <c r="K411" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="L411" t="n">
+        <v>321.24</v>
+      </c>
+      <c r="M411" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -17902,7 +17992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22040,6 +22130,26 @@
       </c>
       <c r="B413" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -22213,28 +22323,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5971040743205897</v>
+        <v>-0.590972674909126</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07271280538476976</v>
+        <v>0.07198346413635548</v>
       </c>
       <c r="M2" t="n">
-        <v>12.23548401642472</v>
+        <v>12.1934917989005</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0497401707736</v>
+        <v>246.9140442138359</v>
       </c>
       <c r="O2" t="n">
-        <v>15.74959492084713</v>
+        <v>15.71349878969785</v>
       </c>
       <c r="P2" t="n">
-        <v>326.7127479728426</v>
+        <v>326.6512147985276</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22291,28 +22401,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5152073422295148</v>
+        <v>-0.5089551790812441</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08485047597633366</v>
+        <v>0.08375585718528689</v>
       </c>
       <c r="M3" t="n">
-        <v>9.537296390856177</v>
+        <v>9.510846485310344</v>
       </c>
       <c r="N3" t="n">
-        <v>158.2092987045884</v>
+        <v>157.4783091710295</v>
       </c>
       <c r="O3" t="n">
-        <v>12.57812779011998</v>
+        <v>12.54903618494382</v>
       </c>
       <c r="P3" t="n">
-        <v>319.7219524322435</v>
+        <v>319.6598786536479</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22369,28 +22479,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5711171549918086</v>
+        <v>-0.5592235211836688</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1397525786922714</v>
+        <v>0.1352322711206544</v>
       </c>
       <c r="M4" t="n">
-        <v>8.292224764200752</v>
+        <v>8.297692459318899</v>
       </c>
       <c r="N4" t="n">
-        <v>112.3090034056112</v>
+        <v>112.4232017324838</v>
       </c>
       <c r="O4" t="n">
-        <v>10.59759422725796</v>
+        <v>10.60298079468617</v>
       </c>
       <c r="P4" t="n">
-        <v>325.1208995848901</v>
+        <v>325.0027474761405</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22447,28 +22557,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5708869056903489</v>
+        <v>-0.566652697151988</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2020653495867466</v>
+        <v>0.2011392480100053</v>
       </c>
       <c r="M5" t="n">
-        <v>6.620664202350532</v>
+        <v>6.604748910051867</v>
       </c>
       <c r="N5" t="n">
-        <v>70.03766938465003</v>
+        <v>69.75811521143777</v>
       </c>
       <c r="O5" t="n">
-        <v>8.368851138875039</v>
+        <v>8.352132375114619</v>
       </c>
       <c r="P5" t="n">
-        <v>336.2739555499749</v>
+        <v>336.2312140497748</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22525,28 +22635,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5088265590622497</v>
+        <v>-0.5107658544513699</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1700919955849995</v>
+        <v>0.1725736587502077</v>
       </c>
       <c r="M6" t="n">
-        <v>6.412421697742161</v>
+        <v>6.390522877823307</v>
       </c>
       <c r="N6" t="n">
-        <v>68.35010564687829</v>
+        <v>68.0286716914265</v>
       </c>
       <c r="O6" t="n">
-        <v>8.267412270286169</v>
+        <v>8.247949544670268</v>
       </c>
       <c r="P6" t="n">
-        <v>339.5328533944786</v>
+        <v>339.5524972118164</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22603,28 +22713,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4309941659350243</v>
+        <v>-0.4328285355613771</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1781332777962613</v>
+        <v>0.1809537635786805</v>
       </c>
       <c r="M7" t="n">
-        <v>5.191573867229669</v>
+        <v>5.172629808939187</v>
       </c>
       <c r="N7" t="n">
-        <v>46.64533695442486</v>
+        <v>46.40714441617185</v>
       </c>
       <c r="O7" t="n">
-        <v>6.829739157129272</v>
+        <v>6.812278944389451</v>
       </c>
       <c r="P7" t="n">
-        <v>342.4294611208609</v>
+        <v>342.447776583858</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22681,28 +22791,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3366742568190059</v>
+        <v>-0.3354099775046689</v>
       </c>
       <c r="J8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K8" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1145325711349772</v>
+        <v>0.1148289741791365</v>
       </c>
       <c r="M8" t="n">
-        <v>5.310731933699927</v>
+        <v>5.28892065494818</v>
       </c>
       <c r="N8" t="n">
-        <v>47.28415695781546</v>
+        <v>47.04447696122501</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876347646666467</v>
+        <v>6.858897649128831</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8746263182595</v>
+        <v>342.8619359467002</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22759,28 +22869,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.337381351589961</v>
+        <v>-0.3371139296284853</v>
       </c>
       <c r="J9" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K9" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1067958227675505</v>
+        <v>0.107656810580117</v>
       </c>
       <c r="M9" t="n">
-        <v>5.598836572788001</v>
+        <v>5.576212775962653</v>
       </c>
       <c r="N9" t="n">
-        <v>51.95617687703715</v>
+        <v>51.68616395142069</v>
       </c>
       <c r="O9" t="n">
-        <v>7.208063323600671</v>
+        <v>7.189309003751382</v>
       </c>
       <c r="P9" t="n">
-        <v>334.9279235609585</v>
+        <v>334.9253003402909</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22837,28 +22947,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2800465837095142</v>
+        <v>-0.2794096687437838</v>
       </c>
       <c r="J10" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K10" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06450870174790613</v>
+        <v>0.06479642793281393</v>
       </c>
       <c r="M10" t="n">
-        <v>6.114683099680907</v>
+        <v>6.100427693991834</v>
       </c>
       <c r="N10" t="n">
-        <v>62.37601850089622</v>
+        <v>62.10664100695428</v>
       </c>
       <c r="O10" t="n">
-        <v>7.897848979367497</v>
+        <v>7.880776675363557</v>
       </c>
       <c r="P10" t="n">
-        <v>329.0102659443902</v>
+        <v>329.0039907640112</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22915,28 +23025,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2660099590671767</v>
+        <v>-0.2683787576127097</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K11" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05595509999397708</v>
+        <v>0.05745993781789127</v>
       </c>
       <c r="M11" t="n">
-        <v>6.247202837749075</v>
+        <v>6.227332778341587</v>
       </c>
       <c r="N11" t="n">
-        <v>64.95506085932462</v>
+        <v>64.63307853387587</v>
       </c>
       <c r="O11" t="n">
-        <v>8.059470259224524</v>
+        <v>8.039470040610629</v>
       </c>
       <c r="P11" t="n">
-        <v>327.6126241832307</v>
+        <v>327.6363019395615</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22993,28 +23103,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2492625636564665</v>
+        <v>-0.2531429772990055</v>
       </c>
       <c r="J12" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05900695246925336</v>
+        <v>0.06127679389809015</v>
       </c>
       <c r="M12" t="n">
-        <v>5.863019846271408</v>
+        <v>5.853932507798373</v>
       </c>
       <c r="N12" t="n">
-        <v>54.44801701741803</v>
+        <v>54.23222495567577</v>
       </c>
       <c r="O12" t="n">
-        <v>7.378889958348616</v>
+        <v>7.364253183838519</v>
       </c>
       <c r="P12" t="n">
-        <v>332.4785314278776</v>
+        <v>332.51726160144</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23052,7 +23162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M409"/>
+  <dimension ref="A1:M411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48519,6 +48629,140 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-42.82760398041433,173.33511050246855</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-42.82802421152563,173.33441290070257</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-42.828556684025294,173.33385978531953</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-42.82906018676359,173.3332633779667</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-42.82957939317441,173.33269937206944</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-42.830100223795085,173.33214419361255</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-42.8306599996589,173.33164148322817</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-42.831199365544705,173.33109729772693</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-42.83176754359632,173.33063801706695</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-42.83231133296383,173.33012269781304</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-42.8329082139982,173.3297381986482</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-42.827577577399516,173.33507439688387</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-42.828023767241646,173.3344122931558</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-42.82855432449208,173.3338564180837</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-42.82907712181407,173.33328957841647</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-42.82955449064732,173.33265892483433</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-42.83010704493474,173.3321555522902</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-42.83065130543058,173.33162418803732</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-42.831186471439835,173.33106616121427</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-42.83173745108151,173.33056387539577</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-42.83231063717819,173.330120983543</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-42.83289886432921,173.32971516296178</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M411"/>
+  <dimension ref="A1:M413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17978,6 +17978,96 @@
       <c r="M411" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>309.79</v>
+      </c>
+      <c r="C412" t="n">
+        <v>319.35</v>
+      </c>
+      <c r="D412" t="n">
+        <v>323.45</v>
+      </c>
+      <c r="E412" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="F412" t="n">
+        <v>330.71</v>
+      </c>
+      <c r="G412" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="H412" t="n">
+        <v>333.96</v>
+      </c>
+      <c r="I412" t="n">
+        <v>331.72</v>
+      </c>
+      <c r="J412" t="n">
+        <v>325.14</v>
+      </c>
+      <c r="K412" t="n">
+        <v>320.58</v>
+      </c>
+      <c r="L412" t="n">
+        <v>326.67</v>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>315.83</v>
+      </c>
+      <c r="C413" t="n">
+        <v>304.43</v>
+      </c>
+      <c r="D413" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="E413" t="n">
+        <v>335.8633333333333</v>
+      </c>
+      <c r="F413" t="n">
+        <v>336.0033333333333</v>
+      </c>
+      <c r="G413" t="n">
+        <v>335.3509090909091</v>
+      </c>
+      <c r="H413" t="n">
+        <v>334.4509090909091</v>
+      </c>
+      <c r="I413" t="n">
+        <v>330.8</v>
+      </c>
+      <c r="J413" t="n">
+        <v>327.01</v>
+      </c>
+      <c r="K413" t="n">
+        <v>324.02</v>
+      </c>
+      <c r="L413" t="n">
+        <v>327.02</v>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17992,7 +18082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22150,6 +22240,26 @@
       </c>
       <c r="B415" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -22323,28 +22433,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.590972674909126</v>
+        <v>-0.5895154075097611</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07198346413635548</v>
+        <v>0.0723552077977605</v>
       </c>
       <c r="M2" t="n">
-        <v>12.1934917989005</v>
+        <v>12.14198247315112</v>
       </c>
       <c r="N2" t="n">
-        <v>246.9140442138359</v>
+        <v>245.6363627380905</v>
       </c>
       <c r="O2" t="n">
-        <v>15.71349878969785</v>
+        <v>15.67279052173194</v>
       </c>
       <c r="P2" t="n">
-        <v>326.6512147985276</v>
+        <v>326.6364246624782</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22401,28 +22511,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5089551790812441</v>
+        <v>-0.5031437228127353</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08375585718528689</v>
+        <v>0.08264600684147549</v>
       </c>
       <c r="M3" t="n">
-        <v>9.510846485310344</v>
+        <v>9.495123185339105</v>
       </c>
       <c r="N3" t="n">
-        <v>157.4783091710295</v>
+        <v>157.0527810354341</v>
       </c>
       <c r="O3" t="n">
-        <v>12.54903618494382</v>
+        <v>12.53207010176029</v>
       </c>
       <c r="P3" t="n">
-        <v>319.6598786536479</v>
+        <v>319.6018187660431</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22479,28 +22589,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5592235211836688</v>
+        <v>-0.5463201053407671</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1352322711206544</v>
+        <v>0.1301936331266613</v>
       </c>
       <c r="M4" t="n">
-        <v>8.297692459318899</v>
+        <v>8.307211795912185</v>
       </c>
       <c r="N4" t="n">
-        <v>112.4232017324838</v>
+        <v>112.6699537958043</v>
       </c>
       <c r="O4" t="n">
-        <v>10.60298079468617</v>
+        <v>10.61461039302924</v>
       </c>
       <c r="P4" t="n">
-        <v>325.0027474761405</v>
+        <v>324.8735187457287</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22557,28 +22667,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.566652697151988</v>
+        <v>-0.5553086639270024</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2011392480100053</v>
+        <v>0.1947951764260879</v>
       </c>
       <c r="M5" t="n">
-        <v>6.604748910051867</v>
+        <v>6.624032172777487</v>
       </c>
       <c r="N5" t="n">
-        <v>69.75811521143777</v>
+        <v>70.09134986012819</v>
       </c>
       <c r="O5" t="n">
-        <v>8.352132375114619</v>
+        <v>8.372057683755422</v>
       </c>
       <c r="P5" t="n">
-        <v>336.2312140497748</v>
+        <v>336.1159123917344</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22635,28 +22745,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5107658544513699</v>
+        <v>-0.5037072497956429</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1725736587502077</v>
+        <v>0.1695170501120988</v>
       </c>
       <c r="M6" t="n">
-        <v>6.390522877823307</v>
+        <v>6.38958302233165</v>
       </c>
       <c r="N6" t="n">
-        <v>68.0286716914265</v>
+        <v>67.96064493552089</v>
       </c>
       <c r="O6" t="n">
-        <v>8.247949544670268</v>
+        <v>8.243824654583628</v>
       </c>
       <c r="P6" t="n">
-        <v>339.5524972118164</v>
+        <v>339.4806840582892</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22713,28 +22823,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4328285355613771</v>
+        <v>-0.4293923150710623</v>
       </c>
       <c r="J7" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K7" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1809537635786805</v>
+        <v>0.1800458744808294</v>
       </c>
       <c r="M7" t="n">
-        <v>5.172629808939187</v>
+        <v>5.161982914193366</v>
       </c>
       <c r="N7" t="n">
-        <v>46.40714441617185</v>
+        <v>46.21442279120996</v>
       </c>
       <c r="O7" t="n">
-        <v>6.812278944389451</v>
+        <v>6.798119062741543</v>
       </c>
       <c r="P7" t="n">
-        <v>342.447776583858</v>
+        <v>342.4131556342545</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22791,28 +22901,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3354099775046689</v>
+        <v>-0.3354044080999443</v>
       </c>
       <c r="J8" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K8" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1148289741791365</v>
+        <v>0.1159251208387586</v>
       </c>
       <c r="M8" t="n">
-        <v>5.28892065494818</v>
+        <v>5.262273814707579</v>
       </c>
       <c r="N8" t="n">
-        <v>47.04447696122501</v>
+        <v>46.79590265114729</v>
       </c>
       <c r="O8" t="n">
-        <v>6.858897649128831</v>
+        <v>6.840753076317496</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8619359467002</v>
+        <v>342.8618767025527</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22869,28 +22979,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3371139296284853</v>
+        <v>-0.3319448438931535</v>
       </c>
       <c r="J9" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K9" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L9" t="n">
-        <v>0.107656810580117</v>
+        <v>0.1054994968999756</v>
       </c>
       <c r="M9" t="n">
-        <v>5.576212775962653</v>
+        <v>5.571870979398401</v>
       </c>
       <c r="N9" t="n">
-        <v>51.68616395142069</v>
+        <v>51.54336727528658</v>
       </c>
       <c r="O9" t="n">
-        <v>7.189309003751382</v>
+        <v>7.179370952617408</v>
       </c>
       <c r="P9" t="n">
-        <v>334.9253003402909</v>
+        <v>334.8732526805796</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22947,28 +23057,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2794096687437838</v>
+        <v>-0.2751228808829201</v>
       </c>
       <c r="J10" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K10" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06479642793281393</v>
+        <v>0.0634700042324049</v>
       </c>
       <c r="M10" t="n">
-        <v>6.100427693991834</v>
+        <v>6.091137140332486</v>
       </c>
       <c r="N10" t="n">
-        <v>62.10664100695428</v>
+        <v>61.87596170165734</v>
       </c>
       <c r="O10" t="n">
-        <v>7.880776675363557</v>
+        <v>7.866127490808761</v>
       </c>
       <c r="P10" t="n">
-        <v>329.0039907640112</v>
+        <v>328.9606078611635</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23025,28 +23135,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2683787576127097</v>
+        <v>-0.2667392459878001</v>
       </c>
       <c r="J11" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K11" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05745993781789127</v>
+        <v>0.05736296262042739</v>
       </c>
       <c r="M11" t="n">
-        <v>6.227332778341587</v>
+        <v>6.202244264895938</v>
       </c>
       <c r="N11" t="n">
-        <v>64.63307853387587</v>
+        <v>64.31589727977578</v>
       </c>
       <c r="O11" t="n">
-        <v>8.039470040610629</v>
+        <v>8.019719276868473</v>
       </c>
       <c r="P11" t="n">
-        <v>327.6363019395615</v>
+        <v>327.6197715625746</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23103,28 +23213,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2531429772990055</v>
+        <v>-0.25225437590156</v>
       </c>
       <c r="J12" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K12" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06127679389809015</v>
+        <v>0.06149343597853085</v>
       </c>
       <c r="M12" t="n">
-        <v>5.853932507798373</v>
+        <v>5.826113789734812</v>
       </c>
       <c r="N12" t="n">
-        <v>54.23222495567577</v>
+        <v>53.94086825782727</v>
       </c>
       <c r="O12" t="n">
-        <v>7.364253183838519</v>
+        <v>7.344444720864013</v>
       </c>
       <c r="P12" t="n">
-        <v>332.51726160144</v>
+        <v>332.5083299478447</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23162,7 +23272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M411"/>
+  <dimension ref="A1:M413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48763,6 +48873,140 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-42.82754254261192,173.3350264875978</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-42.82806908419029,173.3344742629737</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-42.82856407308919,173.33387033008597</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-42.82909097355843,173.33331100865857</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-42.82960245319688,173.33273682671776</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-42.83012718229863,173.33218908539635</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-42.830647939475305,173.3316174922372</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-42.83121580698794,173.33113700035366</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-42.831764064695356,173.33062944577182</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-42.83232011725529,173.3301443404754</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-42.83292247767026,173.3297733414761</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-42.827580877777,173.33507891008026</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-42.82797438823067,173.33434476872335</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-42.82856065797575,173.33386545645413</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-42.829128785234516,173.33336950775222</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-42.82963303723866,173.33278650213498</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-42.83013629612159,173.33220426191338</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-42.83065043277554,173.33162245208908</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-42.83121174446611,173.33112719021298</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-42.83177219662536,173.3306494811757</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-42.83233507663322,173.33018119730067</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-42.83292399970779,173.32977709147397</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M413"/>
+  <dimension ref="A1:M414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18068,6 +18068,51 @@
       <c r="M413" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="C414" t="n">
+        <v>299.75</v>
+      </c>
+      <c r="D414" t="n">
+        <v>317.11</v>
+      </c>
+      <c r="E414" t="n">
+        <v>332.2288888888889</v>
+      </c>
+      <c r="F414" t="n">
+        <v>327.5488888888889</v>
+      </c>
+      <c r="G414" t="n">
+        <v>332.0963636363636</v>
+      </c>
+      <c r="H414" t="n">
+        <v>335.3463636363636</v>
+      </c>
+      <c r="I414" t="n">
+        <v>327.3566666666667</v>
+      </c>
+      <c r="J414" t="n">
+        <v>319.17</v>
+      </c>
+      <c r="K414" t="n">
+        <v>318.27</v>
+      </c>
+      <c r="L414" t="n">
+        <v>328.02</v>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18082,7 +18127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22260,6 +22305,16 @@
       </c>
       <c r="B417" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -22433,28 +22488,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5895154075097611</v>
+        <v>-0.5867604863871949</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0723552077977605</v>
+        <v>0.0720629589392886</v>
       </c>
       <c r="M2" t="n">
-        <v>12.14198247315112</v>
+        <v>12.12018089517093</v>
       </c>
       <c r="N2" t="n">
-        <v>245.6363627380905</v>
+        <v>245.0510290096513</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67279052173194</v>
+        <v>15.65410581954943</v>
       </c>
       <c r="P2" t="n">
-        <v>326.6364246624782</v>
+        <v>326.6084685065523</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22511,28 +22566,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5031437228127353</v>
+        <v>-0.5068354480015053</v>
       </c>
       <c r="J3" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08264600684147549</v>
+        <v>0.08413433450279628</v>
       </c>
       <c r="M3" t="n">
-        <v>9.495123185339105</v>
+        <v>9.489677330100616</v>
       </c>
       <c r="N3" t="n">
-        <v>157.0527810354341</v>
+        <v>156.7337336012907</v>
       </c>
       <c r="O3" t="n">
-        <v>12.53207010176029</v>
+        <v>12.51933439130415</v>
       </c>
       <c r="P3" t="n">
-        <v>319.6018187660431</v>
+        <v>319.638840225475</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22589,28 +22644,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5463201053407671</v>
+        <v>-0.5430751905826102</v>
       </c>
       <c r="J4" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1301936331266613</v>
+        <v>0.1293351092676917</v>
       </c>
       <c r="M4" t="n">
-        <v>8.307211795912185</v>
+        <v>8.298086219998405</v>
       </c>
       <c r="N4" t="n">
-        <v>112.6699537958043</v>
+        <v>112.4681646379775</v>
       </c>
       <c r="O4" t="n">
-        <v>10.61461039302924</v>
+        <v>10.60510087825559</v>
       </c>
       <c r="P4" t="n">
-        <v>324.8735187457287</v>
+        <v>324.8409451861436</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22667,28 +22722,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5553086639270024</v>
+        <v>-0.5499704103105556</v>
       </c>
       <c r="J5" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1947951764260879</v>
+        <v>0.1919528353107752</v>
       </c>
       <c r="M5" t="n">
-        <v>6.624032172777487</v>
+        <v>6.632515563690119</v>
       </c>
       <c r="N5" t="n">
-        <v>70.09134986012819</v>
+        <v>70.1965111490297</v>
       </c>
       <c r="O5" t="n">
-        <v>8.372057683755422</v>
+        <v>8.378335822168369</v>
       </c>
       <c r="P5" t="n">
-        <v>336.1159123917344</v>
+        <v>336.061551700033</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22745,28 +22800,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5037072497956429</v>
+        <v>-0.5031558041065197</v>
       </c>
       <c r="J6" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1695170501120988</v>
+        <v>0.1699425645535508</v>
       </c>
       <c r="M6" t="n">
-        <v>6.38958302233165</v>
+        <v>6.37523834755808</v>
       </c>
       <c r="N6" t="n">
-        <v>67.96064493552089</v>
+        <v>67.78401750034945</v>
       </c>
       <c r="O6" t="n">
-        <v>8.243824654583628</v>
+        <v>8.233104973237584</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4806840582892</v>
+        <v>339.4750638807504</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22823,28 +22878,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4293923150710623</v>
+        <v>-0.4289801771642478</v>
       </c>
       <c r="J7" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K7" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1800458744808294</v>
+        <v>0.18057281706646</v>
       </c>
       <c r="M7" t="n">
-        <v>5.161982914193366</v>
+        <v>5.149991221221526</v>
       </c>
       <c r="N7" t="n">
-        <v>46.21442279120996</v>
+        <v>46.08984671779335</v>
       </c>
       <c r="O7" t="n">
-        <v>6.798119062741543</v>
+        <v>6.788950339912154</v>
       </c>
       <c r="P7" t="n">
-        <v>342.4131556342545</v>
+        <v>342.4089953854942</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22901,28 +22956,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3354044080999443</v>
+        <v>-0.3348164823459471</v>
       </c>
       <c r="J8" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K8" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1159251208387586</v>
+        <v>0.1161060821020268</v>
       </c>
       <c r="M8" t="n">
-        <v>5.262273814707579</v>
+        <v>5.251340661299276</v>
       </c>
       <c r="N8" t="n">
-        <v>46.79590265114729</v>
+        <v>46.6759555724928</v>
       </c>
       <c r="O8" t="n">
-        <v>6.840753076317496</v>
+        <v>6.831980355101498</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8618767025527</v>
+        <v>342.8559048978771</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22979,28 +23034,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3319448438931535</v>
+        <v>-0.3313982539474644</v>
       </c>
       <c r="J9" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K9" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1054994968999756</v>
+        <v>0.1056926194251061</v>
       </c>
       <c r="M9" t="n">
-        <v>5.571870979398401</v>
+        <v>5.559594171855064</v>
       </c>
       <c r="N9" t="n">
-        <v>51.54336727528658</v>
+        <v>51.40786216352002</v>
       </c>
       <c r="O9" t="n">
-        <v>7.179370952617408</v>
+        <v>7.16992762610056</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8732526805796</v>
+        <v>334.8677365772727</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23057,28 +23112,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2751228808829201</v>
+        <v>-0.2764545203886425</v>
       </c>
       <c r="J10" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K10" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0634700042324049</v>
+        <v>0.06433998381879114</v>
       </c>
       <c r="M10" t="n">
-        <v>6.091137140332486</v>
+        <v>6.081841585925935</v>
       </c>
       <c r="N10" t="n">
-        <v>61.87596170165734</v>
+        <v>61.72987642801677</v>
       </c>
       <c r="O10" t="n">
-        <v>7.866127490808761</v>
+        <v>7.856836286191585</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9606078611635</v>
+        <v>328.9741109409162</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23135,28 +23190,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2667392459878001</v>
+        <v>-0.2679913096181031</v>
       </c>
       <c r="J11" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K11" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05736296262042739</v>
+        <v>0.05815397273837042</v>
       </c>
       <c r="M11" t="n">
-        <v>6.202244264895938</v>
+        <v>6.192868569897572</v>
       </c>
       <c r="N11" t="n">
-        <v>64.31589727977578</v>
+        <v>64.15984933294732</v>
       </c>
       <c r="O11" t="n">
-        <v>8.019719276868473</v>
+        <v>8.00998435285284</v>
       </c>
       <c r="P11" t="n">
-        <v>327.6197715625746</v>
+        <v>327.6324079024487</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23213,28 +23268,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.25225437590156</v>
+        <v>-0.2512124638434817</v>
       </c>
       <c r="J12" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K12" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06149343597853085</v>
+        <v>0.06131514008337713</v>
       </c>
       <c r="M12" t="n">
-        <v>5.826113789734812</v>
+        <v>5.815037465574912</v>
       </c>
       <c r="N12" t="n">
-        <v>53.94086825782727</v>
+        <v>53.80547183274729</v>
       </c>
       <c r="O12" t="n">
-        <v>7.344444720864013</v>
+        <v>7.335221321319984</v>
       </c>
       <c r="P12" t="n">
-        <v>332.5083299478447</v>
+        <v>332.4978366918642</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23272,7 +23327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M413"/>
+  <dimension ref="A1:M414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44059,7 +44114,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>-42.83230559273155,173.33010855508647</t>
+          <t>-42.832305592731544,173.33010855508647</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -49007,6 +49062,73 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-42.8275870342499,173.3350873289287</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-42.827944684641515,173.33430414996488</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-42.82852470613233,173.33381415043485</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-42.829107188941315,173.33333609574152</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-42.82958418878702,173.3327071612159</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-42.83011776830221,173.3321734090328</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-42.83065498073932,173.33163149922737</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-42.83119653944027,173.3310904732847</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-42.83173810337643,173.33056548251216</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-42.83231007185234,173.33011959069864</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-42.83292834838578,173.3297878057545</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M414"/>
+  <dimension ref="A1:M415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18111,6 +18111,51 @@
         <v>328.02</v>
       </c>
       <c r="M414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>313.94</v>
+      </c>
+      <c r="C415" t="n">
+        <v>309.24</v>
+      </c>
+      <c r="D415" t="n">
+        <v>315.89</v>
+      </c>
+      <c r="E415" t="n">
+        <v>330.0055555555556</v>
+      </c>
+      <c r="F415" t="n">
+        <v>333.0855555555555</v>
+      </c>
+      <c r="G415" t="n">
+        <v>337.8472727272728</v>
+      </c>
+      <c r="H415" t="n">
+        <v>334.8872727272728</v>
+      </c>
+      <c r="I415" t="n">
+        <v>325.6466666666667</v>
+      </c>
+      <c r="J415" t="n">
+        <v>327.49</v>
+      </c>
+      <c r="K415" t="n">
+        <v>325.6</v>
+      </c>
+      <c r="L415" t="n">
+        <v>328.63</v>
+      </c>
+      <c r="M415" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18127,7 +18172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22315,6 +22360,16 @@
       </c>
       <c r="B418" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -22488,28 +22543,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5867604863871949</v>
+        <v>-0.5854381626170997</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0720629589392886</v>
+        <v>0.07211767688346493</v>
       </c>
       <c r="M2" t="n">
-        <v>12.12018089517093</v>
+        <v>12.09281123921282</v>
       </c>
       <c r="N2" t="n">
-        <v>245.0510290096513</v>
+        <v>244.4084008996721</v>
       </c>
       <c r="O2" t="n">
-        <v>15.65410581954943</v>
+        <v>15.6335664804827</v>
       </c>
       <c r="P2" t="n">
-        <v>326.6084685065523</v>
+        <v>326.5949623988638</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22566,28 +22621,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5068354480015053</v>
+        <v>-0.5053296282124455</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08413433450279628</v>
+        <v>0.08411033841102344</v>
       </c>
       <c r="M3" t="n">
-        <v>9.489677330100616</v>
+        <v>9.469440391613984</v>
       </c>
       <c r="N3" t="n">
-        <v>156.7337336012907</v>
+        <v>156.3053372142524</v>
       </c>
       <c r="O3" t="n">
-        <v>12.51933439130415</v>
+        <v>12.50221329262352</v>
       </c>
       <c r="P3" t="n">
-        <v>319.638840225475</v>
+        <v>319.6236401985964</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22644,28 +22699,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5430751905826102</v>
+        <v>-0.540430019465736</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1293351092676917</v>
+        <v>0.1287690754781748</v>
       </c>
       <c r="M4" t="n">
-        <v>8.298086219998405</v>
+        <v>8.286262333524698</v>
       </c>
       <c r="N4" t="n">
-        <v>112.4681646379775</v>
+        <v>112.22934673782</v>
       </c>
       <c r="O4" t="n">
-        <v>10.60510087825559</v>
+        <v>10.59383531766565</v>
       </c>
       <c r="P4" t="n">
-        <v>324.8409451861436</v>
+        <v>324.8142109641072</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22722,28 +22777,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5499704103105556</v>
+        <v>-0.5457518308225826</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1919528353107752</v>
+        <v>0.1900042376094027</v>
       </c>
       <c r="M5" t="n">
-        <v>6.632515563690119</v>
+        <v>6.635322812339625</v>
       </c>
       <c r="N5" t="n">
-        <v>70.1965111490297</v>
+        <v>70.1889283981633</v>
       </c>
       <c r="O5" t="n">
-        <v>8.378335822168369</v>
+        <v>8.377883288645366</v>
       </c>
       <c r="P5" t="n">
-        <v>336.061551700033</v>
+        <v>336.0183119849223</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22800,28 +22855,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5031558041065197</v>
+        <v>-0.4997786796672045</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1699425645535508</v>
+        <v>0.1685551448326953</v>
       </c>
       <c r="M6" t="n">
-        <v>6.37523834755808</v>
+        <v>6.373846455698192</v>
       </c>
       <c r="N6" t="n">
-        <v>67.78401750034945</v>
+        <v>67.72238464946501</v>
       </c>
       <c r="O6" t="n">
-        <v>8.233104973237584</v>
+        <v>8.229361132522076</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4750638807504</v>
+        <v>339.4404234628729</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22878,28 +22933,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4289801771642478</v>
+        <v>-0.4255292823300438</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.18057281706646</v>
+        <v>0.178641759933882</v>
       </c>
       <c r="M7" t="n">
-        <v>5.149991221221526</v>
+        <v>5.153487893584652</v>
       </c>
       <c r="N7" t="n">
-        <v>46.08984671779335</v>
+        <v>46.0816544972542</v>
       </c>
       <c r="O7" t="n">
-        <v>6.788950339912154</v>
+        <v>6.788346963529059</v>
       </c>
       <c r="P7" t="n">
-        <v>342.4089953854942</v>
+        <v>342.3739381513554</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22956,28 +23011,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3348164823459471</v>
+        <v>-0.3344418975529841</v>
       </c>
       <c r="J8" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1161060821020268</v>
+        <v>0.1164303844028135</v>
       </c>
       <c r="M8" t="n">
-        <v>5.251340661299276</v>
+        <v>5.239373897690225</v>
       </c>
       <c r="N8" t="n">
-        <v>46.6759555724928</v>
+        <v>46.55453871255447</v>
       </c>
       <c r="O8" t="n">
-        <v>6.831980355101498</v>
+        <v>6.823088649032377</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8559048978771</v>
+        <v>342.8520759749423</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23034,28 +23089,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3313982539474644</v>
+        <v>-0.3317087419366255</v>
       </c>
       <c r="J9" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K9" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1056926194251061</v>
+        <v>0.1063875051210756</v>
       </c>
       <c r="M9" t="n">
-        <v>5.559594171855064</v>
+        <v>5.546395932761422</v>
       </c>
       <c r="N9" t="n">
-        <v>51.40786216352002</v>
+        <v>51.27101334495134</v>
       </c>
       <c r="O9" t="n">
-        <v>7.16992762610056</v>
+        <v>7.160378016903252</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8677365772727</v>
+        <v>334.8708901446417</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23112,28 +23167,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2764545203886425</v>
+        <v>-0.2736009705699982</v>
       </c>
       <c r="J10" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K10" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06433998381879114</v>
+        <v>0.0633315359922425</v>
       </c>
       <c r="M10" t="n">
-        <v>6.081841585925935</v>
+        <v>6.081166366683686</v>
       </c>
       <c r="N10" t="n">
-        <v>61.72987642801677</v>
+        <v>61.65152822049619</v>
       </c>
       <c r="O10" t="n">
-        <v>7.856836286191585</v>
+        <v>7.851848713551235</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9741109409162</v>
+        <v>328.9449842258421</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23190,28 +23245,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2679913096181031</v>
+        <v>-0.2654585887690728</v>
       </c>
       <c r="J11" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05815397273837042</v>
+        <v>0.05736461421926331</v>
       </c>
       <c r="M11" t="n">
-        <v>6.192868569897572</v>
+        <v>6.18809486968559</v>
       </c>
       <c r="N11" t="n">
-        <v>64.15984933294732</v>
+        <v>64.05317296566558</v>
       </c>
       <c r="O11" t="n">
-        <v>8.00998435285284</v>
+        <v>8.003322620366218</v>
       </c>
       <c r="P11" t="n">
-        <v>327.6324079024487</v>
+        <v>327.6066835036793</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23268,28 +23323,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2512124638434817</v>
+        <v>-0.2498442026518032</v>
       </c>
       <c r="J12" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K12" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06131514008337713</v>
+        <v>0.0609816017239172</v>
       </c>
       <c r="M12" t="n">
-        <v>5.815037465574912</v>
+        <v>5.805428133973349</v>
       </c>
       <c r="N12" t="n">
-        <v>53.80547183274729</v>
+        <v>53.67872420180846</v>
       </c>
       <c r="O12" t="n">
-        <v>7.335221321319984</v>
+        <v>7.32657656766163</v>
       </c>
       <c r="P12" t="n">
-        <v>332.4978366918642</v>
+        <v>332.4839667425363</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23327,7 +23382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M414"/>
+  <dimension ref="A1:M415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49129,6 +49184,73 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-42.82756888217334,173.33506250634946</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-42.82800491690419,173.33438651582122</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-42.828517130784086,173.3338033398477</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-42.8290939776302,173.33331565630525</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-42.82961617878341,173.3327591201714</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-42.83015050767787,173.33222792729183</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-42.83065264904225,173.33162686084665</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-42.83118898844044,173.33107223923113</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-42.83177428396511,173.330654623954</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-42.832341947506286,173.33019812573218</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-42.83293100107885,173.32979434146637</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M415"/>
+  <dimension ref="A1:M416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18158,6 +18158,51 @@
       <c r="M415" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>318.86</v>
+      </c>
+      <c r="C416" t="n">
+        <v>318.56</v>
+      </c>
+      <c r="D416" t="n">
+        <v>315.98</v>
+      </c>
+      <c r="E416" t="n">
+        <v>324.6588888888889</v>
+      </c>
+      <c r="F416" t="n">
+        <v>325.9288888888889</v>
+      </c>
+      <c r="G416" t="n">
+        <v>329.8536363636364</v>
+      </c>
+      <c r="H416" t="n">
+        <v>332.8136363636364</v>
+      </c>
+      <c r="I416" t="n">
+        <v>330.2566666666667</v>
+      </c>
+      <c r="J416" t="n">
+        <v>325.69</v>
+      </c>
+      <c r="K416" t="n">
+        <v>325.92</v>
+      </c>
+      <c r="L416" t="n">
+        <v>322.55</v>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18172,7 +18217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B419"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22370,6 +22415,16 @@
       </c>
       <c r="B419" t="n">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -22543,28 +22598,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5854381626170997</v>
+        <v>-0.5815698719227995</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07211767688346493</v>
+        <v>0.07155593672649962</v>
       </c>
       <c r="M2" t="n">
-        <v>12.09281123921282</v>
+        <v>12.07560728520744</v>
       </c>
       <c r="N2" t="n">
-        <v>244.4084008996721</v>
+        <v>243.9033675876911</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6335664804827</v>
+        <v>15.6174059173632</v>
       </c>
       <c r="P2" t="n">
-        <v>326.5949623988638</v>
+        <v>326.5552417169573</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22621,28 +22676,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5053296282124455</v>
+        <v>-0.4987448563440864</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08411033841102344</v>
+        <v>0.08234948421785071</v>
       </c>
       <c r="M3" t="n">
-        <v>9.469440391613984</v>
+        <v>9.472961987925684</v>
       </c>
       <c r="N3" t="n">
-        <v>156.3053372142524</v>
+        <v>156.2753848845371</v>
       </c>
       <c r="O3" t="n">
-        <v>12.50221329262352</v>
+        <v>12.50101535414372</v>
       </c>
       <c r="P3" t="n">
-        <v>319.6236401985964</v>
+        <v>319.5568153872513</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22699,28 +22754,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.540430019465736</v>
+        <v>-0.5377240664673473</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1287690754781748</v>
+        <v>0.1281774790214146</v>
       </c>
       <c r="M4" t="n">
-        <v>8.286262333524698</v>
+        <v>8.274622160498367</v>
       </c>
       <c r="N4" t="n">
-        <v>112.22934673782</v>
+        <v>111.9949230072488</v>
       </c>
       <c r="O4" t="n">
-        <v>10.59383531766565</v>
+        <v>10.5827653761788</v>
       </c>
       <c r="P4" t="n">
-        <v>324.8142109641072</v>
+        <v>324.7867103278115</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22777,28 +22832,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5457518308225826</v>
+        <v>-0.5442697826466049</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1900042376094027</v>
+        <v>0.1899555217357212</v>
       </c>
       <c r="M5" t="n">
-        <v>6.635322812339625</v>
+        <v>6.624735251332377</v>
       </c>
       <c r="N5" t="n">
-        <v>70.1889283981633</v>
+        <v>70.02205659482719</v>
       </c>
       <c r="O5" t="n">
-        <v>8.377883288645366</v>
+        <v>8.367918295181138</v>
       </c>
       <c r="P5" t="n">
-        <v>336.0183119849223</v>
+        <v>336.0030402179879</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22855,28 +22910,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4997786796672045</v>
+        <v>-0.500013007200347</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1685551448326953</v>
+        <v>0.1694422939685306</v>
       </c>
       <c r="M6" t="n">
-        <v>6.373846455698192</v>
+        <v>6.358431165071301</v>
       </c>
       <c r="N6" t="n">
-        <v>67.72238464946501</v>
+        <v>67.54472804989078</v>
       </c>
       <c r="O6" t="n">
-        <v>8.229361132522076</v>
+        <v>8.218559974222417</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4404234628729</v>
+        <v>339.4428396779871</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22933,28 +22988,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4255292823300438</v>
+        <v>-0.4262691623349578</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.178641759933882</v>
+        <v>0.1799676038713103</v>
       </c>
       <c r="M7" t="n">
-        <v>5.153487893584652</v>
+        <v>5.143368379922086</v>
       </c>
       <c r="N7" t="n">
-        <v>46.0816544972542</v>
+        <v>45.96179397266547</v>
       </c>
       <c r="O7" t="n">
-        <v>6.788346963529059</v>
+        <v>6.779512812338765</v>
       </c>
       <c r="P7" t="n">
-        <v>342.3739381513554</v>
+        <v>342.3814937509113</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23011,28 +23066,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3344418975529841</v>
+        <v>-0.3351082973408206</v>
       </c>
       <c r="J8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K8" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1164303844028135</v>
+        <v>0.1173972128659277</v>
       </c>
       <c r="M8" t="n">
-        <v>5.239373897690225</v>
+        <v>5.229172978640966</v>
       </c>
       <c r="N8" t="n">
-        <v>46.55453871255447</v>
+        <v>46.43679422986686</v>
       </c>
       <c r="O8" t="n">
-        <v>6.823088649032377</v>
+        <v>6.814454800632759</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8520759749423</v>
+        <v>342.8589229909696</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23089,28 +23144,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3317087419366255</v>
+        <v>-0.3296285900818919</v>
       </c>
       <c r="J9" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K9" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1063875051210756</v>
+        <v>0.1056387349547123</v>
       </c>
       <c r="M9" t="n">
-        <v>5.546395932761422</v>
+        <v>5.541885787144578</v>
       </c>
       <c r="N9" t="n">
-        <v>51.27101334495134</v>
+        <v>51.1773393261889</v>
       </c>
       <c r="O9" t="n">
-        <v>7.160378016903252</v>
+        <v>7.153833890033295</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8708901446417</v>
+        <v>334.849651455993</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23167,28 +23222,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2736009705699982</v>
+        <v>-0.2716508555331302</v>
       </c>
       <c r="J10" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K10" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0633315359922425</v>
+        <v>0.06276268193913581</v>
       </c>
       <c r="M10" t="n">
-        <v>6.081166366683686</v>
+        <v>6.075531651979452</v>
       </c>
       <c r="N10" t="n">
-        <v>61.65152822049619</v>
+        <v>61.52777927984633</v>
       </c>
       <c r="O10" t="n">
-        <v>7.851848713551235</v>
+        <v>7.843964512913501</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9449842258421</v>
+        <v>328.9249717920998</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23245,28 +23300,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2654585887690728</v>
+        <v>-0.2627618551128171</v>
       </c>
       <c r="J11" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05736461421926331</v>
+        <v>0.05650500421395721</v>
       </c>
       <c r="M11" t="n">
-        <v>6.18809486968559</v>
+        <v>6.183975011737345</v>
       </c>
       <c r="N11" t="n">
-        <v>64.05317296566558</v>
+        <v>63.9553564448937</v>
       </c>
       <c r="O11" t="n">
-        <v>8.003322620366218</v>
+        <v>7.997209291052329</v>
       </c>
       <c r="P11" t="n">
-        <v>327.6066835036793</v>
+        <v>327.5791505792118</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23323,28 +23378,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2498442026518032</v>
+        <v>-0.2516001822903406</v>
       </c>
       <c r="J12" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K12" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0609816017239172</v>
+        <v>0.06207560399258516</v>
       </c>
       <c r="M12" t="n">
-        <v>5.805428133973349</v>
+        <v>5.800240141533054</v>
       </c>
       <c r="N12" t="n">
-        <v>53.67872420180846</v>
+        <v>53.56483459372238</v>
       </c>
       <c r="O12" t="n">
-        <v>7.32657656766163</v>
+        <v>7.318800078819094</v>
       </c>
       <c r="P12" t="n">
-        <v>332.4839667425363</v>
+        <v>332.501861802099</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23382,7 +23437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M415"/>
+  <dimension ref="A1:M416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49251,6 +49306,73 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-42.827600108819134,173.33510520813812</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-42.82806407013182,173.33446740636475</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-42.8285176896213,173.33380413734994</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-42.829062207085734,173.33326650363364</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-42.82957482867517,173.33269195830468</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-42.83010500066311,173.33215214813387</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-42.83064211715667,173.33160591006612</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-42.83120934522274,173.33112139654352</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-42.83176645643984,173.33063533853712</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-42.83234333907521,173.33020155427573</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>-42.83290456110482,173.32972919865824</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M416"/>
+  <dimension ref="A1:M417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18201,6 +18201,51 @@
         <v>322.55</v>
       </c>
       <c r="M416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>320.72</v>
+      </c>
+      <c r="C417" t="n">
+        <v>318.87</v>
+      </c>
+      <c r="D417" t="n">
+        <v>320.01</v>
+      </c>
+      <c r="E417" t="n">
+        <v>328.7955555555556</v>
+      </c>
+      <c r="F417" t="n">
+        <v>328.4455555555556</v>
+      </c>
+      <c r="G417" t="n">
+        <v>336.9581818181818</v>
+      </c>
+      <c r="H417" t="n">
+        <v>338.7281818181818</v>
+      </c>
+      <c r="I417" t="n">
+        <v>334.2166666666667</v>
+      </c>
+      <c r="J417" t="n">
+        <v>325.26</v>
+      </c>
+      <c r="K417" t="n">
+        <v>317.42</v>
+      </c>
+      <c r="L417" t="n">
+        <v>326.33</v>
+      </c>
+      <c r="M417" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18217,7 +18262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22425,6 +22470,16 @@
       </c>
       <c r="B420" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -22598,28 +22653,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5815698719227995</v>
+        <v>-0.5767860862333416</v>
       </c>
       <c r="J2" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07155593672649962</v>
+        <v>0.07076041209433637</v>
       </c>
       <c r="M2" t="n">
-        <v>12.07560728520744</v>
+        <v>12.06203068459686</v>
       </c>
       <c r="N2" t="n">
-        <v>243.9033675876911</v>
+        <v>243.4831428527168</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6174059173632</v>
+        <v>15.60394638713928</v>
       </c>
       <c r="P2" t="n">
-        <v>326.5552417169573</v>
+        <v>326.5060171201483</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22676,28 +22731,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4987448563440864</v>
+        <v>-0.4920676462733171</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08234948421785071</v>
+        <v>0.08056019207602338</v>
       </c>
       <c r="M3" t="n">
-        <v>9.472961987925684</v>
+        <v>9.477045188278067</v>
       </c>
       <c r="N3" t="n">
-        <v>156.2753848845371</v>
+        <v>156.2613421231364</v>
       </c>
       <c r="O3" t="n">
-        <v>12.50101535414372</v>
+        <v>12.50045367669255</v>
       </c>
       <c r="P3" t="n">
-        <v>319.5568153872513</v>
+        <v>319.4889085347152</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22754,28 +22809,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5377240664673473</v>
+        <v>-0.5329802537562551</v>
       </c>
       <c r="J4" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1281774790214146</v>
+        <v>0.1265756406376455</v>
       </c>
       <c r="M4" t="n">
-        <v>8.274622160498367</v>
+        <v>8.271446339134773</v>
       </c>
       <c r="N4" t="n">
-        <v>111.9949230072488</v>
+        <v>111.9217966349208</v>
       </c>
       <c r="O4" t="n">
-        <v>10.5827653761788</v>
+        <v>10.57930983736277</v>
       </c>
       <c r="P4" t="n">
-        <v>324.7867103278115</v>
+        <v>324.7383929092911</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22832,28 +22887,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5442697826466049</v>
+        <v>-0.5406798259171772</v>
       </c>
       <c r="J5" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1899555217357212</v>
+        <v>0.1884687101772372</v>
       </c>
       <c r="M5" t="n">
-        <v>6.624735251332377</v>
+        <v>6.624493077553334</v>
       </c>
       <c r="N5" t="n">
-        <v>70.02205659482719</v>
+        <v>69.9654616803732</v>
       </c>
       <c r="O5" t="n">
-        <v>8.367918295181138</v>
+        <v>8.364535951287028</v>
       </c>
       <c r="P5" t="n">
-        <v>336.0030402179879</v>
+        <v>335.9659694977897</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22910,28 +22965,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.500013007200347</v>
+        <v>-0.4989654099299329</v>
       </c>
       <c r="J6" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1694422939685306</v>
+        <v>0.1695849332064621</v>
       </c>
       <c r="M6" t="n">
-        <v>6.358431165071301</v>
+        <v>6.346537203201125</v>
       </c>
       <c r="N6" t="n">
-        <v>67.54472804989078</v>
+        <v>67.37869967553544</v>
       </c>
       <c r="O6" t="n">
-        <v>8.218559974222417</v>
+        <v>8.208452940447149</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4428396779871</v>
+        <v>339.4320151753616</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22988,28 +23043,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4262691623349578</v>
+        <v>-0.423279228057831</v>
       </c>
       <c r="J7" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K7" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1799676038713103</v>
+        <v>0.1784435090546923</v>
       </c>
       <c r="M7" t="n">
-        <v>5.143368379922086</v>
+        <v>5.144608635681943</v>
       </c>
       <c r="N7" t="n">
-        <v>45.96179397266547</v>
+        <v>45.92530389973366</v>
       </c>
       <c r="O7" t="n">
-        <v>6.779512812338765</v>
+        <v>6.776821076266782</v>
       </c>
       <c r="P7" t="n">
-        <v>342.3814937509113</v>
+        <v>342.3508977024586</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23066,28 +23121,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3351082973408206</v>
+        <v>-0.3327551007974879</v>
       </c>
       <c r="J8" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K8" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1173972128659277</v>
+        <v>0.1163823437436469</v>
       </c>
       <c r="M8" t="n">
-        <v>5.229172978640966</v>
+        <v>5.22722117509469</v>
       </c>
       <c r="N8" t="n">
-        <v>46.43679422986686</v>
+        <v>46.37096955172073</v>
       </c>
       <c r="O8" t="n">
-        <v>6.814454800632759</v>
+        <v>6.809623304685856</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8589229909696</v>
+        <v>342.8346953062989</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23144,28 +23199,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3296285900818919</v>
+        <v>-0.3255389129272229</v>
       </c>
       <c r="J9" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K9" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1056387349547123</v>
+        <v>0.1035080764171475</v>
       </c>
       <c r="M9" t="n">
-        <v>5.541885787144578</v>
+        <v>5.547331427590104</v>
       </c>
       <c r="N9" t="n">
-        <v>51.1773393261889</v>
+        <v>51.20961103062845</v>
       </c>
       <c r="O9" t="n">
-        <v>7.153833890033295</v>
+        <v>7.156089087667121</v>
       </c>
       <c r="P9" t="n">
-        <v>334.849651455993</v>
+        <v>334.8078084430558</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23222,28 +23277,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2716508555331302</v>
+        <v>-0.2699325090194918</v>
       </c>
       <c r="J10" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K10" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06276268193913581</v>
+        <v>0.06230037354461226</v>
       </c>
       <c r="M10" t="n">
-        <v>6.075531651979452</v>
+        <v>6.068701422421949</v>
       </c>
       <c r="N10" t="n">
-        <v>61.52777927984633</v>
+        <v>61.39605106276143</v>
       </c>
       <c r="O10" t="n">
-        <v>7.843964512913501</v>
+        <v>7.835563225624654</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9249717920998</v>
+        <v>328.9073002561666</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23300,28 +23355,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2627618551128171</v>
+        <v>-0.2644454922594281</v>
       </c>
       <c r="J11" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K11" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05650500421395721</v>
+        <v>0.05746472295516991</v>
       </c>
       <c r="M11" t="n">
-        <v>6.183975011737345</v>
+        <v>6.17722005254988</v>
       </c>
       <c r="N11" t="n">
-        <v>63.9553564448937</v>
+        <v>63.81414589679474</v>
       </c>
       <c r="O11" t="n">
-        <v>7.997209291052329</v>
+        <v>7.988375673238881</v>
       </c>
       <c r="P11" t="n">
-        <v>327.5791505792118</v>
+        <v>327.5963754750076</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23378,28 +23433,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2516001822903406</v>
+        <v>-0.2513910185501275</v>
       </c>
       <c r="J12" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K12" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06207560399258516</v>
+        <v>0.06229925367702294</v>
       </c>
       <c r="M12" t="n">
-        <v>5.800240141533054</v>
+        <v>5.785544345511648</v>
       </c>
       <c r="N12" t="n">
-        <v>53.56483459372238</v>
+        <v>53.42089995174141</v>
       </c>
       <c r="O12" t="n">
-        <v>7.318800078819094</v>
+        <v>7.30896025107138</v>
       </c>
       <c r="P12" t="n">
-        <v>332.501861802099</v>
+        <v>332.4997257387511</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23437,7 +23492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M416"/>
+  <dimension ref="A1:M417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49373,6 +49428,73 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-42.82761191401024,173.3351213515084</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-42.8280660376738,173.3344700969327</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-42.82854271310346,173.33383984774278</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-42.82908678766472,173.33330453259774</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-42.82958936958879,173.33271557599798</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-42.83014544617004,173.3322194987618</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-42.83067215679902,173.33166566711174</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-42.8312268317259,173.3311636228072</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-42.83176458653054,173.33063073146604</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-42.83230637549059,173.3301104836399</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-42.83292099911939,173.32976969862125</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M417"/>
+  <dimension ref="A1:M418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18248,6 +18248,51 @@
       <c r="M417" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>316.06</v>
+      </c>
+      <c r="C418" t="n">
+        <v>310.08</v>
+      </c>
+      <c r="D418" t="n">
+        <v>312.07</v>
+      </c>
+      <c r="E418" t="n">
+        <v>318.6644444444445</v>
+      </c>
+      <c r="F418" t="n">
+        <v>317.9744444444444</v>
+      </c>
+      <c r="G418" t="n">
+        <v>328.4090909090909</v>
+      </c>
+      <c r="H418" t="n">
+        <v>334.0190909090909</v>
+      </c>
+      <c r="I418" t="n">
+        <v>331.1833333333333</v>
+      </c>
+      <c r="J418" t="n">
+        <v>313.67</v>
+      </c>
+      <c r="K418" t="n">
+        <v>305.44</v>
+      </c>
+      <c r="L418" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18262,7 +18307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22480,6 +22525,16 @@
       </c>
       <c r="B421" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -23492,7 +23547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M417"/>
+  <dimension ref="A1:M418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49495,6 +49550,73 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-42.827582337559285,173.3350809063019</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-42.828010248313376,173.3343938063789</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-42.82849341124435,173.3337694903214</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-42.82902658734131,173.33321139590805</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-42.82952886908394,173.33261730978305</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-42.83009677699722,173.33213845394783</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-42.830648239594794,173.3316180892564</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-42.831213437183656,173.33113127777145</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-42.831714185881545,173.33050655493327</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-42.83225427845556,173.32998212779816</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>-42.83287303312642,173.32965152021765</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -22708,28 +22708,28 @@
         <v>0.0609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5767860862333416</v>
+        <v>-0.5744269550503417</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07076041209433637</v>
+        <v>0.07056169020609415</v>
       </c>
       <c r="M2" t="n">
-        <v>12.06203068459686</v>
+        <v>12.03900560390542</v>
       </c>
       <c r="N2" t="n">
-        <v>243.4831428527168</v>
+        <v>242.8894842690513</v>
       </c>
       <c r="O2" t="n">
-        <v>15.60394638713928</v>
+        <v>15.58491207126467</v>
       </c>
       <c r="P2" t="n">
-        <v>326.5060171201483</v>
+        <v>326.4817164003064</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22786,28 +22786,28 @@
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4920676462733171</v>
+        <v>-0.4902045801297071</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08056019207602338</v>
+        <v>0.08040956955280443</v>
       </c>
       <c r="M3" t="n">
-        <v>9.477045188278067</v>
+        <v>9.458695221723838</v>
       </c>
       <c r="N3" t="n">
-        <v>156.2613421231364</v>
+        <v>155.8501709413547</v>
       </c>
       <c r="O3" t="n">
-        <v>12.50045367669255</v>
+        <v>12.48399659329314</v>
       </c>
       <c r="P3" t="n">
-        <v>319.4889085347152</v>
+        <v>319.4699411240451</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22864,28 +22864,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5329802537562551</v>
+        <v>-0.5323294140175167</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1265756406376455</v>
+        <v>0.1268969638514179</v>
       </c>
       <c r="M4" t="n">
-        <v>8.271446339134773</v>
+        <v>8.251346281589454</v>
       </c>
       <c r="N4" t="n">
-        <v>111.9217966349208</v>
+        <v>111.6179612867707</v>
       </c>
       <c r="O4" t="n">
-        <v>10.57930983736277</v>
+        <v>10.56494019324155</v>
       </c>
       <c r="P4" t="n">
-        <v>324.7383929092911</v>
+        <v>324.7317565903015</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22942,28 +22942,28 @@
         <v>0.0506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5406798259171772</v>
+        <v>-0.5422795642056932</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1884687101772372</v>
+        <v>0.1901448646180336</v>
       </c>
       <c r="M5" t="n">
-        <v>6.624493077553334</v>
+        <v>6.615695832900849</v>
       </c>
       <c r="N5" t="n">
-        <v>69.9654616803732</v>
+        <v>69.80427212564975</v>
       </c>
       <c r="O5" t="n">
-        <v>8.364535951287028</v>
+        <v>8.354895099619728</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9659694977897</v>
+        <v>335.9825061776435</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23020,28 +23020,28 @@
         <v>0.0474</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4989654099299329</v>
+        <v>-0.5031720255877967</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1695849332064621</v>
+        <v>0.1723358152046246</v>
       </c>
       <c r="M6" t="n">
-        <v>6.346537203201125</v>
+        <v>6.35444934151479</v>
       </c>
       <c r="N6" t="n">
-        <v>67.37869967553544</v>
+        <v>67.3854636264918</v>
       </c>
       <c r="O6" t="n">
-        <v>8.208452940447149</v>
+        <v>8.20886494142106</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4320151753616</v>
+        <v>339.4755259885708</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23098,28 +23098,28 @@
         <v>0.0581</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.423279228057831</v>
+        <v>-0.4247652387370462</v>
       </c>
       <c r="J7" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1784435090546923</v>
+        <v>0.1802281552948235</v>
       </c>
       <c r="M7" t="n">
-        <v>5.144608635681943</v>
+        <v>5.138543201811261</v>
       </c>
       <c r="N7" t="n">
-        <v>45.92530389973366</v>
+        <v>45.82315106915813</v>
       </c>
       <c r="O7" t="n">
-        <v>6.776821076266782</v>
+        <v>6.769279952044983</v>
       </c>
       <c r="P7" t="n">
-        <v>342.3508977024586</v>
+        <v>342.36611978115</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23176,28 +23176,28 @@
         <v>0.0594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3327551007974879</v>
+        <v>-0.3328086795856151</v>
       </c>
       <c r="J8" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1163823437436469</v>
+        <v>0.1169750251871478</v>
       </c>
       <c r="M8" t="n">
-        <v>5.22722117509469</v>
+        <v>5.213851882020699</v>
       </c>
       <c r="N8" t="n">
-        <v>46.37096955172073</v>
+        <v>46.24992569250725</v>
       </c>
       <c r="O8" t="n">
-        <v>6.809623304685856</v>
+        <v>6.800729791170007</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8346953062989</v>
+        <v>342.835247498656</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23254,28 +23254,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3255389129272229</v>
+        <v>-0.3230472697327388</v>
       </c>
       <c r="J9" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K9" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1035080764171475</v>
+        <v>0.102480151156218</v>
       </c>
       <c r="M9" t="n">
-        <v>5.547331427590104</v>
+        <v>5.544842119583087</v>
       </c>
       <c r="N9" t="n">
-        <v>51.20961103062845</v>
+        <v>51.13665397004179</v>
       </c>
       <c r="O9" t="n">
-        <v>7.156089087667121</v>
+        <v>7.150989719615166</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8078084430558</v>
+        <v>334.7822890329124</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23332,28 +23332,28 @@
         <v>0.0529</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2699325090194918</v>
+        <v>-0.2739917477704276</v>
       </c>
       <c r="J10" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K10" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06230037354461226</v>
+        <v>0.06421286178421037</v>
       </c>
       <c r="M10" t="n">
-        <v>6.068701422421949</v>
+        <v>6.073817253604208</v>
       </c>
       <c r="N10" t="n">
-        <v>61.39605106276143</v>
+        <v>61.40887653398207</v>
       </c>
       <c r="O10" t="n">
-        <v>7.835563225624654</v>
+        <v>7.8363815970116</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9073002561666</v>
+        <v>328.9490900431182</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23410,28 +23410,28 @@
         <v>0.0516</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2644454922594281</v>
+        <v>-0.2722004467058095</v>
       </c>
       <c r="J11" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K11" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05746472295516991</v>
+        <v>0.06044772259740228</v>
       </c>
       <c r="M11" t="n">
-        <v>6.17722005254988</v>
+        <v>6.205333567010308</v>
       </c>
       <c r="N11" t="n">
-        <v>63.81414589679474</v>
+        <v>64.25436593446656</v>
       </c>
       <c r="O11" t="n">
-        <v>7.988375673238881</v>
+        <v>8.015882105823822</v>
       </c>
       <c r="P11" t="n">
-        <v>327.5963754750076</v>
+        <v>327.6757963195117</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23488,28 +23488,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2513910185501275</v>
+        <v>-0.2568025221217769</v>
       </c>
       <c r="J12" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K12" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06229925367702294</v>
+        <v>0.06482484900128893</v>
       </c>
       <c r="M12" t="n">
-        <v>5.785544345511648</v>
+        <v>5.802466440118986</v>
       </c>
       <c r="N12" t="n">
-        <v>53.42089995174141</v>
+        <v>53.57800673462898</v>
       </c>
       <c r="O12" t="n">
-        <v>7.30896025107138</v>
+        <v>7.319699907416217</v>
       </c>
       <c r="P12" t="n">
-        <v>332.4997257387511</v>
+        <v>332.5550483825513</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -22699,13 +22699,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0415</v>
+        <v>0.0713</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0609</v>
+        <v>0.1038</v>
       </c>
       <c r="I2" t="n">
         <v>-0.5744269550503414</v>
@@ -22777,13 +22777,13 @@
         <v>0.100022170897113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0434</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.056</v>
+        <v>0.114</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4902045801297071</v>
@@ -22855,13 +22855,13 @@
         <v>0.200044341796202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0454</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.055</v>
+        <v>0.1453</v>
       </c>
       <c r="I4" t="n">
         <v>-0.5323294140175168</v>
@@ -22933,13 +22933,13 @@
         <v>0.2999860169063688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0444</v>
+        <v>0.0857</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0506</v>
+        <v>0.192</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5422523309549426</v>
@@ -23011,13 +23011,13 @@
         <v>0.4000081878014933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0434</v>
+        <v>0.0649</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0474</v>
+        <v>0.1139</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5031422177126998</v>
@@ -23089,13 +23089,13 @@
         <v>0.5000230434565459</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0515</v>
+        <v>0.0833</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0581</v>
+        <v>0.0964</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4247295438079015</v>
@@ -23167,13 +23167,13 @@
         <v>0.6000452143536744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0506</v>
+        <v>0.082</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0594</v>
+        <v>0.0951</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3327771867314524</v>
@@ -23245,13 +23245,13 @@
         <v>0.6999334873065929</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0569</v>
+        <v>0.091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.1088</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3230526217438813</v>
@@ -23323,13 +23323,13 @@
         <v>0.7999556582049984</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.048</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0529</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2739917477704276</v>
@@ -23401,13 +23401,13 @@
         <v>0.8999778291025896</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.045</v>
+        <v>0.0712</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0516</v>
+        <v>0.0825</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2722004467058092</v>
@@ -23479,13 +23479,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0476</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0525</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2568025221217767</v>

--- a/data/nzd0406/nzd0406.xlsx
+++ b/data/nzd0406/nzd0406.xlsx
@@ -559,7 +559,7 @@
         <v>345.19</v>
       </c>
       <c r="H3" t="n">
-        <v>344.63</v>
+        <v>344.83</v>
       </c>
       <c r="I3" t="n">
         <v>334.53</v>
@@ -604,7 +604,7 @@
         <v>346.69</v>
       </c>
       <c r="H4" t="n">
-        <v>350.24</v>
+        <v>349.84</v>
       </c>
       <c r="I4" t="n">
         <v>339.94</v>
@@ -649,7 +649,7 @@
         <v>335.41</v>
       </c>
       <c r="H5" t="n">
-        <v>340.78</v>
+        <v>341.03</v>
       </c>
       <c r="I5" t="n">
         <v>333.24</v>
@@ -694,7 +694,7 @@
         <v>331.75</v>
       </c>
       <c r="H6" t="n">
-        <v>339.34</v>
+        <v>339.88</v>
       </c>
       <c r="I6" t="n">
         <v>329.16</v>
@@ -739,7 +739,7 @@
         <v>337.01</v>
       </c>
       <c r="H7" t="n">
-        <v>339.38</v>
+        <v>339.87</v>
       </c>
       <c r="I7" t="n">
         <v>332.9</v>
@@ -784,7 +784,7 @@
         <v>333.93</v>
       </c>
       <c r="H8" t="n">
-        <v>338.29</v>
+        <v>338.53</v>
       </c>
       <c r="I8" t="n">
         <v>334.51</v>
@@ -829,7 +829,7 @@
         <v>342.95</v>
       </c>
       <c r="H9" t="n">
-        <v>342.75</v>
+        <v>342.63</v>
       </c>
       <c r="I9" t="n">
         <v>336</v>
@@ -874,7 +874,7 @@
         <v>337.09</v>
       </c>
       <c r="H10" t="n">
-        <v>340.86</v>
+        <v>340.42</v>
       </c>
       <c r="I10" t="n">
         <v>331.66</v>
@@ -919,7 +919,7 @@
         <v>348.87</v>
       </c>
       <c r="H11" t="n">
-        <v>350.25</v>
+        <v>349.82</v>
       </c>
       <c r="I11" t="n">
         <v>337.92</v>
@@ -964,7 +964,7 @@
         <v>346.3</v>
       </c>
       <c r="H12" t="n">
-        <v>342.82</v>
+        <v>342.37</v>
       </c>
       <c r="I12" t="n">
         <v>341.77</v>
@@ -1007,7 +1007,7 @@
         <v>340.7</v>
       </c>
       <c r="H13" t="n">
-        <v>333.66</v>
+        <v>333.52</v>
       </c>
       <c r="I13" t="n">
         <v>325.28</v>
@@ -1044,7 +1044,7 @@
         <v>345.3</v>
       </c>
       <c r="H14" t="n">
-        <v>341.57</v>
+        <v>341.7</v>
       </c>
       <c r="I14" t="n">
         <v>330.85</v>
@@ -1089,7 +1089,7 @@
         <v>342.61</v>
       </c>
       <c r="H15" t="n">
-        <v>339.72</v>
+        <v>340.22</v>
       </c>
       <c r="I15" t="n">
         <v>333.47</v>
@@ -1134,7 +1134,7 @@
         <v>349.92</v>
       </c>
       <c r="H16" t="n">
-        <v>346.14</v>
+        <v>346.39</v>
       </c>
       <c r="I16" t="n">
         <v>333.57</v>
@@ -1179,7 +1179,7 @@
         <v>348.63</v>
       </c>
       <c r="H17" t="n">
-        <v>345.96</v>
+        <v>345.89</v>
       </c>
       <c r="I17" t="n">
         <v>338.65</v>
@@ -1224,7 +1224,7 @@
         <v>339.5</v>
       </c>
       <c r="H18" t="n">
-        <v>343.83</v>
+        <v>343.42</v>
       </c>
       <c r="I18" t="n">
         <v>338.27</v>
@@ -1269,7 +1269,7 @@
         <v>348.56</v>
       </c>
       <c r="H19" t="n">
-        <v>343.95</v>
+        <v>343.54</v>
       </c>
       <c r="I19" t="n">
         <v>334.16</v>
@@ -1314,7 +1314,7 @@
         <v>343.95</v>
       </c>
       <c r="H20" t="n">
-        <v>336.89</v>
+        <v>336.42</v>
       </c>
       <c r="I20" t="n">
         <v>325.78</v>
@@ -1359,7 +1359,7 @@
         <v>346.94</v>
       </c>
       <c r="H21" t="n">
-        <v>346.66</v>
+        <v>346.56</v>
       </c>
       <c r="I21" t="n">
         <v>334.18</v>
@@ -1404,7 +1404,7 @@
         <v>343.96</v>
       </c>
       <c r="H22" t="n">
-        <v>338.48</v>
+        <v>339.02</v>
       </c>
       <c r="I22" t="n">
         <v>334.05</v>
@@ -1449,7 +1449,7 @@
         <v>347.36</v>
       </c>
       <c r="H23" t="n">
-        <v>347.92</v>
+        <v>348.16</v>
       </c>
       <c r="I23" t="n">
         <v>334.37</v>
@@ -1494,7 +1494,7 @@
         <v>336.45</v>
       </c>
       <c r="H24" t="n">
-        <v>341.28</v>
+        <v>341.57</v>
       </c>
       <c r="I24" t="n">
         <v>334.94</v>
@@ -1539,7 +1539,7 @@
         <v>337.47</v>
       </c>
       <c r="H25" t="n">
-        <v>342.52</v>
+        <v>342.86</v>
       </c>
       <c r="I25" t="n">
         <v>334.99</v>
@@ -1584,7 +1584,7 @@
         <v>340.21</v>
       </c>
       <c r="H26" t="n">
-        <v>341.95</v>
+        <v>341.72</v>
       </c>
       <c r="I26" t="n">
         <v>330.29</v>
@@ -1629,7 +1629,7 @@
         <v>342.45</v>
       </c>
       <c r="H27" t="n">
-        <v>344.7</v>
+        <v>344.94</v>
       </c>
       <c r="I27" t="n">
         <v>331.82</v>
@@ -1674,7 +1674,7 @@
         <v>341.83</v>
       </c>
       <c r="H28" t="n">
-        <v>342.45</v>
+        <v>342.71</v>
       </c>
       <c r="I28" t="n">
         <v>335.02</v>
@@ -1719,7 +1719,7 @@
         <v>336.97</v>
       </c>
       <c r="H29" t="n">
-        <v>336.98</v>
+        <v>336.66</v>
       </c>
       <c r="I29" t="n">
         <v>324.91</v>
@@ -1764,7 +1764,7 @@
         <v>333.18</v>
       </c>
       <c r="H30" t="n">
-        <v>331.71</v>
+        <v>331.99</v>
       </c>
       <c r="I30" t="n">
         <v>321.83</v>
@@ -1809,7 +1809,7 @@
         <v>336.97</v>
       </c>
       <c r="H31" t="n">
-        <v>335.86</v>
+        <v>335.98</v>
       </c>
       <c r="I31" t="n">
         <v>322.89</v>
@@ -1854,7 +1854,7 @@
         <v>335.47</v>
       </c>
       <c r="H32" t="n">
-        <v>338.34</v>
+        <v>338.48</v>
       </c>
       <c r="I32" t="n">
         <v>326</v>
@@ -1899,7 +1899,7 @@
         <v>334.7</v>
       </c>
       <c r="H33" t="n">
-        <v>336.1</v>
+        <v>336.3</v>
       </c>
       <c r="I33" t="n">
         <v>330.31</v>
@@ -1940,7 +1940,7 @@
         <v>336.18</v>
       </c>
       <c r="H34" t="n">
-        <v>335.2</v>
+        <v>334.85</v>
       </c>
       <c r="I34" t="n">
         <v>332.2</v>
@@ -1985,7 +1985,7 @@
         <v>332.44</v>
       </c>
       <c r="H35" t="n">
-        <v>340.78</v>
+        <v>340.95</v>
       </c>
       <c r="I35" t="n">
         <v>337.06</v>
@@ -2026,7 +2026,7 @@
         <v>327.16</v>
       </c>
       <c r="H36" t="n">
-        <v>319.63</v>
+        <v>319.56</v>
       </c>
       <c r="I36" t="n">
         <v>314.78</v>
@@ -2069,7 +2069,7 @@
         <v>340.92</v>
       </c>
       <c r="H37" t="n">
-        <v>338.15</v>
+        <v>338.22</v>
       </c>
       <c r="I37" t="n">
         <v>334.98</v>
@@ -2110,7 +2110,7 @@
         <v>340.35</v>
       </c>
       <c r="H38" t="n">
-        <v>344.48</v>
+        <v>344.73</v>
       </c>
       <c r="I38" t="n">
         <v>330.65</v>
@@ -2155,7 +2155,7 @@
         <v>347.95</v>
       </c>
       <c r="H39" t="n">
-        <v>354.98</v>
+        <v>354.58</v>
       </c>
       <c r="I39" t="n">
         <v>340.98</v>
@@ -2241,7 +2241,7 @@
         <v>350.82</v>
       </c>
       <c r="H41" t="n">
-        <v>356.59</v>
+        <v>356.09</v>
       </c>
       <c r="I41" t="n">
         <v>344.95</v>
@@ -2286,7 +2286,7 @@
         <v>336.25</v>
       </c>
       <c r="H42" t="n">
-        <v>334.28</v>
+        <v>334.14</v>
       </c>
       <c r="I42" t="n">
         <v>326.91</v>
@@ -2331,7 +2331,7 @@
         <v>342.26</v>
       </c>
       <c r="H43" t="n">
-        <v>340.79</v>
+        <v>340.86</v>
       </c>
       <c r="I43" t="n">
         <v>331.71</v>
@@ -2376,7 +2376,7 @@
         <v>339.73</v>
       </c>
       <c r="H44" t="n">
-        <v>348.77</v>
+        <v>348.92</v>
       </c>
       <c r="I44" t="n">
         <v>357.43</v>
@@ -2421,7 +2421,7 @@
         <v>343.96</v>
       </c>
       <c r="H45" t="n">
-        <v>342.77</v>
+        <v>343.23</v>
       </c>
       <c r="I45" t="n">
         <v>332.29</v>
@@ -2466,7 +2466,7 @@
         <v>337.58</v>
       </c>
       <c r="H46" t="n">
-        <v>334.98</v>
+        <v>335.22</v>
       </c>
       <c r="I46" t="n">
         <v>330.22</v>
@@ -2511,7 +2511,7 @@
         <v>346.75</v>
       </c>
       <c r="H47" t="n">
-        <v>345.84</v>
+        <v>345.47</v>
       </c>
       <c r="I47" t="n">
         <v>340.19</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>337.32</v>
+        <v>337.89</v>
       </c>
       <c r="I48" t="n">
         <v>332.48</v>
@@ -2599,7 +2599,7 @@
         <v>335.98</v>
       </c>
       <c r="H49" t="n">
-        <v>334.08</v>
+        <v>333.65</v>
       </c>
       <c r="I49" t="n">
         <v>324.18</v>
@@ -2642,7 +2642,7 @@
         <v>342.52</v>
       </c>
       <c r="H50" t="n">
-        <v>346.19</v>
+        <v>346.46</v>
       </c>
       <c r="I50" t="n">
         <v>338.17</v>
@@ -2677,7 +2677,7 @@
         <v>332.98</v>
       </c>
       <c r="H51" t="n">
-        <v>337.34</v>
+        <v>337.1</v>
       </c>
       <c r="I51" t="n">
         <v>333.71</v>
@@ -2722,7 +2722,7 @@
         <v>341.88</v>
       </c>
       <c r="H52" t="n">
-        <v>343.34</v>
+        <v>343.93</v>
       </c>
       <c r="I52" t="n">
         <v>336.42</v>
@@ -2767,7 +2767,7 @@
         <v>337.54</v>
       </c>
       <c r="H53" t="n">
-        <v>337.35</v>
+        <v>336.82</v>
       </c>
       <c r="I53" t="n">
         <v>331.52</v>
@@ -2812,7 +2812,7 @@
         <v>338.44</v>
       </c>
       <c r="H54" t="n">
-        <v>341.87</v>
+        <v>342.05</v>
       </c>
       <c r="I54" t="n">
         <v>332.13</v>
@@ -2857,7 +2857,7 @@
         <v>343.86</v>
       </c>
       <c r="H55" t="n">
-        <v>344.43</v>
+        <v>344.01</v>
       </c>
       <c r="I55" t="n">
         <v>334.63</v>
@@ -2902,7 +2902,7 @@
         <v>334.16</v>
       </c>
       <c r="H56" t="n">
-        <v>335.83</v>
+        <v>336.15</v>
       </c>
       <c r="I56" t="n">
         <v>326.9</v>
@@ -2945,7 +2945,7 @@
         <v>339.05</v>
       </c>
       <c r="H57" t="n">
-        <v>337.97</v>
+        <v>337.58</v>
       </c>
       <c r="I57" t="n">
         <v>335.89</v>
@@ -2986,7 +2986,7 @@
         <v>333.19</v>
       </c>
       <c r="H58" t="n">
-        <v>329.68</v>
+        <v>329.86</v>
       </c>
       <c r="I58" t="n">
         <v>325.25</v>
@@ -3031,7 +3031,7 @@
         <v>340.22</v>
       </c>
       <c r="H59" t="n">
-        <v>332.35</v>
+        <v>332.2</v>
       </c>
       <c r="I59" t="n">
         <v>327.73</v>
@@ -3072,7 +3072,7 @@
         <v>349.32</v>
       </c>
       <c r="H60" t="n">
-        <v>350.62</v>
+        <v>350.71</v>
       </c>
       <c r="I60" t="n">
         <v>344.89</v>
@@ -3160,7 +3160,7 @@
         <v>343.97</v>
       </c>
       <c r="H62" t="n">
-        <v>336.43</v>
+        <v>336.61</v>
       </c>
       <c r="I62" t="n">
         <v>328.06</v>
@@ -3199,7 +3199,7 @@
         <v>347.72</v>
       </c>
       <c r="H63" t="n">
-        <v>344.67</v>
+        <v>344.27</v>
       </c>
       <c r="I63" t="n">
         <v>338.64</v>
@@ -3244,7 +3244,7 @@
         <v>340.03</v>
       </c>
       <c r="H64" t="n">
-        <v>336.74</v>
+        <v>337.01</v>
       </c>
       <c r="I64" t="n">
         <v>328.99</v>
@@ -3289,7 +3289,7 @@
         <v>335.68</v>
       </c>
       <c r="H65" t="n">
-        <v>339.37</v>
+        <v>339.38</v>
       </c>
       <c r="I65" t="n">
         <v>325.5</v>
@@ -3334,7 +3334,7 @@
         <v>343.36</v>
       </c>
       <c r="H66" t="n">
-        <v>344.44</v>
+        <v>344.35</v>
       </c>
       <c r="I66" t="n">
         <v>339.26</v>
@@ -3379,7 +3379,7 @@
         <v>342.51</v>
       </c>
       <c r="H67" t="n">
-        <v>343.4</v>
+        <v>343.49</v>
       </c>
       <c r="I67" t="n">
         <v>339.36</v>
@@ -3420,7 +3420,7 @@
         <v>333.55</v>
       </c>
       <c r="H68" t="n">
-        <v>334.43</v>
+        <v>334.88</v>
       </c>
       <c r="I68" t="n">
         <v>334.07</v>
@@ -3465,7 +3465,7 @@
         <v>331.91</v>
       </c>
       <c r="H69" t="n">
-        <v>338.15</v>
+        <v>337.83</v>
       </c>
       <c r="I69" t="n">
         <v>335.06</v>
@@ -3510,7 +3510,7 @@
         <v>346.64</v>
       </c>
       <c r="H70" t="n">
-        <v>350.14</v>
+        <v>350.69</v>
       </c>
       <c r="I70" t="n">
         <v>338.07</v>
@@ -3553,7 +3553,7 @@
         <v>346.39</v>
       </c>
       <c r="H71" t="n">
-        <v>350.3</v>
+        <v>350.43</v>
       </c>
       <c r="I71" t="n">
         <v>347.16</v>
@@ -3596,7 +3596,7 @@
         <v>342.8</v>
       </c>
       <c r="H72" t="n">
-        <v>346.81</v>
+        <v>346.55</v>
       </c>
       <c r="I72" t="n">
         <v>341.33</v>
@@ -3641,7 +3641,7 @@
         <v>340.96</v>
       </c>
       <c r="H73" t="n">
-        <v>343.75</v>
+        <v>343.44</v>
       </c>
       <c r="I73" t="n">
         <v>340.34</v>
@@ -3684,7 +3684,7 @@
         <v>324.38</v>
       </c>
       <c r="H74" t="n">
-        <v>325.72</v>
+        <v>325.32</v>
       </c>
       <c r="I74" t="n">
         <v>321.11</v>
@@ -3723,7 +3723,7 @@
         <v>339.73</v>
       </c>
       <c r="H75" t="n">
-        <v>335.78</v>
+        <v>336.13</v>
       </c>
       <c r="I75" t="n">
         <v>331.8</v>
@@ -3764,7 +3764,7 @@
         <v>338.86</v>
       </c>
       <c r="H76" t="n">
-        <v>339.37</v>
+        <v>339.15</v>
       </c>
       <c r="I76" t="n">
         <v>332.86</v>
@@ -3805,7 +3805,7 @@
         <v>341.24</v>
       </c>
       <c r="H77" t="n">
-        <v>342.73</v>
+        <v>342.72</v>
       </c>
       <c r="I77" t="n">
         <v>336.51</v>
@@ -3844,7 +3844,7 @@
         <v>327.49</v>
       </c>
       <c r="H78" t="n">
-        <v>335.2</v>
+        <v>335.24</v>
       </c>
       <c r="I78" t="n">
         <v>327.11</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>341.66</v>
+        <v>341.91</v>
       </c>
       <c r="I79" t="n">
         <v>338.01</v>
@@ -3926,7 +3926,7 @@
         <v>340.99</v>
       </c>
       <c r="H80" t="n">
-        <v>345.9</v>
+        <v>345.77</v>
       </c>
       <c r="I80" t="n">
         <v>332.75</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>326.71</v>
+        <v>326.45</v>
       </c>
       <c r="I81" t="n">
         <v>319.32</v>
@@ -4090,7 +4090,7 @@
         <v>336.23</v>
       </c>
       <c r="H84" t="n">
-        <v>334.81</v>
+        <v>334.83</v>
       </c>
       <c r="I84" t="n">
         <v>333.19</v>
@@ -4133,7 +4133,7 @@
         <v>338.34</v>
       </c>
       <c r="H85" t="n">
-        <v>343.72</v>
+        <v>343.44</v>
       </c>
       <c r="I85" t="n">
         <v>342.32</v>
@@ -4178,7 +4178,7 @@
         <v>339.86</v>
       </c>
       <c r="H86" t="n">
-        <v>343.77</v>
+        <v>344.28</v>
       </c>
       <c r="I86" t="n">
         <v>333.82</v>
@@ -4221,7 +4221,7 @@
         <v>337.85</v>
       </c>
       <c r="H87" t="n">
-        <v>339.12</v>
+        <v>339.63</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
@@ -4264,7 +4264,7 @@
         <v>340.05</v>
       </c>
       <c r="H88" t="n">
-        <v>342.49</v>
+        <v>342.47</v>
       </c>
       <c r="I88" t="n">
         <v>323.1</v>
@@ -4309,7 +4309,7 @@
         <v>340.01</v>
       </c>
       <c r="H89" t="n">
-        <v>346.5</v>
+        <v>346.58</v>
       </c>
       <c r="I89" t="n">
         <v>335.66</v>
@@ -4354,7 +4354,7 @@
         <v>341.65</v>
       </c>
       <c r="H90" t="n">
-        <v>345.08</v>
+        <v>345.39</v>
       </c>
       <c r="I90" t="n">
         <v>338.2</v>
@@ -4399,7 +4399,7 @@
         <v>340.35</v>
       </c>
       <c r="H91" t="n">
-        <v>341.45</v>
+        <v>341.02</v>
       </c>
       <c r="I91" t="n">
         <v>331.04</v>
@@ -4444,7 +4444,7 @@
         <v>344.11</v>
       </c>
       <c r="H92" t="n">
-        <v>343.15</v>
+        <v>342.59</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4485,7 +4485,7 @@
         <v>337.33</v>
       </c>
       <c r="H93" t="n">
-        <v>336.75</v>
+        <v>336.71</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
@@ -4528,7 +4528,7 @@
         <v>339.4</v>
       </c>
       <c r="H94" t="n">
-        <v>333.51</v>
+        <v>333.24</v>
       </c>
       <c r="I94" t="n">
         <v>330.41</v>
@@ -4571,7 +4571,7 @@
         <v>339.42</v>
       </c>
       <c r="H95" t="n">
-        <v>340.08</v>
+        <v>339.64</v>
       </c>
       <c r="I95" t="n">
         <v>331.58</v>
@@ -4614,7 +4614,7 @@
         <v>324.29</v>
       </c>
       <c r="H96" t="n">
-        <v>324.19</v>
+        <v>324.01</v>
       </c>
       <c r="I96" t="n">
         <v>317.5</v>
@@ -4655,7 +4655,7 @@
         <v>329.19</v>
       </c>
       <c r="H97" t="n">
-        <v>332.89</v>
+        <v>332.91</v>
       </c>
       <c r="I97" t="n">
         <v>325.82</v>
@@ -4700,7 +4700,7 @@
         <v>335.58</v>
       </c>
       <c r="H98" t="n">
-        <v>336.78</v>
+        <v>337.11</v>
       </c>
       <c r="I98" t="n">
         <v>328.86</v>
@@ -4745,7 +4745,7 @@
         <v>335.77</v>
       </c>
       <c r="H99" t="n">
-        <v>338.07</v>
+        <v>338.39</v>
       </c>
       <c r="I99" t="n">
         <v>334.51</v>
@@ -4831,7 +4831,7 @@
         <v>331</v>
       </c>
       <c r="H101" t="n">
-        <v>331.75</v>
+        <v>332.19</v>
       </c>
       <c r="I101" t="n">
         <v>326.06</v>
@@ -4876,7 +4876,7 @@
         <v>340.1</v>
       </c>
       <c r="H102" t="n">
-        <v>339.42</v>
+        <v>339.71</v>
       </c>
       <c r="I102" t="n">
         <v>332.66</v>
@@ -4917,7 +4917,7 @@
         <v>345.92</v>
       </c>
       <c r="H103" t="n">
-        <v>341.64</v>
+        <v>341.39</v>
       </c>
       <c r="I103" t="n">
         <v>328.81</v>
@@ -4954,7 +4954,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>347.04</v>
+        <v>346.54</v>
       </c>
       <c r="I104" t="n">
         <v>334.76</v>
@@ -4999,7 +4999,7 @@
         <v>343</v>
       </c>
       <c r="H105" t="n">
-        <v>342.97</v>
+        <v>342.82</v>
       </c>
       <c r="I105" t="n">
         <v>337.09</v>
@@ -5044,7 +5044,7 @@
         <v>342.59</v>
       </c>
       <c r="H106" t="n">
-        <v>346.39</v>
+        <v>346.4</v>
       </c>
       <c r="I106" t="n">
         <v>334.24</v>
@@ -5087,7 +5087,7 @@
         <v>331.56</v>
       </c>
       <c r="H107" t="n">
-        <v>338.44</v>
+        <v>338.68</v>
       </c>
       <c r="I107" t="n">
         <v>328.44</v>
@@ -5132,7 +5132,7 @@
         <v>339.89</v>
       </c>
       <c r="H108" t="n">
-        <v>343.04</v>
+        <v>342.66</v>
       </c>
       <c r="I108" t="n">
         <v>332.18</v>
@@ -5177,7 +5177,7 @@
         <v>342.26</v>
       </c>
       <c r="H109" t="n">
-        <v>343.99</v>
+        <v>343.63</v>
       </c>
       <c r="I109" t="n">
         <v>336.4</v>
@@ -5220,7 +5220,7 @@
         <v>335.42</v>
       </c>
       <c r="H110" t="n">
-        <v>334.62</v>
+        <v>334.13</v>
       </c>
       <c r="I110" t="n">
         <v>329</v>
@@ -5265,7 +5265,7 @@
         <v>333.25</v>
       </c>
       <c r="H111" t="n">
-        <v>330.78</v>
+        <v>330.57</v>
       </c>
       <c r="I111" t="n">
         <v>318.51</v>
@@ -5310,7 +5310,7 @@
         <v>341.13</v>
       </c>
       <c r="H112" t="n">
-        <v>335.92</v>
+        <v>336.24</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
@@ -5353,7 +5353,7 @@
         <v>336.04</v>
       </c>
       <c r="H113" t="n">
-        <v>336.61</v>
+        <v>336.93</v>
       </c>
       <c r="I113" t="n">
         <v>328.85</v>
@@ -5441,7 +5441,7 @@
         <v>336.79</v>
       </c>
       <c r="H115" t="n">
-        <v>342.12</v>
+        <v>341.72</v>
       </c>
       <c r="I115" t="n">
         <v>333.84</v>
@@ -5486,7 +5486,7 @@
         <v>344.6</v>
       </c>
       <c r="H116" t="n">
-        <v>351.7</v>
+        <v>351.13</v>
       </c>
       <c r="I116" t="n">
         <v>346.86</v>
@@ -5531,7 +5531,7 @@
         <v>340.69</v>
       </c>
       <c r="H117" t="n">
-        <v>341.32</v>
+        <v>341.58</v>
       </c>
       <c r="I117" t="n">
         <v>332.14</v>
@@ -5574,7 +5574,7 @@
         <v>339.46</v>
       </c>
       <c r="H118" t="n">
-        <v>335.47</v>
+        <v>335.68</v>
       </c>
       <c r="I118" t="n">
         <v>334.44</v>
@@ -5615,7 +5615,7 @@
         <v>341.89</v>
       </c>
       <c r="H119" t="n">
-        <v>335.44</v>
+        <v>335.78</v>
       </c>
       <c r="I119" t="n">
         <v>327.13</v>
@@ -5656,7 +5656,7 @@
         <v>335.99</v>
       </c>
       <c r="H120" t="n">
-        <v>342.92</v>
+        <v>342.83</v>
       </c>
       <c r="I120" t="n">
         <v>333.56</v>
@@ -5701,7 +5701,7 @@
         <v>342.21</v>
       </c>
       <c r="H121" t="n">
-        <v>348.33</v>
+        <v>348.12</v>
       </c>
       <c r="I121" t="n">
         <v>341.16</v>
@@ -5746,7 +5746,7 @@
         <v>324.98</v>
       </c>
       <c r="H122" t="n">
-        <v>327.58</v>
+        <v>327.35</v>
       </c>
       <c r="I122" t="n">
         <v>328.11</v>
@@ -5791,7 +5791,7 @@
         <v>314.05</v>
       </c>
       <c r="H123" t="n">
-        <v>320.3</v>
+        <v>320.62</v>
       </c>
       <c r="I123" t="n">
         <v>310.19</v>
@@ -5834,7 +5834,7 @@
         <v>337.24</v>
       </c>
       <c r="H124" t="n">
-        <v>340.35</v>
+        <v>340.9</v>
       </c>
       <c r="I124" t="n">
         <v>328.03</v>
@@ -5879,7 +5879,7 @@
         <v>341.32</v>
       </c>
       <c r="H125" t="n">
-        <v>344.96</v>
+        <v>345.31</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5916,7 +5916,7 @@
         <v>335.49</v>
       </c>
       <c r="H126" t="n">
-        <v>341.99</v>
+        <v>342.2</v>
       </c>
       <c r="I126" t="n">
         <v>333.37</v>
@@ -5961,7 +5961,7 @@
         <v>342.71</v>
       </c>
       <c r="H127" t="n">
-        <v>345.37</v>
+        <v>345.18</v>
       </c>
       <c r="I127" t="n">
         <v>339.12</v>
@@ -6002,7 +6002,7 @@
         <v>334.46</v>
       </c>
       <c r="H128" t="n">
-        <v>340.26</v>
+        <v>339.65</v>
       </c>
       <c r="I128" t="n">
         <v>335.1</v>
@@ -6045,7 +6045,7 @@
         <v>341.41</v>
       </c>
       <c r="H129" t="n">
-        <v>338.9</v>
+        <v>338.8</v>
       </c>
       <c r="I129" t="n">
         <v>329.91</v>
@@ -6090,7 +6090,7 @@
         <v>344.15</v>
       </c>
       <c r="H130" t="n">
-        <v>346.26</v>
+        <v>346.52</v>
       </c>
       <c r="I130" t="n">
         <v>334.47</v>
@@ -6135,7 +6135,7 @@
         <v>340.98</v>
       </c>
       <c r="H131" t="n">
-        <v>337.23</v>
+        <v>337.72</v>
       </c>
       <c r="I131" t="n">
         <v>329.75</v>
@@ -6176,7 +6176,7 @@
         <v>346.24</v>
       </c>
       <c r="H132" t="n">
-        <v>352.68</v>
+        <v>353.06</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -6215,7 +6215,7 @@
         <v>337.38</v>
       </c>
       <c r="H133" t="n">
-        <v>340.09</v>
+        <v>340.48</v>
       </c>
       <c r="I133" t="n">
         <v>329.35</v>
@@ -6260,7 +6260,7 @@
         <v>332.59</v>
       </c>
       <c r="H134" t="n">
-        <v>329.9</v>
+        <v>329.66</v>
       </c>
       <c r="I134" t="n">
         <v>323.35</v>
@@ -6305,7 +6305,7 @@
         <v>343.82</v>
       </c>
       <c r="H135" t="n">
-        <v>345.17</v>
+        <v>345.46</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>343.01</v>
+        <v>342.41</v>
       </c>
       <c r="I136" t="n">
         <v>337.83</v>
@@ -6383,7 +6383,7 @@
         <v>330.5</v>
       </c>
       <c r="H137" t="n">
-        <v>333.56</v>
+        <v>333.91</v>
       </c>
       <c r="I137" t="n">
         <v>329.42</v>
@@ -6465,7 +6465,7 @@
         <v>302.81</v>
       </c>
       <c r="H139" t="n">
-        <v>307.55</v>
+        <v>307.34</v>
       </c>
       <c r="I139" t="n">
         <v>298.75</v>
@@ -6510,7 +6510,7 @@
         <v>339.68</v>
       </c>
       <c r="H140" t="n">
-        <v>339.52</v>
+        <v>338.89</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6551,7 +6551,7 @@
         <v>334.44</v>
       </c>
       <c r="H141" t="n">
-        <v>337.24</v>
+        <v>337.7</v>
       </c>
       <c r="I141" t="n">
         <v>328.58</v>
@@ -6596,7 +6596,7 @@
         <v>340.87</v>
       </c>
       <c r="H142" t="n">
-        <v>341.13</v>
+        <v>341.56</v>
       </c>
       <c r="I142" t="n">
         <v>334.53</v>
@@ -6641,7 +6641,7 @@
         <v>328.52</v>
       </c>
       <c r="H143" t="n">
-        <v>335.59</v>
+        <v>335.83</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6682,7 +6682,7 @@
         <v>339.91</v>
       </c>
       <c r="H144" t="n">
-        <v>337.35</v>
+        <v>337.19</v>
       </c>
       <c r="I144" t="n">
         <v>333.41</v>
@@ -6723,7 +6723,7 @@
         <v>340.83</v>
       </c>
       <c r="H145" t="n">
-        <v>349.97</v>
+        <v>349.37</v>
       </c>
       <c r="I145" t="n">
         <v>343.87</v>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>346.66</v>
+        <v>346.68</v>
       </c>
       <c r="I146" t="n">
         <v>339.12</v>
@@ -6811,7 +6811,7 @@
         <v>335.55</v>
       </c>
       <c r="H147" t="n">
-        <v>340.94</v>
+        <v>341.38</v>
       </c>
       <c r="I147" t="n">
         <v>330.32</v>
@@ -6856,7 +6856,7 @@
         <v>337.62</v>
       </c>
       <c r="H148" t="n">
-        <v>338.29</v>
+        <v>337.85</v>
       </c>
       <c r="I148" t="n">
         <v>325.91</v>
@@ -6899,7 +6899,7 @@
         <v>340.64</v>
       </c>
       <c r="H149" t="n">
-        <v>337.3</v>
+        <v>337.68</v>
       </c>
       <c r="I149" t="n">
         <v>332.32</v>
@@ -6944,7 +6944,7 @@
         <v>341.65</v>
       </c>
       <c r="H150" t="n">
-        <v>335.94</v>
+        <v>336.32</v>
       </c>
       <c r="I150" t="n">
         <v>328.76</v>
@@ -6989,7 +6989,7 @@
         <v>336.06</v>
       </c>
       <c r="H151" t="n">
-        <v>338.78</v>
+        <v>338.59</v>
       </c>
       <c r="I151" t="n">
         <v>326.99</v>
@@ -7030,7 +7030,7 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>341.13</v>
+        <v>341.54</v>
       </c>
       <c r="I152" t="n">
         <v>334.81</v>
@@ -7075,7 +7075,7 @@
         <v>345.81</v>
       </c>
       <c r="H153" t="n">
-        <v>348.94</v>
+        <v>348.63</v>
       </c>
       <c r="I153" t="n">
         <v>332.75</v>
@@ -7120,7 +7120,7 @@
         <v>341.96</v>
       </c>
       <c r="H154" t="n">
-        <v>350.36</v>
+        <v>350.79</v>
       </c>
       <c r="I154" t="n">
         <v>341.2</v>
@@ -7165,7 +7165,7 @@
         <v>329.55</v>
       </c>
       <c r="H155" t="n">
-        <v>331.99</v>
+        <v>332.42</v>
       </c>
       <c r="I155" t="n">
         <v>322.65</v>
@@ -7245,7 +7245,7 @@
         <v>340.88</v>
       </c>
       <c r="H157" t="n">
-        <v>347.76</v>
+        <v>347.94</v>
       </c>
       <c r="I157" t="n">
         <v>338.88</v>
@@ -7286,7 +7286,7 @@
         <v>339.69</v>
       </c>
       <c r="H158" t="n">
-        <v>345.06</v>
+        <v>344.88</v>
       </c>
       <c r="I158" t="n">
         <v>341.3</v>
@@ -7331,7 +7331,7 @@
         <v>334.27</v>
       </c>
       <c r="H159" t="n">
-        <v>336.53</v>
+        <v>336.26</v>
       </c>
       <c r="I159" t="n">
         <v>331.09</v>
@@ -7376,7 +7376,7 @@
         <v>328.84</v>
       </c>
       <c r="H160" t="n">
-        <v>333.52</v>
+        <v>333.88</v>
       </c>
       <c r="I160" t="n">
         <v>328.94</v>
@@ -7421,7 +7421,7 @@
         <v>334.68</v>
       </c>
       <c r="H161" t="n">
-        <v>341.89</v>
+        <v>341.93</v>
       </c>
       <c r="I161" t="n">
         <v>334.3</v>
@@ -7462,7 +7462,7 @@
         <v>323.73</v>
       </c>
       <c r="H162" t="n">
-        <v>326.15</v>
+        <v>326.58</v>
       </c>
       <c r="I162" t="n">
         <v>321.02</v>
@@ -7507,7 +7507,7 @@
         <v>337.78</v>
       </c>
       <c r="H163" t="n">
-        <v>341.51</v>
+        <v>341.14</v>
       </c>
       <c r="I163" t="n">
         <v>339.17</v>
@@ -7542,7 +7542,7 @@
         <v>340.68</v>
       </c>
       <c r="H164" t="n">
-        <v>345.06</v>
+        <v>345.42</v>
       </c>
       <c r="I164" t="n">
         <v>336.74</v>
@@ -7587,7 +7587,7 @@
         <v>334.06</v>
       </c>
       <c r="H165" t="n">
-        <v>333.41</v>
+        <v>333.76</v>
       </c>
       <c r="I165" t="n">
         <v>323.06</v>
@@ -7630,7 +7630,7 @@
         <v>345.36</v>
       </c>
       <c r="H166" t="n">
-        <v>352.36</v>
+        <v>352.09</v>
       </c>
       <c r="I166" t="n">
         <v>325.01</v>
@@ -7671,7 +7671,7 @@
         <v>336.81</v>
       </c>
       <c r="H167" t="n">
-        <v>334.17</v>
+        <v>334.23</v>
       </c>
       <c r="I167" t="n">
         <v>322.69</v>
@@ -7716,7 +7716,7 @@
         <v>337.11</v>
       </c>
       <c r="H168" t="n">
-        <v>326.82</v>
+        <v>326.6</v>
       </c>
       <c r="I168" t="n">
         <v>325.6</v>
@@ -7761,7 +7761,7 @@
         <v>351.53</v>
       </c>
       <c r="H169" t="n">
-        <v>343.62</v>
+        <v>343.78</v>
       </c>
       <c r="I169" t="n">
         <v>329.25</v>
@@ -7806,7 +7806,7 @@
         <v>334.48</v>
       </c>
       <c r="H170" t="n">
-        <v>336.59</v>
+        <v>336.92</v>
       </c>
       <c r="I170" t="n">
         <v>330.02</v>
@@ -7851,7 +7851,7 @@
         <v>329.32</v>
       </c>
       <c r="H171" t="n">
-        <v>335.82</v>
+        <v>335.5</v>
       </c>
       <c r="I171" t="n">
         <v>326.37</v>
@@ -7896,7 +7896,7 @@
         <v>343.39</v>
       </c>
       <c r="H172" t="n">
-        <v>346.3</v>
+        <v>346.65</v>
       </c>
       <c r="I172" t="n">
         <v>334.48</v>
@@ -7941,7 +7941,7 @@
         <v>345.55</v>
       </c>
       <c r="H173" t="n">
-        <v>350.9</v>
+        <v>350.81</v>
       </c>
       <c r="I173" t="n">
         <v>343.62</v>
@@ -8023,7 +8023,7 @@
         <v>348.43</v>
       </c>
       <c r="H175" t="n">
-        <v>351.12</v>
+        <v>351.5</v>
       </c>
       <c r="I175" t="n">
         <v>344.08</v>
@@ -8068,7 +8068,7 @@
         <v>338.47</v>
       </c>
       <c r="H176" t="n">
-        <v>337.07</v>
+        <v>336.67</v>
       </c>
       <c r="I176" t="n">
         <v>329.42</v>
@@ -8113,7 +8113,7 @@
         <v>335.67</v>
       </c>
       <c r="H177" t="n">
-        <v>337.3</v>
+        <v>337.8</v>
       </c>
       <c r="I177" t="n">
         <v>328.66</v>
@@ -8158,7 +8158,7 @@
         <v>341.93</v>
       </c>
       <c r="H178" t="n">
-        <v>339.74</v>
+        <v>339.53</v>
       </c>
       <c r="I178" t="n">
         <v>330.79</v>
@@ -8199,7 +8199,7 @@
         <v>340.52</v>
       </c>
       <c r="H179" t="n">
-        <v>345.1</v>
+        <v>344.97</v>
       </c>
       <c r="I179" t="n">
         <v>332.58</v>
@@ -8244,7 +8244,7 @@
         <v>338.06</v>
       </c>
       <c r="H180" t="n">
-        <v>340.07</v>
+        <v>340.6</v>
       </c>
       <c r="I180" t="n">
         <v>334.12</v>
@@ -8285,7 +8285,7 @@
         <v>334.98</v>
       </c>
       <c r="H181" t="n">
-        <v>339.04</v>
+        <v>339.33</v>
       </c>
       <c r="I181" t="n">
         <v>333.72</v>
@@ -8330,7 +8330,7 @@
         <v>340.03</v>
       </c>
       <c r="H182" t="n">
-        <v>344.7</v>
+        <v>344.58</v>
       </c>
       <c r="I182" t="n">
         <v>336.17</v>
@@ -8371,7 +8371,7 @@
         <v>336.95</v>
       </c>
       <c r="H183" t="n">
-        <v>342.63</v>
+        <v>342.67</v>
       </c>
       <c r="I183" t="n">
         <v>331.53</v>
@@ -8416,7 +8416,7 @@
         <v>339.13</v>
       </c>
       <c r="H184" t="n">
-        <v>340.25</v>
+        <v>339.85</v>
       </c>
       <c r="I184" t="n">
         <v>333.55</v>
@@ -8461,7 +8461,7 @@
         <v>331.36</v>
       </c>
       <c r="H185" t="n">
-        <v>326.47</v>
+        <v>326.19</v>
       </c>
       <c r="I185" t="n">
         <v>322.43</v>
@@ -8506,7 +8506,7 @@
         <v>332.35</v>
       </c>
       <c r="H186" t="n">
-        <v>334.62</v>
+        <v>334.66</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -8545,7 +8545,7 @@
         <v>337.53</v>
       </c>
       <c r="H187" t="n">
-        <v>335.3</v>
+        <v>335.52</v>
       </c>
       <c r="I187" t="n">
         <v>330.13</v>
@@ -8590,7 +8590,7 @@
         <v>329.96</v>
       </c>
       <c r="H188" t="n">
-        <v>333.92</v>
+        <v>334.29</v>
       </c>
       <c r="I188" t="n">
         <v>327.72</v>
@@ -8678,7 +8678,7 @@
         <v>334.29</v>
       </c>
       <c r="H190" t="n">
-        <v>330.31</v>
+        <v>330.22</v>
       </c>
       <c r="I190" t="n">
         <v>314</v>
@@ -8723,7 +8723,7 @@
         <v>334.46</v>
       </c>
       <c r="H191" t="n">
-        <v>338.16</v>
+        <v>338.65</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
@@ -8766,7 +8766,7 @@
         <v>339.78</v>
       </c>
       <c r="H192" t="n">
-        <v>335.26</v>
+        <v>334.88</v>
       </c>
       <c r="I192" t="n">
         <v>327.16</v>
@@ -8811,7 +8811,7 @@
         <v>326.7</v>
       </c>
       <c r="H193" t="n">
-        <v>331.01</v>
+        <v>330.8</v>
       </c>
       <c r="I193" t="n">
         <v>327.96</v>
@@ -8854,7 +8854,7 @@
         <v>334.24</v>
       </c>
       <c r="H194" t="n">
-        <v>332.51</v>
+        <v>332.27</v>
       </c>
       <c r="I194" t="n">
         <v>325.63</v>
@@ -8899,7 +8899,7 @@
         <v>333.57</v>
       </c>
       <c r="H195" t="n">
-        <v>335.43</v>
+        <v>335.87</v>
       </c>
       <c r="I195" t="n">
         <v>328.9</v>
@@ -8942,7 +8942,7 @@
         <v>335.41</v>
       </c>
       <c r="H196" t="n">
-        <v>336.54</v>
+        <v>336.27</v>
       </c>
       <c r="I196" t="n">
         <v>333.03</v>
@@ -8987,7 +8987,7 @@
         <v>336.77</v>
       </c>
       <c r="H197" t="n">
-        <v>340.96</v>
+        <v>340.81</v>
       </c>
       <c r="I197" t="n">
         <v>330.39</v>
@@ -9028,7 +9028,7 @@
         <v>328</v>
       </c>
       <c r="H198" t="n">
-        <v>329.09</v>
+        <v>329.18</v>
       </c>
       <c r="I198" t="n">
         <v>324.96</v>
@@ -9073,7 +9073,7 @@
         <v>341.41</v>
       </c>
       <c r="H199" t="n">
-        <v>345.35</v>
+        <v>344.92</v>
       </c>
       <c r="I199" t="n">
         <v>338.62</v>
@@ -9118,7 +9118,7 @@
         <v>335.02</v>
       </c>
       <c r="H200" t="n">
-        <v>331.83</v>
+        <v>332.12</v>
       </c>
       <c r="I200" t="n">
         <v>327.38</v>
@@ -9161,7 +9161,7 @@
         <v>336.88</v>
       </c>
       <c r="H201" t="n">
-        <v>336.93</v>
+        <v>337.3</v>
       </c>
       <c r="I201" t="n">
         <v>334.55</v>
@@ -9204,7 +9204,7 @@
         <v>330.86</v>
       </c>
       <c r="H202" t="n">
-        <v>331.79</v>
+        <v>332.17</v>
       </c>
       <c r="I202" t="n">
         <v>325.48</v>
@@ -9247,7 +9247,7 @@
         <v>341.52</v>
       </c>
       <c r="H203" t="n">
-        <v>342.24</v>
+        <v>341.95</v>
       </c>
       <c r="I203" t="n">
         <v>329.27</v>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>332.97</v>
+        <v>332.86</v>
       </c>
       <c r="I204" t="n">
         <v>332.71</v>
@@ -9335,7 +9335,7 @@
         <v>336.49</v>
       </c>
       <c r="H205" t="n">
-        <v>339.21</v>
+        <v>339.5</v>
       </c>
       <c r="I205" t="n">
         <v>333.24</v>
@@ -9380,7 +9380,7 @@
         <v>343.23</v>
       </c>
       <c r="H206" t="n">
-        <v>341.08</v>
+        <v>341.45</v>
       </c>
       <c r="I206" t="n">
         <v>334.68</v>
@@ -9421,7 +9421,7 @@
         <v>340.81</v>
       </c>
       <c r="H207" t="n">
-        <v>340.73</v>
+        <v>340.18</v>
       </c>
       <c r="I207" t="n">
         <v>326.82</v>
@@ -9466,7 +9466,7 @@
         <v>340.04</v>
       </c>
       <c r="H208" t="n">
-        <v>341.36</v>
+        <v>341.75</v>
       </c>
       <c r="I208" t="n">
         <v>323.42</v>
@@ -9511,7 +9511,7 @@
         <v>346.82</v>
       </c>
       <c r="H209" t="n">
-        <v>352.7</v>
+        <v>352.2</v>
       </c>
       <c r="I209" t="n">
         <v>332.77</v>
@@ -9552,7 +9552,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>337.53</v>
+        <v>337.24</v>
       </c>
       <c r="I210" t="n">
         <v>332.05</v>
@@ -9597,7 +9597,7 @@
         <v>340.14</v>
       </c>
       <c r="H211" t="n">
-        <v>338.6</v>
+        <v>338.84</v>
       </c>
       <c r="I211" t="n">
         <v>329.43</v>
@@ -9642,7 +9642,7 @@
         <v>339.83</v>
       </c>
       <c r="H212" t="n">
-        <v>342.6</v>
+        <v>342.51</v>
       </c>
       <c r="I212" t="n">
         <v>336.83</v>
@@ -9718,7 +9718,7 @@
         <v>335.07</v>
       </c>
       <c r="H214" t="n">
-        <v>341.14</v>
+        <v>341.12</v>
       </c>
       <c r="I214" t="n">
         <v>330.85</v>
@@ -9763,7 +9763,7 @@
         <v>338.03</v>
       </c>
       <c r="H215" t="n">
-        <v>340.67</v>
+        <v>341.07</v>
       </c>
       <c r="I215" t="n">
         <v>327.98</v>
@@ -9808,7 +9808,7 @@
         <v>332.76</v>
       </c>
       <c r="H216" t="n">
-        <v>336.93</v>
+        <v>337.36</v>
       </c>
       <c r="I216" t="n">
         <v>329.19</v>
@@ -9853,7 +9853,7 @@
         <v>327.44</v>
       </c>
       <c r="H217" t="n">
-        <v>325.19</v>
+        <v>325.02</v>
       </c>
       <c r="I217" t="n">
         <v>319.1</v>
@@ -9898,7 +9898,7 @@
         <v>332.29</v>
       </c>
       <c r="H218" t="n">
-        <v>328.1</v>
+        <v>328.23</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
         <v>333.57</v>
       </c>
       <c r="H219" t="n">
-        <v>337</v>
+        <v>336.82</v>
       </c>
       <c r="I219" t="n">
         <v>328</v>
@@ -9984,7 +9984,7 @@
         <v>344.09</v>
       </c>
       <c r="H220" t="n">
-        <v>340.29</v>
+        <v>339.67</v>
       </c>
       <c r="I220" t="n">
         <v>326.47</v>
@@ -10029,7 +10029,7 @@
         <v>344.45</v>
       </c>
       <c r="H221" t="n">
-        <v>336.86</v>
+        <v>337.2</v>
       </c>
       <c r="I221" t="n">
         <v>333.23</v>
@@ -10070,7 +10070,7 @@
         <v>329.46</v>
       </c>
       <c r="H222" t="n">
-        <v>329.22</v>
+        <v>328.92</v>
       </c>
       <c r="I222" t="n">
         <v>325.98</v>
@@ -10146,7 +10146,7 @@
         <v>338.5</v>
       </c>
       <c r="H224" t="n">
-        <v>334.75</v>
+        <v>334.43</v>
       </c>
       <c r="I224" t="n">
         <v>324.65</v>
@@ -10191,7 +10191,7 @@
         <v>337.33</v>
       </c>
       <c r="H225" t="n">
-        <v>339.6</v>
+        <v>339.93</v>
       </c>
       <c r="I225" t="n">
         <v>330.43</v>
@@ -10236,7 +10236,7 @@
         <v>334.82</v>
       </c>
       <c r="H226" t="n">
-        <v>331.87</v>
+        <v>332.29</v>
       </c>
       <c r="I226" t="n">
         <v>327.82</v>
@@ -10281,7 +10281,7 @@
         <v>349</v>
       </c>
       <c r="H227" t="n">
-        <v>348.1</v>
+        <v>347.66</v>
       </c>
       <c r="I227" t="n">
         <v>340.94</v>
@@ -10324,7 +10324,7 @@
         <v>338.64</v>
       </c>
       <c r="H228" t="n">
-        <v>347.69</v>
+        <v>347.9</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -10365,7 +10365,7 @@
         <v>347.22</v>
       </c>
       <c r="H229" t="n">
-        <v>349.6</v>
+        <v>349.48</v>
       </c>
       <c r="I229" t="n">
         <v>337.37</v>
@@ -10408,7 +10408,7 @@
         <v>331.69</v>
       </c>
       <c r="H230" t="n">
-        <v>330.27</v>
+        <v>330.77</v>
       </c>
       <c r="I230" t="n">
         <v>324.25</v>
@@ -10453,7 +10453,7 @@
         <v>349.72</v>
       </c>
       <c r="H231" t="n">
-        <v>354.83</v>
+        <v>354.4</v>
       </c>
       <c r="I231" t="n">
         <v>349.44</v>
@@ -10496,7 +10496,7 @@
         <v>340.8</v>
       </c>
       <c r="H232" t="n">
-        <v>345.35</v>
+        <v>345.85</v>
       </c>
       <c r="I232" t="n">
         <v>339.37</v>
@@ -10537,7 +10537,7 @@
         <v>329.72</v>
       </c>
       <c r="H233" t="n">
-        <v>330.91</v>
+        <v>330.57</v>
       </c>
       <c r="I233" t="n">
         <v>323.42</v>
@@ -10580,7 +10580,7 @@
         <v>331.74</v>
       </c>
       <c r="H234" t="n">
-        <v>330.83</v>
+        <v>330.62</v>
       </c>
       <c r="I234" t="n">
         <v>324.08</v>
@@ -10625,7 +10625,7 @@
         <v>334.39</v>
       </c>
       <c r="H235" t="n">
-        <v>338.64</v>
+        <v>338.48</v>
       </c>
       <c r="I235" t="n">
         <v>323.02</v>
@@ -10670,7 +10670,7 @@
         <v>328.1</v>
       </c>
       <c r="H236" t="n">
-        <v>337.59</v>
+        <v>337.1</v>
       </c>
       <c r="I236" t="n">
         <v>327.45</v>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>327.03</v>
+        <v>327.43</v>
       </c>
       <c r="I237" t="n">
         <v>310.6</v>
@@ -10750,7 +10750,7 @@
         <v>339.27</v>
       </c>
       <c r="H238" t="n">
-        <v>334.96</v>
+        <v>334.61</v>
       </c>
       <c r="I238" t="n">
         <v>326.36</v>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="n">
-        <v>330.48</v>
+        <v>330.77</v>
       </c>
       <c r="I239" t="n">
         <v>322.96</v>
@@ -10834,7 +10834,7 @@
         <v>332.16</v>
       </c>
       <c r="H240" t="n">
-        <v>335.66</v>
+        <v>335.98</v>
       </c>
       <c r="I240" t="n">
         <v>322.65</v>
@@ -10879,7 +10879,7 @@
         <v>329.6</v>
       </c>
       <c r="H241" t="n">
-        <v>334.47</v>
+        <v>334.62</v>
       </c>
       <c r="I241" t="n">
         <v>325.33</v>
@@ -10920,7 +10920,7 @@
         <v>340.26</v>
       </c>
       <c r="H242" t="n">
-        <v>345.9</v>
+        <v>346.2</v>
       </c>
       <c r="I242" t="n">
         <v>334.9</v>
@@ -10965,7 +10965,7 @@
         <v>338.22</v>
       </c>
       <c r="H243" t="n">
-        <v>340.44</v>
+        <v>339.93</v>
       </c>
       <c r="I243" t="n">
         <v>335.63</v>
@@ -11010,7 +11010,7 @@
         <v>333.73</v>
       </c>
       <c r="H244" t="n">
-        <v>338.37</v>
+        <v>338.13</v>
       </c>
       <c r="I244" t="n">
         <v>333.04</v>
@@ -11051,7 +11051,7 @@
         <v>332.52</v>
       </c>
       <c r="H245" t="n">
-        <v>337.32</v>
+        <v>337.4</v>
       </c>
       <c r="I245" t="n">
         <v>335.77</v>
@@ -11096,7 +11096,7 @@
         <v>333.4</v>
       </c>
       <c r="H246" t="n">
-        <v>333.08</v>
+        <v>333.39</v>
       </c>
       <c r="I246" t="n">
         <v>325.17</v>
@@ -11141,7 +11141,7 @@
         <v>326.11</v>
       </c>
       <c r="H247" t="n">
-        <v>334.07</v>
+        <v>334.45</v>
       </c>
       <c r="I247" t="n">
         <v>326.24</v>
@@ -11178,7 +11178,7 @@
         <v>333.03</v>
       </c>
       <c r="H248" t="n">
-        <v>327.88</v>
+        <v>328.06</v>
       </c>
       <c r="I248" t="n">
         <v>324.39</v>
@@ -11223,7 +11223,7 @@
         <v>329.17</v>
       </c>
       <c r="H249" t="n">
-        <v>333.88</v>
+        <v>333.95</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -11260,7 +11260,7 @@
         <v>335.14</v>
       </c>
       <c r="H250" t="n">
-        <v>333.88</v>
+        <v>333.63</v>
       </c>
       <c r="I250" t="n">
         <v>327.83</v>
@@ -11303,7 +11303,7 @@
         <v>336.94</v>
       </c>
       <c r="H251" t="n">
-        <v>333.38</v>
+        <v>332.87</v>
       </c>
       <c r="I251" t="n">
         <v>322.39</v>
@@ -11348,7 +11348,7 @@
         <v>329.91</v>
       </c>
       <c r="H252" t="n">
-        <v>334.03</v>
+        <v>334.36</v>
       </c>
       <c r="I252" t="n">
         <v>330.13</v>
@@ -11383,7 +11383,7 @@
         <v>322.17</v>
       </c>
       <c r="H253" t="n">
-        <v>335.88</v>
+        <v>335.46</v>
       </c>
       <c r="I253" t="n">
         <v>323.87</v>
@@ -11424,7 +11424,7 @@
         <v>327.48</v>
       </c>
       <c r="H254" t="n">
-        <v>333.35</v>
+        <v>333.59</v>
       </c>
       <c r="I254" t="n">
         <v>321.09</v>
@@ -11465,7 +11465,7 @@
         <v>341.13</v>
       </c>
       <c r="H255" t="n">
-        <v>342.34</v>
+        <v>342.02</v>
       </c>
       <c r="I255" t="n">
         <v>326.05</v>
@@ -11506,7 +11506,7 @@
         <v>334.36</v>
       </c>
       <c r="H256" t="n">
-        <v>338.97</v>
+        <v>338.88</v>
       </c>
       <c r="I256" t="n">
         <v>318.81</v>
@@ -11551,7 +11551,7 @@
         <v>338.75</v>
       </c>
       <c r="H257" t="n">
-        <v>332.45</v>
+        <v>332.37</v>
       </c>
       <c r="I257" t="n">
         <v>319.32</v>
@@ -11590,7 +11590,7 @@
         <v>350.23</v>
       </c>
       <c r="H258" t="n">
-        <v>347.77</v>
+        <v>347.81</v>
       </c>
       <c r="I258" t="n">
         <v>330.86</v>
@@ -11629,7 +11629,7 @@
         <v>345.4</v>
       </c>
       <c r="H259" t="n">
-        <v>336.41</v>
+        <v>336.29</v>
       </c>
       <c r="I259" t="n">
         <v>326.84</v>
@@ -11705,7 +11705,7 @@
         <v>322.28</v>
       </c>
       <c r="H261" t="n">
-        <v>332.77</v>
+        <v>332.38</v>
       </c>
       <c r="I261" t="n">
         <v>323.59</v>
@@ -11742,7 +11742,7 @@
         <v>332.11</v>
       </c>
       <c r="H262" t="n">
-        <v>335.62</v>
+        <v>335.86</v>
       </c>
       <c r="I262" t="n">
         <v>330.21</v>
@@ -11787,7 +11787,7 @@
         <v>340.43</v>
       </c>
       <c r="H263" t="n">
-        <v>339.42</v>
+        <v>339.89</v>
       </c>
       <c r="I263" t="n">
         <v>329.69</v>
@@ -11832,7 +11832,7 @@
         <v>332.11</v>
       </c>
       <c r="H264" t="n">
-        <v>332.64</v>
+        <v>333.12</v>
       </c>
       <c r="I264" t="n">
         <v>327.85</v>
@@ -11877,7 +11877,7 @@
         <v>335.63</v>
       </c>
       <c r="H265" t="n">
-        <v>341.97</v>
+        <v>341.94</v>
       </c>
       <c r="I265" t="n">
         <v>330.32</v>
@@ -11918,7 +11918,7 @@
         <v>336.02</v>
       </c>
       <c r="H266" t="n">
-        <v>327.87</v>
+        <v>328.06</v>
       </c>
       <c r="I266" t="n">
         <v>321.13</v>
@@ -11961,7 +11961,7 @@
         <v>339.87</v>
       </c>
       <c r="H267" t="n">
-        <v>341.1</v>
+        <v>341.07</v>
       </c>
       <c r="I267" t="n">
         <v>332.55</v>
@@ -12006,7 +12006,7 @@
         <v>336.98</v>
       </c>
       <c r="H268" t="n">
-        <v>338.64</v>
+        <v>338.44</v>
       </c>
       <c r="I268" t="n">
         <v>329.02</v>
@@ -12041,7 +12041,7 @@
         <v>324.22</v>
       </c>
       <c r="H269" t="n">
-        <v>326.96</v>
+        <v>326.53</v>
       </c>
       <c r="I269" t="n">
         <v>320.93</v>
@@ -12084,7 +12084,7 @@
         <v>334.09</v>
       </c>
       <c r="H270" t="n">
-        <v>336.27</v>
+        <v>335.87</v>
       </c>
       <c r="I270" t="n">
         <v>327.35</v>
@@ -12117,7 +12117,7 @@
         <v>332.87</v>
       </c>
       <c r="H271" t="n">
-        <v>334.92</v>
+        <v>335.38</v>
       </c>
       <c r="I271" t="n">
         <v>328.37</v>
@@ -12152,7 +12152,7 @@
         <v>330.65</v>
       </c>
       <c r="H272" t="n">
-        <v>333.17</v>
+        <v>332.93</v>
       </c>
       <c r="I272" t="n">
         <v>326.99</v>
@@ -12197,7 +12197,7 @@
         <v>335.97</v>
       </c>
       <c r="H273" t="n">
-        <v>339.42</v>
+        <v>339.25</v>
       </c>
       <c r="I273" t="n">
         <v>331.82</v>
@@ -12236,7 +12236,7 @@
         <v>332.74</v>
       </c>
       <c r="H274" t="n">
-        <v>335.16</v>
+        <v>334.98</v>
       </c>
       <c r="I274" t="n">
         <v>326.94</v>
@@ -12281,7 +12281,7 @@
         <v>336.59</v>
       </c>
       <c r="H275" t="n">
-        <v>339.62</v>
+        <v>340.04</v>
       </c>
       <c r="I275" t="n">
         <v>334.31</v>
@@ -12326,7 +12326,7 @@
         <v>318.02</v>
       </c>
       <c r="H276" t="n">
-        <v>320.49</v>
+        <v>320.06</v>
       </c>
       <c r="I276" t="n">
         <v>312.83</v>
@@ -12371,7 +12371,7 @@
         <v>334.84</v>
       </c>
       <c r="H277" t="n">
-        <v>340.13</v>
+        <v>340.59</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -12408,7 +12408,7 @@
         <v>328.75</v>
       </c>
       <c r="H278" t="n">
-        <v>328.02</v>
+        <v>328.4</v>
       </c>
       <c r="I278" t="n">
         <v>320.68</v>
@@ -12482,7 +12482,7 @@
         <v>329.19</v>
       </c>
       <c r="H280" t="n">
-        <v>340.47</v>
+        <v>340.27</v>
       </c>
       <c r="I280" t="n">
         <v>327.96</v>
@@ -12515,7 +12515,7 @@
         <v>329.23</v>
       </c>
       <c r="H281" t="n">
-        <v>329.68</v>
+        <v>329.76</v>
       </c>
       <c r="I281" t="n">
         <v>322.35</v>
@@ -12560,7 +12560,7 @@
         <v>335.16</v>
       </c>
       <c r="H282" t="n">
-        <v>337.35</v>
+        <v>337.34</v>
       </c>
       <c r="I282" t="n">
         <v>329.48</v>
@@ -12605,7 +12605,7 @@
         <v>334.01</v>
       </c>
       <c r="H283" t="n">
-        <v>334.32</v>
+        <v>334.24</v>
       </c>
       <c r="I283" t="n">
         <v>327.03</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="n">
-        <v>333.38</v>
+        <v>333.7</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -12815,7 +12815,7 @@
         <v>328.69</v>
       </c>
       <c r="H289" t="n">
-        <v>329.9</v>
+        <v>329.57</v>
       </c>
       <c r="I289" t="n">
         <v>318.45</v>
@@ -12889,7 +12889,7 @@
         <v>337.31</v>
       </c>
       <c r="H291" t="n">
-        <v>339.36</v>
+        <v>339.16</v>
       </c>
       <c r="I291" t="n">
         <v>330.17</v>
@@ -12934,7 +12934,7 @@
         <v>336.75</v>
       </c>
       <c r="H292" t="n">
-        <v>344.98</v>
+        <v>345.29</v>
       </c>
       <c r="I292" t="n">
         <v>334.58</v>
@@ -12975,7 +12975,7 @@
         <v>339.91</v>
       </c>
       <c r="H293" t="n">
-        <v>345.17</v>
+        <v>345.59</v>
       </c>
       <c r="I293" t="n">
         <v>330.72</v>
@@ -13016,7 +13016,7 @@
         <v>332.02</v>
       </c>
       <c r="H294" t="n">
-        <v>334.51</v>
+        <v>334.08</v>
       </c>
       <c r="I294" t="n">
         <v>326.73</v>
@@ -13061,7 +13061,7 @@
         <v>334.15</v>
       </c>
       <c r="H295" t="n">
-        <v>338.24</v>
+        <v>337.65</v>
       </c>
       <c r="I295" t="n">
         <v>333.41</v>
@@ -13137,7 +13137,7 @@
         <v>341.21</v>
       </c>
       <c r="H297" t="n">
-        <v>343.64</v>
+        <v>343.4</v>
       </c>
       <c r="I297" t="n">
         <v>339.27</v>
@@ -13180,7 +13180,7 @@
         <v>331.14</v>
       </c>
       <c r="H298" t="n">
-        <v>338.86</v>
+        <v>338.97</v>
       </c>
       <c r="I298" t="n">
         <v>333.12</v>
@@ -13221,7 +13221,7 @@
         <v>328.59</v>
       </c>
       <c r="H299" t="n">
-        <v>332.32</v>
+        <v>332.83</v>
       </c>
       <c r="I299" t="n">
         <v>319.83</v>
@@ -13266,7 +13266,7 @@
         <v>327.58</v>
       </c>
       <c r="H300" t="n">
-        <v>331.12</v>
+        <v>331.61</v>
       </c>
       <c r="I300" t="n">
         <v>322.07</v>
@@ -13334,7 +13334,7 @@
         <v>329.93</v>
       </c>
       <c r="H302" t="n">
-        <v>329.76</v>
+        <v>329.47</v>
       </c>
       <c r="I302" t="n">
         <v>330.06</v>
@@ -13379,7 +13379,7 @@
         <v>332.64</v>
       </c>
       <c r="H303" t="n">
-        <v>335.88</v>
+        <v>336.01</v>
       </c>
       <c r="I303" t="n">
         <v>328.36</v>
@@ -13420,7 +13420,7 @@
         <v>311.26</v>
       </c>
       <c r="H304" t="n">
-        <v>320.61</v>
+        <v>320.93</v>
       </c>
       <c r="I304" t="n">
         <v>312.4</v>
@@ -13463,7 +13463,7 @@
         <v>338.94</v>
       </c>
       <c r="H305" t="n">
-        <v>336.8</v>
+        <v>337.07</v>
       </c>
       <c r="I305" t="n">
         <v>334.71</v>
@@ -13508,7 +13508,7 @@
         <v>334.53</v>
       </c>
       <c r="H306" t="n">
-        <v>335.7</v>
+        <v>335.13</v>
       </c>
       <c r="I306" t="n">
         <v>332.23</v>
@@ -13549,7 +13549,7 @@
         <v>331.2</v>
       </c>
       <c r="H307" t="n">
-        <v>336.12</v>
+        <v>336.54</v>
       </c>
       <c r="I307" t="n">
         <v>324.74</v>
@@ -13590,7 +13590,7 @@
         <v>338.51</v>
       </c>
       <c r="H308" t="n">
-        <v>341.76</v>
+        <v>342.14</v>
       </c>
       <c r="I308" t="n">
         <v>334.15</v>
@@ -13635,7 +13635,7 @@
         <v>334.38</v>
       </c>
       <c r="H309" t="n">
-        <v>340.11</v>
+        <v>340.4</v>
       </c>
       <c r="I309" t="n">
         <v>325.8</v>
@@ -13680,7 +13680,7 @@
         <v>329.22</v>
       </c>
       <c r="H310" t="n">
-        <v>327.45</v>
+        <v>327.15</v>
       </c>
       <c r="I310" t="n">
         <v>323.22</v>
@@ -13725,7 +13725,7 @@
         <v>333.27</v>
       </c>
       <c r="H311" t="n">
-        <v>334.3</v>
+        <v>333.76</v>
       </c>
       <c r="I311" t="n">
         <v>326.87</v>
@@ -13764,7 +13764,7 @@
         <v>328.44</v>
       </c>
       <c r="H312" t="n">
-        <v>337.17</v>
+        <v>337.48</v>
       </c>
       <c r="I312" t="n">
         <v>328.82</v>
@@ -13805,7 +13805,7 @@
         <v>336.9</v>
       </c>
       <c r="H313" t="n">
-        <v>340.65</v>
+        <v>340.97</v>
       </c>
       <c r="I313" t="n">
         <v>324.93</v>
@@ -13850,7 +13850,7 @@
         <v>339.31</v>
       </c>
       <c r="H314" t="n">
-        <v>342.47</v>
+        <v>342.15</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -13887,7 +13887,7 @@
         <v>345.27</v>
       </c>
       <c r="H315" t="n">
-        <v>343.1</v>
+        <v>342.76</v>
       </c>
       <c r="I315" t="n">
         <v>336.46</v>
@@ -13967,7 +13967,7 @@
         <v>335.1</v>
       </c>
       <c r="H317" t="n">
-        <v>336.94</v>
+        <v>337.09</v>
       </c>
       <c r="I317" t="n">
         <v>329.23</v>
@@ -14039,7 +14039,7 @@
         <v>336.48</v>
       </c>
       <c r="H319" t="n">
-        <v>336.47</v>
+        <v>336.74</v>
       </c>
       <c r="I319" t="n">
         <v>332.03</v>
@@ -14084,7 +14084,7 @@
         <v>334.94</v>
       </c>
       <c r="H320" t="n">
-        <v>334.27</v>
+        <v>334.3</v>
       </c>
       <c r="I320" t="n">
         <v>332.93</v>
@@ -14129,7 +14129,7 @@
         <v>330.8</v>
       </c>
       <c r="H321" t="n">
-        <v>334.83</v>
+        <v>334.86</v>
       </c>
       <c r="I321" t="n">
         <v>330.97</v>
@@ -14174,7 +14174,7 @@
         <v>335.47</v>
       </c>
       <c r="H322" t="n">
-        <v>340.44</v>
+        <v>339.89</v>
       </c>
       <c r="I322" t="n">
         <v>333.87</v>
@@ -14285,7 +14285,7 @@
         <v>333.33</v>
       </c>
       <c r="H325" t="n">
-        <v>334.87</v>
+        <v>334.39</v>
       </c>
       <c r="I325" t="n">
         <v>327.96</v>
@@ -14367,7 +14367,7 @@
         <v>340.3</v>
       </c>
       <c r="H327" t="n">
-        <v>340.9</v>
+        <v>341.19</v>
       </c>
       <c r="I327" t="n">
         <v>330.68</v>
@@ -14412,7 +14412,7 @@
         <v>326.63</v>
       </c>
       <c r="H328" t="n">
-        <v>326.62</v>
+        <v>327.01</v>
       </c>
       <c r="I328" t="n">
         <v>323.91</v>
@@ -14490,7 +14490,7 @@
         <v>332.56</v>
       </c>
       <c r="H330" t="n">
-        <v>331.44</v>
+        <v>331.7</v>
       </c>
       <c r="I330" t="n">
         <v>323.44</v>
@@ -14599,7 +14599,7 @@
         <v>341.97</v>
       </c>
       <c r="H333" t="n">
-        <v>333.71</v>
+        <v>333.67</v>
       </c>
       <c r="I333" t="n">
         <v>322.35</v>
@@ -14644,7 +14644,7 @@
         <v>344.19</v>
       </c>
       <c r="H334" t="n">
-        <v>335.39</v>
+        <v>335.63</v>
       </c>
       <c r="I334" t="n">
         <v>336.13</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="n">
-        <v>332.77</v>
+        <v>332.42</v>
       </c>
       <c r="I335" t="n">
         <v>322.3</v>
@@ -14732,7 +14732,7 @@
         <v>340.62</v>
       </c>
       <c r="H336" t="n">
-        <v>335.38</v>
+        <v>335</v>
       </c>
       <c r="I336" t="n">
         <v>327.21</v>
@@ -14777,7 +14777,7 @@
         <v>331.02</v>
       </c>
       <c r="H337" t="n">
-        <v>331.66</v>
+        <v>332.13</v>
       </c>
       <c r="I337" t="n">
         <v>330.88</v>
@@ -14822,7 +14822,7 @@
         <v>328.19</v>
       </c>
       <c r="H338" t="n">
-        <v>331.9</v>
+        <v>332.39</v>
       </c>
       <c r="I338" t="n">
         <v>327.26</v>
@@ -14867,7 +14867,7 @@
         <v>323.02</v>
       </c>
       <c r="H339" t="n">
-        <v>325.91</v>
+        <v>325.93</v>
       </c>
       <c r="I339" t="n">
         <v>317.31</v>
@@ -14912,7 +14912,7 @@
         <v>331.2</v>
       </c>
       <c r="H340" t="n">
-        <v>341.24</v>
+        <v>341.22</v>
       </c>
       <c r="I340" t="n">
         <v>331.49</v>
@@ -14957,7 +14957,7 @@
         <v>329.9</v>
       </c>
       <c r="H341" t="n">
-        <v>333</v>
+        <v>332.87</v>
       </c>
       <c r="I341" t="n">
         <v>324.73</v>
@@ -14996,7 +14996,7 @@
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="n">
-        <v>330.86</v>
+        <v>330.42</v>
       </c>
       <c r="I342" t="n">
         <v>322.66</v>
@@ -15031,7 +15031,7 @@
         <v>320.56</v>
       </c>
       <c r="H343" t="n">
-        <v>326.48</v>
+        <v>326.07</v>
       </c>
       <c r="I343" t="n">
         <v>322.37</v>
@@ -15076,7 +15076,7 @@
         <v>330.34</v>
       </c>
       <c r="H344" t="n">
-        <v>338.38</v>
+        <v>337.92</v>
       </c>
       <c r="I344" t="n">
         <v>337.55</v>
@@ -15150,7 +15150,7 @@
         <v>334.36</v>
       </c>
       <c r="H346" t="n">
-        <v>337.5</v>
+        <v>337.52</v>
       </c>
       <c r="I346" t="n">
         <v>331.39</v>
@@ -15195,7 +15195,7 @@
         <v>328.77</v>
       </c>
       <c r="H347" t="n">
-        <v>338.4</v>
+        <v>338.41</v>
       </c>
       <c r="I347" t="n">
         <v>322.56</v>
@@ -15240,7 +15240,7 @@
         <v>329.58</v>
       </c>
       <c r="H348" t="n">
-        <v>332.25</v>
+        <v>332.1</v>
       </c>
       <c r="I348" t="n">
         <v>327.85</v>
@@ -15285,7 +15285,7 @@
         <v>331.48</v>
       </c>
       <c r="H349" t="n">
-        <v>329.47</v>
+        <v>329.89</v>
       </c>
       <c r="I349" t="n">
         <v>321.96</v>
@@ -15330,7 +15330,7 @@
         <v>324.71</v>
       </c>
       <c r="H350" t="n">
-        <v>334.08</v>
+        <v>333.74</v>
       </c>
       <c r="I350" t="n">
         <v>320.75</v>
@@ -15375,7 +15375,7 @@
         <v>326.3</v>
       </c>
       <c r="H351" t="n">
-        <v>326.58</v>
+        <v>326.02</v>
       </c>
       <c r="I351" t="n">
         <v>325.37</v>
@@ -15418,7 +15418,7 @@
         <v>324.57</v>
       </c>
       <c r="H352" t="n">
-        <v>332.01</v>
+        <v>331.83</v>
       </c>
       <c r="I352" t="n">
         <v>329.58</v>
@@ -15463,7 +15463,7 @@
         <v>321.5</v>
       </c>
       <c r="H353" t="n">
-        <v>323.48</v>
+        <v>323.1</v>
       </c>
       <c r="I353" t="n">
         <v>318.88</v>
@@ -15508,7 +15508,7 @@
         <v>328.85</v>
       </c>
       <c r="H354" t="n">
-        <v>334.4</v>
+        <v>334.66</v>
       </c>
       <c r="I354" t="n">
         <v>331.93</v>
@@ -15549,7 +15549,7 @@
         <v>327.38</v>
       </c>
       <c r="H355" t="n">
-        <v>330.93</v>
+        <v>331.31</v>
       </c>
       <c r="I355" t="n">
         <v>330.74</v>
@@ -15629,7 +15629,7 @@
         <v>322.95</v>
       </c>
       <c r="H357" t="n">
-        <v>334.55</v>
+        <v>334.2</v>
       </c>
       <c r="I357" t="n">
         <v>321.66</v>
@@ -15674,7 +15674,7 @@
         <v>324.46</v>
       </c>
       <c r="H358" t="n">
-        <v>332.77</v>
+        <v>332.5</v>
       </c>
       <c r="I358" t="n">
         <v>325.74</v>
@@ -15715,7 +15715,7 @@
         <v>327.19</v>
       </c>
       <c r="H359" t="n">
-        <v>335.3</v>
+        <v>335.35</v>
       </c>
       <c r="I359" t="n">
         <v>328.45</v>
@@ -15760,7 +15760,7 @@
         <v>335.89</v>
       </c>
       <c r="H360" t="n">
-        <v>337.46</v>
+        <v>337.26</v>
       </c>
       <c r="I360" t="n">
         <v>335.89</v>
@@ -15805,7 +15805,7 @@
         <v>335.7</v>
       </c>
       <c r="H361" t="n">
-        <v>337.82</v>
+        <v>337.75</v>
       </c>
       <c r="I361" t="n">
         <v>332.7</v>
@@ -15850,7 +15850,7 @@
         <v>328.84</v>
       </c>
       <c r="H362" t="n">
-        <v>333.5</v>
+        <v>333.65</v>
       </c>
       <c r="I362" t="n">
         <v>326.73</v>
@@ -15934,7 +15934,7 @@
         <v>332.69</v>
       </c>
       <c r="H364" t="n">
-        <v>337.1</v>
+        <v>336.86</v>
       </c>
       <c r="I364" t="n">
         <v>331.89</v>
@@ -15979,7 +15979,7 @@
         <v>342.33</v>
       </c>
       <c r="H365" t="n">
-        <v>340.41</v>
+        <v>340.84</v>
       </c>
       <c r="I365" t="n">
         <v>333.19</v>
@@ -16024,7 +16024,7 @@
         <v>331.63</v>
       </c>
       <c r="H366" t="n">
-        <v>331.15</v>
+        <v>330.77</v>
       </c>
       <c r="I366" t="n">
         <v>318.62</v>
@@ -16069,7 +16069,7 @@
         <v>333.97</v>
       </c>
       <c r="H367" t="n">
-        <v>330.52</v>
+        <v>330.5</v>
       </c>
       <c r="I367" t="n">
         <v>320</v>
@@ -16114,7 +16114,7 @@
         <v>332.87</v>
       </c>
       <c r="H368" t="n">
-        <v>333.23</v>
+        <v>333.22</v>
       </c>
       <c r="I368" t="n">
         <v>330.64</v>
@@ -16159,7 +16159,7 @@
         <v>332.01</v>
       </c>
       <c r="H369" t="n">
-        <v>328.61</v>
+        <v>328.93</v>
       </c>
       <c r="I369" t="n">
         <v>330.1</v>
@@ -16204,7 +16204,7 @@
         <v>337.05</v>
       </c>
       <c r="H370" t="n">
-        <v>336.75</v>
+        <v>336.41</v>
       </c>
       <c r="I370" t="n">
         <v>334.05</v>
@@ -16247,7 +16247,7 @@
         <v>336.12</v>
       </c>
       <c r="H371" t="n">
-        <v>335.58</v>
+        <v>335.6</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -16284,7 +16284,7 @@
         <v>329.36</v>
       </c>
       <c r="H372" t="n">
-        <v>340.59</v>
+        <v>340.05</v>
       </c>
       <c r="I372" t="n">
         <v>330.93</v>
@@ -16323,7 +16323,7 @@
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="n">
-        <v>324.77</v>
+        <v>324.88</v>
       </c>
       <c r="I373" t="n">
         <v>317.54</v>
@@ -16362,7 +16362,7 @@
         <v>326.24</v>
       </c>
       <c r="H374" t="n">
-        <v>343.52</v>
+        <v>343.37</v>
       </c>
       <c r="I374" t="n">
         <v>329.74</v>
@@ -16407,7 +16407,7 @@
         <v>331.24</v>
       </c>
       <c r="H375" t="n">
-        <v>337.73</v>
+        <v>337.88</v>
       </c>
       <c r="I375" t="n">
         <v>331.89</v>
@@ -16448,7 +16448,7 @@
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="n">
-        <v>327.39</v>
+        <v>327.15</v>
       </c>
       <c r="I376" t="n">
         <v>329.09</v>
@@ -16489,7 +16489,7 @@
         <v>331.24</v>
       </c>
       <c r="H377" t="n">
-        <v>342.62</v>
+        <v>342.69</v>
       </c>
       <c r="I377" t="n">
         <v>333.31</v>
@@ -16569,7 +16569,7 @@
         <v>331.94</v>
       </c>
       <c r="H379" t="n">
-        <v>333.84</v>
+        <v>334.19</v>
       </c>
       <c r="I379" t="n">
         <v>331.51</v>
@@ -16614,7 +16614,7 @@
         <v>329.7</v>
       </c>
       <c r="H380" t="n">
-        <v>335.01</v>
+        <v>334.53</v>
       </c>
       <c r="I380" t="n">
         <v>326.81</v>
@@ -16659,7 +16659,7 @@
         <v>328.35</v>
       </c>
       <c r="H381" t="n">
-        <v>337.54</v>
+        <v>337.46</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -16692,7 +16692,7 @@
         <v>340.23</v>
       </c>
       <c r="H382" t="n">
-        <v>347</v>
+        <v>346.7</v>
       </c>
       <c r="I382" t="n">
         <v>342.07</v>
@@ -16778,7 +16778,7 @@
         <v>337.02</v>
       </c>
       <c r="H384" t="n">
-        <v>336.27</v>
+        <v>335.99</v>
       </c>
       <c r="I384" t="n">
         <v>331.29</v>
@@ -16823,7 +16823,7 @@
         <v>331.54</v>
       </c>
       <c r="H385" t="n">
-        <v>336.24</v>
+        <v>336.23</v>
       </c>
       <c r="I385" t="n">
         <v>331.7</v>
@@ -16868,7 +16868,7 @@
         <v>336.22</v>
       </c>
       <c r="H386" t="n">
-        <v>338.88</v>
+        <v>339.26</v>
       </c>
       <c r="I386" t="n">
         <v>333.47</v>
@@ -16913,7 +16913,7 @@
         <v>331.75</v>
       </c>
       <c r="H387" t="n">
-        <v>338.75</v>
+        <v>338.37</v>
       </c>
       <c r="I387" t="n">
         <v>334.45</v>
@@ -16958,7 +16958,7 @@
         <v>331.49</v>
       </c>
       <c r="H388" t="n">
-        <v>335.85</v>
+        <v>336.13</v>
       </c>
       <c r="I388" t="n">
         <v>331.76</v>
@@ -17003,7 +17003,7 @@
         <v>338.7</v>
       </c>
       <c r="H389" t="n">
-        <v>343.52</v>
+        <v>343.54</v>
       </c>
       <c r="I389" t="n">
         <v>331.65</v>
@@ -17048,7 +17048,7 @@
         <v>322.15</v>
       </c>
       <c r="H390" t="n">
-        <v>329.35</v>
+        <v>329.33</v>
       </c>
       <c r="I390" t="n">
         <v>319.27</v>
@@ -17093,7 +17093,7 @@
         <v>326.57</v>
       </c>
       <c r="H391" t="n">
-        <v>334.92</v>
+        <v>335.1</v>
       </c>
       <c r="I391" t="n">
         <v>326.01</v>
@@ -17138,7 +17138,7 @@
         <v>328.68</v>
       </c>
       <c r="H392" t="n">
-        <v>327.66</v>
+        <v>327.85</v>
       </c>
       <c r="I392" t="n">
         <v>321.73</v>
@@ -17181,7 +17181,7 @@
         <v>328.89</v>
       </c>
       <c r="H393" t="n">
-        <v>329.1</v>
+        <v>328.6</v>
       </c>
       <c r="I393" t="n">
         <v>317.8</v>
@@ -17224,7 +17224,7 @@
         <v>333.96</v>
       </c>
       <c r="H394" t="n">
-        <v>331.47</v>
+        <v>331.06</v>
       </c>
       <c r="I394" t="n">
         <v>326.05</v>
@@ -17265,7 +17265,7 @@
       </c>
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="n">
-        <v>329.35</v>
+        <v>329.8</v>
       </c>
       <c r="I395" t="n">
         <v>321.63</v>
@@ -17308,7 +17308,7 @@
         <v>333.69</v>
       </c>
       <c r="H396" t="n">
-        <v>335.91</v>
+        <v>335.53</v>
       </c>
       <c r="I396" t="n">
         <v>318.32</v>
@@ -17382,7 +17382,7 @@
         <v>323.26</v>
       </c>
       <c r="H398" t="n">
-        <v>326.92</v>
+        <v>326.57</v>
       </c>
       <c r="I398" t="n">
         <v>315.22</v>
@@ -17427,7 +17427,7 @@
         <v>336.23</v>
       </c>
       <c r="H399" t="n">
-        <v>337.48</v>
+        <v>337.78</v>
       </c>
       <c r="I399" t="n">
         <v>328.13</v>
@@ -17472,7 +17472,7 @@
         <v>336.3</v>
       </c>
       <c r="H400" t="n">
-        <v>337.35</v>
+        <v>336.98</v>
       </c>
       <c r="I400" t="n">
         <v>326.03</v>
@@ -17517,7 +17517,7 @@
         <v>329.34</v>
       </c>
       <c r="H401" t="n">
-        <v>334.58</v>
+        <v>335.1</v>
       </c>
       <c r="I401" t="n">
         <v>332.43</v>
@@ -17562,7 +17562,7 @@
         <v>329.94</v>
       </c>
       <c r="H402" t="n">
-        <v>335.7</v>
+        <v>336.13</v>
       </c>
       <c r="I402" t="n">
         <v>330.75</v>
@@ -17607,7 +17607,7 @@
         <v>335.21</v>
       </c>
       <c r="H403" t="n">
-        <v>339.27</v>
+        <v>338.87</v>
       </c>
       <c r="I403" t="n">
         <v>329.42</v>
@@ -17652,7 +17652,7 @@
         <v>335.62</v>
       </c>
       <c r="H404" t="n">
-        <v>340.1</v>
+        <v>340.02</v>
       </c>
       <c r="I404" t="n">
         <v>327.53</v>
@@ -17697,7 +17697,7 @@
         <v>330.06</v>
       </c>
       <c r="H405" t="n">
-        <v>334.28</v>
+        <v>334.38</v>
       </c>
       <c r="I405" t="n">
         <v>329.37</v>
@@ -17742,7 +17742,7 @@
         <v>328.33</v>
       </c>
       <c r="H406" t="n">
-        <v>332.6</v>
+        <v>332.39</v>
       </c>
       <c r="I406" t="n">
         <v>327.42</v>
@@ -17787,7 +17787,7 @@
         <v>334.95</v>
       </c>
       <c r="H407" t="n">
-        <v>335.32</v>
+        <v>334.83</v>
       </c>
       <c r="I407" t="n">
         <v>329.61</v>
@@ -17832,7 +17832,7 @@
         <v>337.54</v>
       </c>
       <c r="H408" t="n">
-        <v>339.79</v>
+        <v>339.53</v>
       </c>
       <c r="I408" t="n">
         <v>327.45</v>
@@ -17871,7 +17871,7 @@
         <v>325.8</v>
       </c>
       <c r="H409" t="n">
-        <v>329.04</v>
+        <v>329.03</v>
       </c>
       <c r="I409" t="n">
         <v>317.34</v>
@@ -17916,7 +17916,7 @@
         <v>330</v>
       </c>
       <c r="H410" t="n">
-        <v>337.32</v>
+        <v>337.23</v>
       </c>
       <c r="I410" t="n">
         <v>328.93</v>
@@ -17961,7 +17961,7 @@
         <v>334.38</v>
       </c>
       <c r="H411" t="n">
-        <v>338.79</v>
+        <v>338.41</v>
       </c>
       <c r="I411" t="n">
         <v>329.01</v>
@@ -18051,7 +18051,7 @@
         <v>334.93</v>
       </c>
       <c r="H413" t="n">
-        <v>334.03</v>
+        <v>334.07</v>
       </c>
       <c r="I413" t="n">
         <v>330.4</v>
@@ -18096,7 +18096,7 @@
         <v>329.9</v>
       </c>
       <c r="H414" t="n">
-        <v>333.15</v>
+        <v>333.36</v>
       </c>
       <c r="I414" t="n">
         <v>325.29</v>
@@ -18141,7 +18141,7 @@
         <v>332.9</v>
       </c>
       <c r="H415" t="n">
-        <v>329.94</v>
+        <v>330.4</v>
       </c>
       <c r="I415" t="n">
         <v>320.98</v>
@@ -18186,7 +18186,7 @@
         <v>328.93</v>
       </c>
       <c r="H416" t="n">
-        <v>331.89</v>
+        <v>331.98</v>
       </c>
       <c r="I416" t="n">
         <v>329.39</v>
@@ -18231,7 +18231,7 @@
         <v>333.92</v>
       </c>
       <c r="H417" t="n">
-        <v>335.69</v>
+        <v>335.97</v>
       </c>
       <c r="I417" t="n">
         <v>331.35</v>
@@ -18276,7 +18276,7 @@
         <v>332.72</v>
       </c>
       <c r="H418" t="n">
-        <v>338.33</v>
+        <v>337.93</v>
       </c>
       <c r="I418" t="n">
         <v>335.25</v>
@@ -18321,7 +18321,7 @@
         <v>331.28</v>
       </c>
       <c r="H419" t="n">
-        <v>333.34</v>
+        <v>332.88</v>
       </c>
       <c r="I419" t="n">
         <v>326.49</v>
@@ -18366,7 +18366,7 @@
         <v>337.64</v>
       </c>
       <c r="H420" t="n">
-        <v>341</v>
+        <v>340.65</v>
       </c>
       <c r="I420" t="n">
         <v>331.45</v>
@@ -18411,7 +18411,7 @@
         <v>337.69</v>
       </c>
       <c r="H421" t="n">
-        <v>340.54</v>
+        <v>340.94</v>
       </c>
       <c r="I421" t="n">
         <v>332.87</v>
@@ -18456,7 +18456,7 @@
         <v>334.29</v>
       </c>
       <c r="H422" t="n">
-        <v>339.89</v>
+        <v>339.49</v>
       </c>
       <c r="I422" t="n">
         <v>332.19</v>
@@ -18501,7 +18501,7 @@
         <v>323.34</v>
       </c>
       <c r="H423" t="n">
-        <v>332.11</v>
+        <v>332.2</v>
       </c>
       <c r="I423" t="n">
         <v>320.57</v>
@@ -23475,7 +23475,7 @@
         <v>0.0946</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3015014432224339</v>
+        <v>-0.3039754935705369</v>
       </c>
       <c r="J8" t="n">
         <v>422</v>
@@ -23484,19 +23484,19 @@
         <v>388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1221834827233387</v>
+        <v>0.1244469749140876</v>
       </c>
       <c r="M8" t="n">
-        <v>4.610646396332093</v>
+        <v>4.584397185289434</v>
       </c>
       <c r="N8" t="n">
-        <v>36.62906680665448</v>
+        <v>36.46120930031267</v>
       </c>
       <c r="O8" t="n">
-        <v>6.052195205597261</v>
+        <v>6.038311792240665</v>
       </c>
       <c r="P8" t="n">
-        <v>342.3927896377243</v>
+        <v>342.4293902864726</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-42.830702131768824,173.33172529562611</t>
+          <t>-42.830703147555916,173.33172731631</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-42.830730624583005,173.33178197583385</t>
+          <t>-42.83072859301074,173.3317779344626</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-42.830682577860316,173.3316863974744</t>
+          <t>-42.83068384759504,173.33168892332768</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -24219,7 +24219,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-42.83067526418721,173.33167184856163</t>
+          <t>-42.830678006814836,173.33167730440354</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-42.830675467344825,173.33167225269804</t>
+          <t>-42.83067795602545,173.33167720336942</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-42.83066993129939,173.33166123998154</t>
+          <t>-42.830671150245266,173.3316636647997</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-42.830692583368425,173.33170630120094</t>
+          <t>-42.83069197389595,173.331705088791</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -24487,7 +24487,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-42.830682984175425,173.33168720574744</t>
+          <t>-42.830680749442216,173.33168276024588</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -24554,7 +24554,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-42.83073067537232,173.33178207686814</t>
+          <t>-42.830728491432126,173.33177773239402</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -24621,7 +24621,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-42.830692938894025,173.33170700844005</t>
+          <t>-42.8306906533722,173.33170246190292</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-42.83064641579171,173.33161446121682</t>
+          <t>-42.83064570473935,173.33161304674067</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-42.83068659022186,173.3316943791711</t>
+          <t>-42.83068725048381,173.33169569261494</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-42.83067719418445,173.33167568785774</t>
+          <t>-42.830679733654335,173.33168073956347</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -24869,7 +24869,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-42.830709800960456,173.331740551791</t>
+          <t>-42.83071107069397,173.33174307764648</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -24936,7 +24936,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-42.83070888675229,173.33173873317511</t>
+          <t>-42.83070853122689,173.33173802593564</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-42.8306980686201,173.33171721289128</t>
+          <t>-42.83069598625616,173.33171307049008</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -25070,7 +25070,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-42.83069867809245,173.33171842530143</t>
+          <t>-42.830696595728554,173.33171428290015</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -25137,7 +25137,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-42.83066282078075,173.33164709521094</t>
+          <t>-42.83066043367767,173.3316423466101</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-42.8307124420061,173.3317458055705</t>
+          <t>-42.830711934112735,173.33174479522825</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -25271,7 +25271,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-42.83067089629821,173.33166315962924</t>
+          <t>-42.830673638926264,173.33166861547036</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-42.83071884146186,173.33175853588423</t>
+          <t>-42.83072006040566,173.3317609607062</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-42.8306851173297,173.33169144918105</t>
+          <t>-42.83068659022186,173.3316943791711</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-42.830691415212826,173.33170397741526</t>
+          <t>-42.83069314205151,173.33170741257672</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -25539,7 +25539,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-42.830688520218345,173.33169821846857</t>
+          <t>-42.8306873520626,173.33169589468324</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -25606,7 +25606,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-42.8307024872943,173.33172600286545</t>
+          <t>-42.83070370623879,173.33172842768616</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -25673,7 +25673,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-42.83069105968722,173.33170327017618</t>
+          <t>-42.830692380210934,173.3317058970643</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -25740,7 +25740,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-42.830663277885584,173.33164800451752</t>
+          <t>-42.830661652623945,173.3316447714275</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-42.830636511846414,173.33159475958783</t>
+          <t>-42.8306379339516,173.3315975885393</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-42.83065758946949,173.3316366887032</t>
+          <t>-42.83065819894268,173.33163790111178</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -25941,7 +25941,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-42.830670185246454,173.331661745152</t>
+          <t>-42.83067089629821,173.33166315962924</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-42.83065880841587,173.3316391135204</t>
+          <t>-42.83065982420452,173.33164113420142</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-42.830654237366616,173.33163002045646</t>
+          <t>-42.830652459736136,173.33162648426529</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -26134,7 +26134,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-42.830682577860316,173.3316863974744</t>
+          <t>-42.83068344127993,173.33168811505462</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -26193,7 +26193,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-42.83057515809861,173.3314727106621</t>
+          <t>-42.83057480257155,173.33147200342563</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-42.83066922024761,173.33165982550435</t>
+          <t>-42.83066957577349,173.33166053274294</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-42.830701369928484,173.33172378011324</t>
+          <t>-42.83070263966236,173.33172630596806</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -26382,7 +26382,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-42.83075469870335,173.33182986610333</t>
+          <t>-42.830752667132806,173.33182582472895</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -26508,7 +26508,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-42.83076287577338,173.33184613263793</t>
+          <t>-42.830760336310895,173.33184108091865</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-42.83064956473771,173.3316207253258</t>
+          <t>-42.83064885368541,173.33161931084953</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -26642,7 +26642,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-42.830682628649704,173.33168649850853</t>
+          <t>-42.830682984175425,173.33168720574744</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-42.83072315855422,173.33176712379577</t>
+          <t>-42.83072392039398,173.3317686393097</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -26776,7 +26776,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-42.83069268494716,173.33170650326926</t>
+          <t>-42.83069502125818,173.33171115084085</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-42.83065311999889,173.33162779770768</t>
+          <t>-42.830654338945486,173.33163022252452</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -26910,7 +26910,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-42.830708277280166,173.33173752076456</t>
+          <t>-42.830706398074355,173.33173378249884</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -26973,7 +26973,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-42.83066500472596,173.33165143967585</t>
+          <t>-42.83066789972282,173.3316571986182</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -27040,7 +27040,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-42.830648548948716,173.33161870464542</t>
+          <t>-42.83064636500226,173.3316143601828</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-42.83071005490717,173.33174105696207</t>
+          <t>-42.83071142621935,173.33174378488602</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -27150,7 +27150,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-42.83066510630479,173.331651641744</t>
+          <t>-42.830663887358654,173.3316492169263</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-42.83069557994123,173.3317122622167</t>
+          <t>-42.830698576513726,173.33171822323308</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -27284,7 +27284,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-42.83066515709421,173.33165174277806</t>
+          <t>-42.83066246525477,173.33164638797248</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -27351,7 +27351,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-42.83068811390329,173.3316974101954</t>
+          <t>-42.83068902811213,173.33169922881007</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-42.8307011159817,173.3317232749423</t>
+          <t>-42.830698982828615,173.33171903150654</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -27485,7 +27485,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-42.83065743710119,173.33163638560106</t>
+          <t>-42.83065906236305,173.33163961869064</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-42.83066830603814,173.33165800689085</t>
+          <t>-42.83066632525087,173.33165406656175</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -27607,7 +27607,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-42.83062620158178,173.33157424969357</t>
+          <t>-42.83062711579258,173.3315760683046</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -27674,7 +27674,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-42.830639762372435,173.3316012257628</t>
+          <t>-42.83063900053043,173.331599710253</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -27733,7 +27733,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-42.83073255457652,173.33178581513675</t>
+          <t>-42.83073301168022,173.3317867244454</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-42.83066048446709,173.33164244764416</t>
+          <t>-42.830661398676796,173.3316442662572</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-42.83070233492624,173.33172569976287</t>
+          <t>-42.83070030335197,173.3317216583953</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -27985,7 +27985,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-42.83066205893937,173.33164557969997</t>
+          <t>-42.830663430253836,173.33164830761973</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -28052,7 +28052,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-42.830675416555415,173.33167215166395</t>
+          <t>-42.830675467344825,173.33167225269804</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-42.83070116677106,173.3317233759765</t>
+          <t>-42.83070070966684,173.3317224666688</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -28186,7 +28186,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-42.830695884677425,173.33171286842173</t>
+          <t>-42.83069634178172,173.3317137777293</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-42.83065032657944,173.33162224083614</t>
+          <t>-42.83065261210447,173.33162678736738</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -28312,7 +28312,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-42.83066922024761,173.33165982550435</t>
+          <t>-42.830667594986316,173.33165659241368</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-42.830730116689956,173.33178096549102</t>
+          <t>-42.83073291010164,173.3317865223768</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-42.83073092931883,173.33178258203955</t>
+          <t>-42.830731589579784,173.33178389548527</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -28505,7 +28505,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-42.83071320384616,173.33174732108392</t>
+          <t>-42.830711883323396,173.33174469419404</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-42.830697662305205,173.33171640461785</t>
+          <t>-42.83069608783489,173.33171327255843</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-42.83060608893659,173.33153424026423</t>
+          <t>-42.83060405735548,173.33153019890918</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -28690,7 +28690,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-42.830657183154,173.33163588043084</t>
+          <t>-42.83065896078418,173.33163941662252</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -28749,7 +28749,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-42.830675416555415,173.33167215166395</t>
+          <t>-42.83067429918853,173.33166992891367</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-42.830692481789676,173.33170609913262</t>
+          <t>-42.8306924310003,173.33170599809844</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -28863,7 +28863,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-42.830654237366616,173.33163002045646</t>
+          <t>-42.83065444052437,173.3316304245926</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -28914,7 +28914,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-42.83068704732629,173.33169528847836</t>
+          <t>-42.83068831706081,173.331697814332</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-42.830708582016236,173.33173812696984</t>
+          <t>-42.830707921754744,173.33173681352508</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -29044,7 +29044,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-42.83061111709921,173.33154424261912</t>
+          <t>-42.83060979657174,173.3315416157379</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -29217,7 +29217,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-42.83065225657836,173.33162608012915</t>
+          <t>-42.83065235815726,173.33162628219722</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -29280,7 +29280,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-42.83069750993712,173.33171610151533</t>
+          <t>-42.83069608783489,173.33171327255843</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-42.83069776388392,173.3317166066862</t>
+          <t>-42.83070035414133,173.33172175942948</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -29410,7 +29410,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-42.83067414682033,173.33166962581137</t>
+          <t>-42.83067673707986,173.33167477855073</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -29473,7 +29473,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-42.83069126284472,173.3317036743128</t>
+          <t>-42.83069116126596,173.33170347224447</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -29540,7 +29540,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-42.8307116293767,173.3317441890229</t>
+          <t>-42.83071203569141,173.33174499729668</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -29607,7 +29607,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-42.830704417289716,173.33172984216492</t>
+          <t>-42.83070599175958,173.3317329742252</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-42.830685980749244,173.3316931667614</t>
+          <t>-42.83068379680565,173.33168882229356</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -29741,7 +29741,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-42.83069461494324,173.3317103425675</t>
+          <t>-42.830691770738454,173.33170468465437</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -29800,7 +29800,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-42.83066210972878,173.33164568073406</t>
+          <t>-42.83066190657108,173.3316452765978</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -29863,7 +29863,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-42.8306456539499,173.33161294570667</t>
+          <t>-42.830644282634566,173.3316102177885</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-42.8306790226028,173.33167932508582</t>
+          <t>-42.83067678786925,173.33167487958485</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -29989,7 +29989,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-42.83059831813807,173.33151878208258</t>
+          <t>-42.83059740392635,173.3315169634732</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -30048,7 +30048,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-42.830642505003475,173.33160668159846</t>
+          <t>-42.830642606582394,173.33160688366647</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-42.830662262097064,173.33164598383624</t>
+          <t>-42.830663938148085,173.3316493179604</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -30182,7 +30182,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-42.83066881393229,173.33165901723166</t>
+          <t>-42.83067043919351,173.3316622503224</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-42.8306367150043,173.33159516372373</t>
+          <t>-42.83063894974096,173.33159960921898</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-42.83067567050243,173.33167265683446</t>
+          <t>-42.830677143395064,173.33167558682362</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -30434,7 +30434,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-42.83068694574753,173.33169508641006</t>
+          <t>-42.83068567601295,173.33169256055655</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -30485,7 +30485,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-42.830714372000855,173.3317496448712</t>
+          <t>-42.83071183253405,173.3317445931598</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -30552,7 +30552,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-42.830693700734585,173.3317085239525</t>
+          <t>-42.830692938894025,173.33170700844005</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -30619,7 +30619,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>-42.83071107069397,173.33174307764648</t>
+          <t>-42.83071112148332,173.33174317868068</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -30682,7 +30682,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>-42.83067069314056,173.33166275549286</t>
+          <t>-42.830671912086416,173.3316651803111</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -30749,7 +30749,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>-42.830694056260185,173.33170923119167</t>
+          <t>-42.83069212626407,173.33170539189348</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -30816,7 +30816,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-42.83069888124989,173.33171882943816</t>
+          <t>-42.83069705283283,173.33171519220772</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -30879,7 +30879,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>-42.83065129157892,173.33162416048262</t>
+          <t>-42.830648802895965,173.3316192098155</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -30946,7 +30946,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-42.830631788425144,173.3315853634285</t>
+          <t>-42.830630721846035,173.33158324171535</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -31013,7 +31013,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-42.83065789420609,173.3316372949075</t>
+          <t>-42.83065951946792,173.3316405279971</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -31076,7 +31076,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-42.830661398676796,173.3316442662572</t>
+          <t>-42.83066302393844,173.33164749934718</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -31206,7 +31206,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-42.83068938363778,173.33169993604912</t>
+          <t>-42.8306873520626,173.33169589468324</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-42.830738039820545,173.3317967268412</t>
+          <t>-42.830735144830776,173.33179096788584</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -31340,7 +31340,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-42.83068532048724,173.33169185331758</t>
+          <t>-42.83068664101123,173.33169448020521</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -31403,7 +31403,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-42.830655608681475,173.33163274837548</t>
+          <t>-42.83065667525964,173.33163487009037</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-42.83065545631315,173.33163244527336</t>
+          <t>-42.830657183154,173.33163588043084</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -31521,7 +31521,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>-42.83069344678774,173.33170801878168</t>
+          <t>-42.8306929896834,173.33170710947422</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -31588,7 +31588,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>-42.830720923824146,173.33176267828847</t>
+          <t>-42.83071985724836,173.3317605565692</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -31655,7 +31655,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>-42.83061553578684,173.3315530325687</t>
+          <t>-42.83061436762811,173.33155070878882</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -31722,7 +31722,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-42.83057856100032,173.3314794799257</t>
+          <t>-42.830580186266666,173.33148271300703</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>-42.83068039391645,173.33168205300703</t>
+          <t>-42.83068318733298,173.33168760988397</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -31852,7 +31852,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>-42.83070380781751,173.33172862975456</t>
+          <t>-42.83070558544478,173.33173216595156</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -31903,7 +31903,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>-42.830688723375864,173.33169862260516</t>
+          <t>-42.83068978995281,173.33170074432232</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -31970,7 +31970,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>-42.83070589018088,173.33173277215678</t>
+          <t>-42.83070492518323,173.33173085250692</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -32029,7 +32029,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-42.830679936811904,173.33168114369997</t>
+          <t>-42.83067683865866,173.33167498061897</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -32092,7 +32092,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>-42.830673029453386,173.33166740306118</t>
+          <t>-42.830672521559315,173.33166639272022</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -32159,7 +32159,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-42.83071041043255,173.3317417642016</t>
+          <t>-42.830711730955386,173.33174439109138</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -32226,7 +32226,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-42.83066454762115,173.33165053036922</t>
+          <t>-42.83066703630273,173.33165548103884</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -32285,7 +32285,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>-42.83074301717069,173.33180662820422</t>
+          <t>-42.83074494716337,173.33181046750872</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -32340,7 +32340,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>-42.83067907339218,173.33167942611993</t>
+          <t>-42.83068105417858,173.33168336645062</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>-42.83062731895053,173.3315764724404</t>
+          <t>-42.83062610000279,173.33157404762568</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -32474,7 +32474,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>-42.830704874393874,173.33173075147275</t>
+          <t>-42.83070634728501,173.3317336814646</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -32525,7 +32525,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>-42.83069390389207,173.33170892808914</t>
+          <t>-42.830690856529706,173.33170286603954</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -32584,7 +32584,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-42.830645907897164,173.3316134508767</t>
+          <t>-42.83064768552804,173.33161698706715</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -32702,7 +32702,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>-42.83051380421925,173.33135066197738</t>
+          <t>-42.83051273763574,173.33134854027222</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -32769,7 +32769,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-42.83067617839645,173.33167366717555</t>
+          <t>-42.83067297866398,173.33166730202709</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -32828,7 +32828,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>-42.83066459841057,173.33165063140328</t>
+          <t>-42.830666934723894,173.3316552789707</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -32895,7 +32895,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-42.83068435548893,173.33168993366903</t>
+          <t>-42.83068653943247,173.33169427813692</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -32962,7 +32962,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>-42.830656218154715,173.331633960784</t>
+          <t>-42.83065743710119,173.33163638560106</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -33021,7 +33021,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>-42.83066515709421,173.33165174277806</t>
+          <t>-42.830664344463464,173.33165012623294</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>-42.83072925327174,173.33177924790823</t>
+          <t>-42.830726205913145,173.3317731858517</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -33143,7 +33143,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-42.8307124420061,173.3317458055705</t>
+          <t>-42.83071254358478,173.33174600763894</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>-42.83068339049054,173.33168801402047</t>
+          <t>-42.83068562522355,173.33169245952243</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -33277,7 +33277,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>-42.83066993129939,173.33166123998154</t>
+          <t>-42.83066769656514,173.33165679448186</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33340,7 +33340,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>-42.83066490314711,173.3316512376077</t>
+          <t>-42.83066683314506,173.3316550769025</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33407,7 +33407,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>-42.83065799578495,173.3316374969756</t>
+          <t>-42.83065992578337,173.33164133626954</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>-42.830672419980495,173.33166619065202</t>
+          <t>-42.830671454981726,173.33166427100426</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -33533,7 +33533,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>-42.83068435548893,173.33168993366903</t>
+          <t>-42.83068643785371,173.33169407606866</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>-42.83072402197262,173.33176884137825</t>
+          <t>-42.83072244750377,173.33176570931616</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>-42.83073123405465,173.33178318824525</t>
+          <t>-42.83073341799464,173.33178753271974</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -33734,7 +33734,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>-42.8306379339516,173.3315975885393</t>
+          <t>-42.83064011789869,173.33160193300074</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -33848,7 +33848,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>-42.83071802883264,173.3317569193363</t>
+          <t>-42.830718943040516,173.33175873795275</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -33907,7 +33907,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>-42.830704315711024,173.33172964009654</t>
+          <t>-42.830703401502674,173.33172782148097</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-42.83066099236138,173.3316434579847</t>
+          <t>-42.830659621046784,173.3316407300652</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -34041,7 +34041,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-42.83064570473935,173.33161304674067</t>
+          <t>-42.830647533159684,173.33161668396508</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -34108,7 +34108,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>-42.83068821548206,173.3316976122637</t>
+          <t>-42.83068841863958,173.33169801640028</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -34167,7 +34167,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>-42.83060827288612,173.33153858472122</t>
+          <t>-42.83061045683549,173.33154292917848</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -34234,7 +34234,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>-42.83068628548556,173.33169377296625</t>
+          <t>-42.83068440627831,173.33169003470314</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -34281,7 +34281,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-42.830704315711024,173.33172964009654</t>
+          <t>-42.83070614412762,173.3317332773278</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>-42.83064514605533,173.3316119353666</t>
+          <t>-42.83064692368626,173.33161547155694</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>-42.8307413919136,173.3318033951059</t>
+          <t>-42.83074002060285,173.33180066717932</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -34470,7 +34470,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>-42.830649006053775,173.33161961395157</t>
+          <t>-42.830649310790456,173.3316202201557</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -34537,7 +34537,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>-42.830611675783906,173.331545353992</t>
+          <t>-42.83061055841452,173.33154313124626</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -34604,7 +34604,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>-42.83069700204347,173.33171509117358</t>
+          <t>-42.83069781467329,173.33171670772037</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -34671,7 +34671,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>-42.830661297097954,173.33164406418908</t>
+          <t>-42.830662973149025,173.33164739831312</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -34738,7 +34738,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>-42.83065738631174,173.33163628456703</t>
+          <t>-42.83065576104978,173.3316330514776</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -34805,7 +34805,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-42.83071061358992,173.33174216833848</t>
+          <t>-42.830712391216764,173.33174570453627</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -34872,7 +34872,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>-42.830733976676925,173.33178864409697</t>
+          <t>-42.83073351957324,173.33178773478832</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -34990,7 +34990,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>-42.83073509404148,173.33179086685155</t>
+          <t>-42.83073702403469,173.33179470615502</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>-42.83066373499038,173.33164891382413</t>
+          <t>-42.83066170341338,173.33164487246157</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-42.83066490314711,173.3316512376077</t>
+          <t>-42.830667442618065,173.33165628931147</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -35191,7 +35191,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>-42.83067729576326,173.33167588992595</t>
+          <t>-42.830676229185855,173.33167376820967</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -35250,7 +35250,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>-42.830704518868416,173.33173004423332</t>
+          <t>-42.83070385860685,173.33172873078874</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -35317,7 +35317,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>-42.830678971813406,173.3316792240517</t>
+          <t>-42.83068166365128,173.33168457886015</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -35376,7 +35376,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>-42.830673740505084,173.33166881753857</t>
+          <t>-42.830675213397804,173.3316717475275</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -35443,7 +35443,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>-42.8307024872943,173.33172600286545</t>
+          <t>-42.83070187782205,173.33172479045516</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -35502,7 +35502,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>-42.83069197389595,173.331705088791</t>
+          <t>-42.83069217705344,173.33170549292763</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -35569,7 +35569,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>-42.830679886022516,173.33168104266582</t>
+          <t>-42.83067785444665,173.3316770013012</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -35636,7 +35636,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>-42.83060989815077,173.3315418178057</t>
+          <t>-42.83060847604421,173.33153898885678</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -35703,7 +35703,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>-42.83065129157892,173.33162416048262</t>
+          <t>-42.830651494736685,173.33162456461872</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
@@ -35758,7 +35758,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>-42.830654745261015,173.3316310307968</t>
+          <t>-42.83065586262865,173.33163325354568</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -35825,7 +35825,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>-42.8306477363175,173.33161708810115</t>
+          <t>-42.830649615527165,173.3316208263598</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -35955,7 +35955,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>-42.83062940131948,173.33158061483243</t>
+          <t>-42.830628944214105,173.33157970552685</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -36022,7 +36022,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>-42.830669271037024,173.33165992653844</t>
+          <t>-42.830671759718186,173.33166487720882</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -36085,7 +36085,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>-42.83065454210325,173.33163062666065</t>
+          <t>-42.83065261210447,173.33162678736738</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>-42.830632956583166,173.33158768720972</t>
+          <t>-42.830631890004085,173.33158556549645</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -36215,7 +36215,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>-42.83064057500387,173.33160284230667</t>
+          <t>-42.8306393560567,173.3316004174909</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -36282,7 +36282,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>-42.83065540552371,173.33163234423932</t>
+          <t>-42.83065764025891,173.33163678973725</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -36345,7 +36345,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>-42.83066104315081,173.33164355901877</t>
+          <t>-42.83065967183621,173.33164083109926</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -36412,7 +36412,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-42.830683492069326,173.33168821608876</t>
+          <t>-42.83068273022849,173.3316867005768</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>-42.830623205001686,173.33156828869107</t>
+          <t>-42.83062366210714,173.33156919799652</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -36538,7 +36538,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-42.83070578860217,173.33173257008838</t>
+          <t>-42.830703604660094,173.33172822561775</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -36605,7 +36605,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>-42.83063712132007,173.33159597199557</t>
+          <t>-42.83063859421469,173.3315989019811</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -36668,7 +36668,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>-42.83066302393844,173.33164749934718</t>
+          <t>-42.83066490314711,173.3316512376077</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -36731,7 +36731,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>-42.830636918162185,173.33159556785967</t>
+          <t>-42.83063884816204,173.331599407151</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -36794,7 +36794,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>-42.83068999311031,173.33170114845893</t>
+          <t>-42.830688520218345,173.33169821846857</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -36857,7 +36857,7 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>-42.83064291131916,173.33160748987046</t>
+          <t>-42.83064235263509,173.33160637849647</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>-42.830674603924955,173.33167053511826</t>
+          <t>-42.830676076817646,173.33167346510731</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -36991,7 +36991,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>-42.83068410154197,173.33168942849835</t>
+          <t>-42.830685980749244,173.3316931667614</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -37050,7 +37050,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>-42.830682323913365,173.33168589230377</t>
+          <t>-42.83067953049675,173.331680335427</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -37117,7 +37117,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>-42.83068552364479,173.33169225745416</t>
+          <t>-42.830687504430735,173.33169619778567</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -37184,7 +37184,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>-42.83074311874926,173.33180683027288</t>
+          <t>-42.83074057928501,173.3318017785568</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -37243,7 +37243,7 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>-42.83066607130377,173.3316535613914</t>
+          <t>-42.83066459841057,173.33165063140328</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -37310,7 +37310,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>-42.830671505771136,173.33166437203832</t>
+          <t>-42.83067272471695,173.3316667968566</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -37377,7 +37377,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>-42.830691821527836,173.33170478568854</t>
+          <t>-42.83069136442346,173.3317038763811</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -37483,7 +37483,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-42.83068440627831,173.33169003470314</t>
+          <t>-42.83068430469953,173.33168983263488</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -37550,7 +37550,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>-42.83068201917702,173.331685286099</t>
+          <t>-42.830684050752595,173.3316893274642</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>-42.83066302393844,173.33164749934718</t>
+          <t>-42.83066520788364,173.33165184381215</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -37684,7 +37684,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>-42.83060339709159,173.33152888546883</t>
+          <t>-42.83060253366956,173.33152716789306</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -37751,7 +37751,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>-42.8306181768412,173.3315582863323</t>
+          <t>-42.83061883710475,173.33155959977324</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
@@ -37810,7 +37810,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>-42.83066337946443,173.33164820658567</t>
+          <t>-42.83066246525477,173.33164638797248</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -37877,7 +37877,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>-42.8306800891801,173.33168144680232</t>
+          <t>-42.83067694023746,173.33167518268718</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -37944,7 +37944,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>-42.83066266841248,173.33164679210876</t>
+          <t>-42.83066439525288,173.331650227267</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -38003,7 +38003,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>-42.830623865265125,173.33156960213225</t>
+          <t>-42.83062234158025,173.3315665711142</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -38109,7 +38109,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>-42.8306519518417,173.331625473925</t>
+          <t>-42.83065032657944,173.33162224083614</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -38176,7 +38176,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>-42.83067658471166,173.3316744754484</t>
+          <t>-42.83067826076183,173.33167780957407</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -38243,7 +38243,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>-42.83063732447795,173.3315963761315</t>
+          <t>-42.830639457635634,173.33160061955886</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -38310,7 +38310,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>-42.83071975566972,173.3317603545007</t>
+          <t>-42.830717520939366,173.33175590899387</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -38373,7 +38373,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>-42.83071767330735,173.33175621209662</t>
+          <t>-42.83071873988321,173.33175833381574</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
@@ -38432,7 +38432,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>-42.83072737406731,173.33177550963995</t>
+          <t>-42.830726764595575,173.3317742972287</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -38495,7 +38495,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>-42.83062919816153,173.33158021069661</t>
+          <t>-42.83063173763566,173.33158526239455</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -38562,7 +38562,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>-42.83075393686441,173.33182835058793</t>
+          <t>-42.830751752926005,173.33182400611057</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>-42.83070578860217,173.33173257008838</t>
+          <t>-42.830708328069505,173.33173762179877</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -38684,7 +38684,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>-42.83063244868838,173.33158667687007</t>
+          <t>-42.830630721846035,173.33158324171535</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -38747,7 +38747,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>-42.830632042372535,173.33158586859835</t>
+          <t>-42.83063097579344,173.33158374688514</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -38814,7 +38814,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>-42.830671708928776,173.3316647761747</t>
+          <t>-42.83067089629821,173.33166315962924</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>-42.83066637604029,173.33165416759581</t>
+          <t>-42.830663887358654,173.3316492169263</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -38936,7 +38936,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>-42.830612742363705,173.3315474757039</t>
+          <t>-42.830614773944205,173.3315515170601</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>-42.83065301842001,173.33162759563962</t>
+          <t>-42.830651240789464,173.3316240594486</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -39050,7 +39050,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>-42.83063026474069,173.3315823324097</t>
+          <t>-42.83063173763566,173.33158526239455</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>-42.83065657368077,173.33163466802228</t>
+          <t>-42.83065819894268,173.33163790111178</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -39184,7 +39184,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>-42.83065052973722,173.3316226449722</t>
+          <t>-42.83065129157892,173.33162416048262</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>-42.830708582016236,173.33173812696984</t>
+          <t>-42.830710105696504,173.3317411579963</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -39310,7 +39310,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>-42.83068085102099,173.33168296231415</t>
+          <t>-42.83067826076183,173.33167780957407</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -39377,7 +39377,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>-42.830670337614684,173.33166204825423</t>
+          <t>-42.83066911866877,173.33165962343617</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -39436,7 +39436,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>-42.83066500472596,173.33165143967585</t>
+          <t>-42.830665411041316,173.33165224794843</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -39503,7 +39503,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>-42.83064347000322,173.33160860124445</t>
+          <t>-42.83064504447641,173.3316117332986</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>-42.830648498159256,173.3316186036114</t>
+          <t>-42.830650428158314,173.33162244290418</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -39621,7 +39621,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>-42.83061705947208,173.3315560635861</t>
+          <t>-42.83061797368318,173.33155788219662</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -39688,7 +39688,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>-42.830647533159684,173.33161668396508</t>
+          <t>-42.83064788868585,173.3316173912032</t>
         </is>
       </c>
       <c r="I249" t="inlineStr"/>
@@ -39739,7 +39739,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>-42.830647533159684,173.33161668396508</t>
+          <t>-42.83064626342335,173.3316141581148</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -39802,7 +39802,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>-42.83064499368697,173.33161163226455</t>
+          <t>-42.83064240342454,173.33160647953048</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -39869,7 +39869,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>-42.830648295001474,173.33161819947532</t>
+          <t>-42.83064997105329,173.33162153359797</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -39916,7 +39916,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>-42.83065769104836,173.3316368907713</t>
+          <t>-42.83065555789203,173.33163264734145</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -39975,7 +39975,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>-42.830644841318595,173.33161132916254</t>
+          <t>-42.83064606026554,173.33161375397873</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -40034,7 +40034,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>-42.83069050100407,173.33170215880045</t>
+          <t>-42.830688875743995,173.33169892570763</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -40093,7 +40093,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>-42.83067338497923,173.33166811029986</t>
+          <t>-42.83067292787457,173.331667200993</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -40160,7 +40160,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>-42.83064027026708,173.3316022361027</t>
+          <t>-42.83063986395136,173.33160142783078</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -40215,7 +40215,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>-42.83071807962197,173.33175702037056</t>
+          <t>-42.83071828277928,173.33175742450754</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -40270,7 +40270,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>-42.83066038288824,173.33164224557606</t>
+          <t>-42.83065977341508,173.3316410331674</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -40376,7 +40376,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>-42.83064189552992,173.3316054691905</t>
+          <t>-42.830639914740836,173.33160152886478</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -40427,7 +40427,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>-42.83065637052303,173.33163426388612</t>
+          <t>-42.83065758946949,173.3316366887032</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -40494,7 +40494,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>-42.83067567050243,173.33167265683446</t>
+          <t>-42.83067805760425,173.33167740543763</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -40561,7 +40561,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>-42.8306412352669,173.33160415574858</t>
+          <t>-42.830643673161056,173.33160900538047</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -40628,7 +40628,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>-42.8306886217971,173.33169842053687</t>
+          <t>-42.83068846942897,173.33169811743443</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -40687,7 +40687,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>-42.830617008682566,173.33155596255222</t>
+          <t>-42.83061797368318,173.33155788219662</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -40750,7 +40750,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>-42.83068420312076,173.33168963056661</t>
+          <t>-42.830684050752595,173.3316893274642</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -40817,7 +40817,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>-42.830671708928776,173.3316647761747</t>
+          <t>-42.83067069314056,173.33166275549286</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -40864,7 +40864,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>-42.83061238683711,173.3315467684666</t>
+          <t>-42.83061020288788,173.33154242400903</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -40927,7 +40927,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>-42.83065967183621,173.33164083109926</t>
+          <t>-42.83065764025891,173.33163678973725</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -40970,7 +40970,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>-42.83065281526223,173.3316271915035</t>
+          <t>-42.83065515157652,173.33163183906913</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -41017,7 +41017,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>-42.830643927108355,173.3316095105505</t>
+          <t>-42.83064270816131,173.33160708573445</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -41084,7 +41084,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>-42.83067567050243,173.33167265683446</t>
+          <t>-42.83067480708257,173.33167093925468</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -41139,7 +41139,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>-42.830654034208834,173.3316296163203</t>
+          <t>-42.83065311999889,173.33162779770768</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -41206,7 +41206,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>-42.83067668629045,173.33167467751662</t>
+          <t>-42.83067881944521,173.33167892094934</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -41273,7 +41273,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>-42.830579526002225,173.33148139956774</t>
+          <t>-42.8305773420505,173.33147705511476</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -41340,7 +41340,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>-42.83067927654978,173.33167983025643</t>
+          <t>-42.830681612861895,173.331684477826</t>
         </is>
       </c>
       <c r="I277" t="inlineStr"/>
@@ -41391,7 +41391,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>-42.830617770525166,173.33155747806094</t>
+          <t>-42.83061970052629,173.33156131734995</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -41493,7 +41493,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>-42.83068100338918,173.33168326541653</t>
+          <t>-42.8306799876013,173.33168124473409</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -41536,7 +41536,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>-42.83062620158178,173.33157424969357</t>
+          <t>-42.83062660789769,173.33157505796513</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -41603,7 +41603,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>-42.83066515709421,173.33165174277806</t>
+          <t>-42.83066510630479,173.331651641744</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -41670,7 +41670,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>-42.8306497678955,173.3316211294619</t>
+          <t>-42.830649361579916,173.33162032118972</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -41733,7 +41733,7 @@
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr">
         <is>
-          <t>-42.83064499368697,173.33161163226455</t>
+          <t>-42.83064661894954,173.33161486535286</t>
         </is>
       </c>
       <c r="I284" t="inlineStr"/>
@@ -41952,7 +41952,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>-42.83062731895053,173.3315764724404</t>
+          <t>-42.83062564289737,173.33157313832018</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -42054,7 +42054,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>-42.83067536576601,173.33167205062983</t>
+          <t>-42.83067434997793,173.33167002994776</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -42121,7 +42121,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>-42.83070390939621,173.33172883182291</t>
+          <t>-42.83070548386608,173.33173196388316</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>-42.830704874393874,173.33173075147275</t>
+          <t>-42.83070700754652,173.3317349949093</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -42239,7 +42239,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>-42.83065073289501,173.33162304910834</t>
+          <t>-42.830648548948716,173.33161870464542</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -42306,7 +42306,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>-42.830669677352326,173.33166073481112</t>
+          <t>-42.8306666807768,173.3316547738003</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -42412,7 +42412,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>-42.83069710362219,173.33171529324193</t>
+          <t>-42.830695884677425,173.33171286842173</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -42475,7 +42475,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>-42.83067282629577,173.3316669989248</t>
+          <t>-42.83067338497923,173.33166811029986</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -42534,7 +42534,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>-42.83063961000403,173.33160092266084</t>
+          <t>-42.830642200266695,173.3316060753945</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>-42.83063351526743,173.33158879858337</t>
+          <t>-42.830636003951696,173.33159374924804</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -42691,7 +42691,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>-42.83062660789769,173.33157505796513</t>
+          <t>-42.83062513500245,173.33157212798076</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -42758,7 +42758,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>-42.83065769104836,173.3316368907713</t>
+          <t>-42.83065835131098,173.33163820421393</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -42817,7 +42817,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>-42.83058013547709,173.33148261197323</t>
+          <t>-42.83058176074336,173.33148584505477</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -42880,7 +42880,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>-42.83066236367593,173.33164618590436</t>
+          <t>-42.83066373499038,173.33164891382413</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -42947,7 +42947,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>-42.830656776838524,173.33163507215846</t>
+          <t>-42.83065388184052,173.33162931321817</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -43006,7 +43006,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>-42.830658909994746,173.3316393155885</t>
+          <t>-42.83066104315081,173.33164355901877</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -43065,7 +43065,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>-42.83068755522011,173.3316962988198</t>
+          <t>-42.83068948521654,173.3317001381174</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -43132,7 +43132,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>-42.83067917497098,173.33167962818817</t>
+          <t>-42.830680647863424,173.33168255817765</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -43199,7 +43199,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>-42.83061487552322,173.3315517191279</t>
+          <t>-42.83061335183786,173.3315486881107</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -43266,7 +43266,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>-42.83064966631661,173.33162092739386</t>
+          <t>-42.83064692368626,173.33161547155694</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -43321,7 +43321,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>-42.83066424288462,173.3316499241648</t>
+          <t>-42.83066581735669,173.33165305622103</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -43380,7 +43380,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>-42.83068191759825,173.33168508403077</t>
+          <t>-42.830683542858715,173.33168831712288</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -43447,7 +43447,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>-42.83069116126596,173.33170347224447</t>
+          <t>-42.83068953600591,173.33170023915156</t>
         </is>
       </c>
       <c r="I314" t="inlineStr"/>
@@ -43498,7 +43498,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>-42.830694360996404,173.33170983739666</t>
+          <t>-42.83069263415779,173.33170640223508</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -43612,7 +43612,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>-42.83066307472789,173.33164760038125</t>
+          <t>-42.83066383656924,173.33164911589225</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -43710,7 +43710,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>-42.83066068762482,173.3316428517804</t>
+          <t>-42.83066205893937,173.33164557969997</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -43777,7 +43777,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>-42.830649513948266,173.33162062429176</t>
+          <t>-42.83064966631661,173.33162092739386</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -43844,7 +43844,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>-42.83065235815726,173.33162628219722</t>
+          <t>-42.83065251052559,173.33162658529932</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -43911,7 +43911,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>-42.83068085102099,173.33168296231415</t>
+          <t>-42.83067805760425,173.33167740543763</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -44064,7 +44064,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>-42.83065256131502,173.33162668633335</t>
+          <t>-42.83065012342164,173.33162183670004</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -44182,7 +44182,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>-42.83068318733298,173.33168760988397</t>
+          <t>-42.83068466022524,173.33169053987382</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -44249,7 +44249,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>-42.83061065999356,173.3315433333141</t>
+          <t>-42.83061264078467,173.3315472736361</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -44359,7 +44359,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>-42.830635140530646,173.33159203167045</t>
+          <t>-42.83063646105695,173.33159465855385</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -44508,7 +44508,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>-42.83064666973899,173.33161496638687</t>
+          <t>-42.83064646658117,173.33161456225082</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -44575,7 +44575,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>-42.83065520236596,173.33163194010316</t>
+          <t>-42.830656421312455,173.33163436492015</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -44638,7 +44638,7 @@
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr">
         <is>
-          <t>-42.83064189552992,173.3316054691905</t>
+          <t>-42.83064011789869,173.33160193300074</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -44705,7 +44705,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>-42.83065515157652,173.33163183906913</t>
+          <t>-42.83065322157778,173.33162799977575</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>-42.83063625789905,173.33159425441795</t>
+          <t>-42.83063864500416,173.33159900301507</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -44839,7 +44839,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>-42.83063747684637,173.33159667923346</t>
+          <t>-42.830639965530295,173.33160162989876</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -44906,7 +44906,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>-42.83060705393756,173.33153615990798</t>
+          <t>-42.83060715551662,173.33153636197574</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -44973,7 +44973,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>-42.830684914172174,173.3316910450445</t>
+          <t>-42.830684812593404,173.33169084297623</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -45040,7 +45040,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>-42.83064306368753,173.33160779297245</t>
+          <t>-42.83064240342454,173.33160647953048</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -45095,7 +45095,7 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
-          <t>-42.83063219474098,173.33158617170022</t>
+          <t>-42.83062996000379,173.33158172620594</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -45142,7 +45142,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>-42.8306099489403,173.33154191883958</t>
+          <t>-42.83060786656994,173.33153777645012</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -45209,7 +45209,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>-42.8306703884041,173.33166214928832</t>
+          <t>-42.83066805209107,173.33165750172043</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -45311,7 +45311,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>-42.830665918935516,173.33165325828915</t>
+          <t>-42.83066602051436,173.3316534603573</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -45378,7 +45378,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>-42.83067048998292,173.33166235135653</t>
+          <t>-42.83067054077234,173.33166245239062</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -45445,7 +45445,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>-42.83063925447776,173.33160021542292</t>
+          <t>-42.83063849263575,173.33159869991314</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -45512,7 +45512,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>-42.83062513500245,173.33157212798076</t>
+          <t>-42.830627268161045,173.33157637140644</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -45579,7 +45579,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>-42.830648548948716,173.33161870464542</t>
+          <t>-42.830646822107354,173.3316152694889</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -45646,7 +45646,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>-42.83061045683549,173.33154292917848</t>
+          <t>-42.83060761262233,173.3315372712807</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -45709,7 +45709,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>-42.83063803553053,173.33159779060725</t>
+          <t>-42.83063712132007,173.33159597199557</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -45776,7 +45776,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>-42.83059471208054,173.3315116086793</t>
+          <t>-42.830592782077716,173.33150776939343</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -45843,7 +45843,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>-42.83065017421108,173.33162193773407</t>
+          <t>-42.830651494736685,173.33162456461872</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -45902,7 +45902,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>-42.83063255026734,173.331586878938</t>
+          <t>-42.83063448026747,173.33159071822882</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -46016,7 +46016,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>-42.83065093605279,173.33162345324442</t>
+          <t>-42.83064915842212,173.33161991705362</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -46083,7 +46083,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>-42.83064189552992,173.3316054691905</t>
+          <t>-42.83064052421442,173.33160274127266</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -46142,7 +46142,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>-42.830654745261015,173.3316310307968</t>
+          <t>-42.83065499920821,173.331631535967</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -46209,7 +46209,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>-42.830665715777826,173.33165285415288</t>
+          <t>-42.83066469998942,173.33165083347143</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -46276,7 +46276,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>-42.8306675441969,173.33165649137965</t>
+          <t>-42.830667188670986,173.33165578414105</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -46343,7 +46343,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>-42.83064560316045,173.33161284467266</t>
+          <t>-42.83064636500226,173.3316143601828</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -46465,7 +46465,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>-42.830663887358654,173.3316492169263</t>
+          <t>-42.83066266841248,173.33164679210876</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -46532,7 +46532,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>-42.83068069865282,173.3316826592118</t>
+          <t>-42.830682882596655,173.3316870036792</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -46599,7 +46599,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>-42.830633667635844,173.3315891016853</t>
+          <t>-42.83063173763566,173.33158526239455</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -46666,7 +46666,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>-42.83063046789862,173.33158273654553</t>
+          <t>-42.83063036631966,173.3315825344776</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -46733,7 +46733,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>-42.8306442318451,173.3316101167545</t>
+          <t>-42.83064418105563,173.3316100157205</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -46800,7 +46800,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>-42.830620767105806,173.33156343906236</t>
+          <t>-42.830622392369754,173.33156667214814</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -46867,7 +46867,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>-42.83066210972878,173.33164568073406</t>
+          <t>-42.83066038288824,173.33164224557606</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -46930,7 +46930,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>-42.83065616736528,173.33163385974993</t>
+          <t>-42.830656268944146,173.33163406181802</t>
         </is>
       </c>
       <c r="I371" t="inlineStr"/>
@@ -46981,7 +46981,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>-42.830681612861895,173.331684477826</t>
+          <t>-42.83067887023459,173.3316790219835</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -47036,7 +47036,7 @@
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr">
         <is>
-          <t>-42.83060126393123,173.33152464204642</t>
+          <t>-42.830601822616096,173.3315257534189</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -47091,7 +47091,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>-42.83069649414981,173.3317140808318</t>
+          <t>-42.83069573230933,173.33171256531924</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -47158,7 +47158,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>-42.83066708709215,173.33165558207293</t>
+          <t>-42.830667848933395,173.3316570975841</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -47217,7 +47217,7 @@
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
         <is>
-          <t>-42.83061457078615,173.33155111292444</t>
+          <t>-42.83061335183786,173.3315486881107</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -47276,7 +47276,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>-42.83069192310658,173.33170498775686</t>
+          <t>-42.83069227863219,173.33170569499595</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -47390,7 +47390,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>-42.83064733000188,173.33161627982903</t>
+          <t>-42.83064910763267,173.3316198160196</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -47457,7 +47457,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>-42.83065327236723,173.33162810080978</t>
+          <t>-42.8306508344739,173.33162325117638</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -47524,7 +47524,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>-42.830666122093184,173.33165366242545</t>
+          <t>-42.830665715777826,173.33165285415288</t>
         </is>
       </c>
       <c r="I381" t="inlineStr"/>
@@ -47567,7 +47567,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>-42.83071416884352,173.33174924073427</t>
+          <t>-42.83071264516345,173.3317462097074</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -47693,7 +47693,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>-42.83065967183621,173.33164083109926</t>
+          <t>-42.83065824973212,173.33163800214584</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -47760,7 +47760,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>-42.83065951946792,173.3316405279971</t>
+          <t>-42.83065946867849,173.33164042696305</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -47827,7 +47827,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>-42.83067292787457,173.331667200993</t>
+          <t>-42.83067485787198,173.3316710402888</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -47894,7 +47894,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>-42.830672267612265,173.33166588754975</t>
+          <t>-42.830670337614684,173.33166204825423</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -47961,7 +47961,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>-42.83065753868005,173.33163658766915</t>
+          <t>-42.83065896078418,173.33163941662252</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -48028,7 +48028,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>-42.83069649414981,173.3317140808318</t>
+          <t>-42.830696595728554,173.33171428290015</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -48095,7 +48095,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>-42.830624525528556,173.33157091557345</t>
+          <t>-42.83062442394956,173.33157071350558</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -48162,7 +48162,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>-42.83065281526223,173.3316271915035</t>
+          <t>-42.8306537294722,173.33162901011607</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -48229,7 +48229,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>-42.83061594210292,173.33155384084</t>
+          <t>-42.83061690710356,173.33155576048435</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -48292,7 +48292,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>-42.83062325579119,173.33156838972502</t>
+          <t>-42.8306207163163,173.33156333802845</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -48355,7 +48355,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>-42.830635292899075,173.33159233477238</t>
+          <t>-42.830633210530564,173.33158819237957</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -48414,7 +48414,7 @@
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr">
         <is>
-          <t>-42.830624525528556,173.33157091557345</t>
+          <t>-42.830626811055645,173.33157546210091</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -48477,7 +48477,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>-42.83065784341665,173.33163719387343</t>
+          <t>-42.83065591341809,173.33163335457974</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -48579,7 +48579,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>-42.830612183679044,173.331546364331</t>
+          <t>-42.83061040604596,173.33154282814462</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -48646,7 +48646,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>-42.83066581735669,173.33165305622103</t>
+          <t>-42.83066734103923,173.33165608724332</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -48713,7 +48713,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>-42.83066515709421,173.33165174277806</t>
+          <t>-42.830663277885584,173.33164800451752</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -48780,7 +48780,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>-42.83065108842113,173.3316237563465</t>
+          <t>-42.8306537294722,173.33162901011607</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -48847,7 +48847,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>-42.830656776838524,173.33163507215846</t>
+          <t>-42.83065896078418,173.33163941662252</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -48914,7 +48914,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>-42.830674908661386,173.33167114132291</t>
+          <t>-42.83067287708516,173.33166709995888</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -48981,7 +48981,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>-42.83067912418159,173.33167952715408</t>
+          <t>-42.830678717866405,173.33167871888114</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -49048,7 +49048,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>-42.83064956473771,173.3316207253258</t>
+          <t>-42.830650072632196,173.331621735666</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -49115,7 +49115,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>-42.83064103210905,173.3316037516126</t>
+          <t>-42.830639965530295,173.33160162989876</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -49182,7 +49182,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>-42.83065484683989,173.33163123286488</t>
+          <t>-42.83065235815726,173.33162628219722</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -49249,7 +49249,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>-42.83067754971025,173.3316763950965</t>
+          <t>-42.830676229185855,173.33167376820967</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -49304,7 +49304,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>-42.83062295105422,173.33156778352142</t>
+          <t>-42.83062290026471,173.33156768248747</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -49371,7 +49371,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>-42.83066500472596,173.33165143967585</t>
+          <t>-42.83066454762115,173.33165053036922</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -49438,7 +49438,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>-42.830672470769905,173.33166629168613</t>
+          <t>-42.83067054077234,173.33166245239062</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -49572,7 +49572,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>-42.830648295001474,173.33161819947532</t>
+          <t>-42.830648498159256,173.3316186036114</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -49639,7 +49639,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>-42.83064382552943,173.33160930848246</t>
+          <t>-42.83064489210804,173.33161143019655</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -49706,7 +49706,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>-42.83062752210848,173.33157687657618</t>
+          <t>-42.83062985842483,173.33158152413804</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -49773,7 +49773,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>-42.830637426056896,173.33159657819948</t>
+          <t>-42.83063788316212,173.33159748750532</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -49840,7 +49840,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>-42.83065672604908,173.3316349711244</t>
+          <t>-42.830658148153255,173.33163780007774</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -49907,7 +49907,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>-42.83067013445705,173.3316616441179</t>
+          <t>-42.83066810288048,173.33165760275452</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -49974,7 +49974,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>-42.830644790529135,173.33161122812857</t>
+          <t>-42.830642454214015,173.33160658056445</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -50041,7 +50041,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>-42.83068369522688,173.33168862022526</t>
+          <t>-42.83068191759825,173.33168508403077</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -50108,7 +50108,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>-42.83068135891494,173.33168397265538</t>
+          <t>-42.83068339049054,173.33168801402047</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -50175,7 +50175,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>-42.83067805760425,173.33167740543763</t>
+          <t>-42.830676026028236,173.33167336407323</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -50242,7 +50242,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>-42.83063854342522,173.33159880094712</t>
+          <t>-42.83063900053043,173.331599710253</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
